--- a/Source/Template.xlsx
+++ b/Source/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA21DEC-0847-4A2F-84B2-3650FF1D1D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC066E4F-11DA-45C8-B34A-8F3D35BA8FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9590" yWindow="870" windowWidth="26590" windowHeight="18870" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
+    <workbookView xWindow="3010" yWindow="4920" windowWidth="23850" windowHeight="10730" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -12807,10 +12807,10 @@
   <dimension ref="A1:AR1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12822,7 +12822,7 @@
     <col min="7" max="7" width="8.81640625" customWidth="1"/>
     <col min="10" max="10" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="55.36328125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="63.08984375" style="11" customWidth="1"/>
     <col min="13" max="13" width="21.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.1796875" style="8" customWidth="1"/>
     <col min="15" max="15" width="5" style="8" customWidth="1"/>
@@ -12983,8 +12983,8 @@
         <v>4081</v>
       </c>
       <c r="L2" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C2,"]:AFTER[",A2,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M2,IF($Q2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q2),""),IF($R2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R2),""),IF($S2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S2),""),IF($T2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T2),""),IF($AM2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM2),""),IF(AK2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK2),""),CHAR(10),"}",IF(Z2="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C2,"]:NEEDS[KiwiDeprecate]:AFTER[",A2,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bpPhotonSail]:AFTER[BeamedPowerStandalone]
+        <f>_xlfn.CONCAT("@PART[",C2,"]:AFTER[",A2,"] // ",IF(Q2="",D2,Q2),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M2,IF($Q2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q2),""),IF($R2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R2),""),IF($S2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S2),""),IF($T2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T2),""),IF($AM2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM2),""),IF(AK2&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK2),""),CHAR(10),"}",IF(Z2="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C2,"]:NEEDS[KiwiDeprecate]:AFTER[",A2,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[bpPhotonSail]:AFTER[BeamedPowerStandalone] // BP-541L "Starshot" Photon-Sail
 {
     @TechRequired = beamedPowerPropulsion
     engineUpgradeType = standardOther
@@ -13117,8 +13117,8 @@
         <v>4082</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C3,"]:AFTER[",A3,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M3,IF($Q3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q3),""),IF($R3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R3),""),IF($S3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S3),""),IF($T3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T3),""),IF($AM3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM3),""),IF(AK3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK3),""),CHAR(10),"}",IF(Z3="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C3,"]:NEEDS[KiwiDeprecate]:AFTER[",A3,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bpThermalEngine]:AFTER[BeamedPowerStandalone]
+        <f t="shared" ref="L3:L66" si="0">_xlfn.CONCAT("@PART[",C3,"]:AFTER[",A3,"] // ",IF(Q3="",D3,Q3),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M3,IF($Q3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q3),""),IF($R3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R3),""),IF($S3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S3),""),IF($T3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T3),""),IF($AM3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM3),""),IF(AK3&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK3),""),CHAR(10),"}",IF(Z3="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C3,"]:NEEDS[KiwiDeprecate]:AFTER[",A3,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[bpThermalEngine]:AFTER[BeamedPowerStandalone] // BP-TE "Unradioactive" Thermal Engine
 {
     @TechRequired = experimentalBeamedPowerPropulsion
     engineUpgradeType = standardOther
@@ -13251,8 +13251,8 @@
         <v>4083</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C4,"]:AFTER[",A4,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M4,IF($Q4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q4),""),IF($R4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R4),""),IF($S4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S4),""),IF($T4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T4),""),IF($AM4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM4),""),IF(AK4&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK4),""),CHAR(10),"}",IF(Z4="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C4,"]:NEEDS[KiwiDeprecate]:AFTER[",A4,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bpAblativeEngine]:AFTER[BeamedPowerStandalone]
+        <f t="shared" si="0"/>
+        <v>@PART[bpAblativeEngine]:AFTER[BeamedPowerStandalone] // BP-AE "Sublimation" Ablative Engine
 {
     @TechRequired = experimentalBeamedPowerPropulsion
     engineUpgradeType = standardOther
@@ -13374,7 +13374,7 @@
         <v>exoticBeamedPowerPropulsion</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>371</v>
       </c>
@@ -13406,8 +13406,8 @@
         <v>191</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>_xlfn.CONCAT("@PART[",C5,"]:AFTER[",A5,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M5,IF($Q5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q5),""),IF($R5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R5),""),IF($S5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S5),""),IF($T5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T5),""),IF($AM5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM5),""),IF(AK5&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK5),""),CHAR(10),"}",IF(Z5="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C5,"]:NEEDS[KiwiDeprecate]:AFTER[",A5,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bluedog_Vega_ThirdStage_Tank]:AFTER[Bluedog_DB]
+        <f t="shared" si="0"/>
+        <v>@PART[bluedog_Vega_ThirdStage_Tank]:AFTER[Bluedog_DB] // Vejur-3ST-160 Liquid Fuel Tank
 {
     @TechRequired = fuelSystems
     fuelTankUpgradeType = standardLiquidFuel
@@ -13497,7 +13497,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>371</v>
       </c>
@@ -13529,8 +13529,8 @@
         <v>129</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" ref="L6:L69" si="0">_xlfn.CONCAT("@PART[",C6,"]:AFTER[",A6,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M6,IF($Q6&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q6),""),IF($R6&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R6),""),IF($S6&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S6),""),IF($T6&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T6),""),IF($AM6&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM6),""),IF(AK6&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK6),""),CHAR(10),"}",IF(Z6="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C6,"]:NEEDS[KiwiDeprecate]:AFTER[",A6,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bluedog_Vega_ThirdStage_Adapter]:AFTER[Bluedog_DB]
+        <f t="shared" si="0"/>
+        <v>@PART[bluedog_Vega_ThirdStage_Adapter]:AFTER[Bluedog_DB] // Vejur-3ST-SD Truss Interstage
 {
     @TechRequired = advFuelSystems
     fuelTankUpgradeType = standardLiquidFuel
@@ -13620,7 +13620,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>371</v>
       </c>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vega_Tank2]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vega_Tank2]:AFTER[Bluedog_DB] // Vejur-200FT Balloon Fuel Tank
 {
     @TechRequired = largeVolumeContainment
     fuelTankUpgradeType = standardLiquidFuel
@@ -13743,7 +13743,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vega_Tank1]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vega_Tank1]:AFTER[Bluedog_DB] // Vejur-280FT Balloon Fuel Tank
 {
     @TechRequired = highPerformanceFuelSystems
     fuelTankUpgradeType = standardLiquidFuel
@@ -13899,7 +13899,7 @@
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vega_GE405H]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vega_GE405H]:AFTER[Bluedog_DB] // Vejur-E78 "Decker" Liquid Engine
 {
     @TechRequired = specializedFuelStorage
     fuelTankUpgradeType = standardLiquidFuel
@@ -14022,7 +14022,7 @@
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vega_EngineMount]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vega_EngineMount]:AFTER[Bluedog_DB] // Vejur-125-EM Engine Mount
 {
     @TechRequired = exoticFuelStorage
     fuelTankUpgradeType = standardLiquidFuel
@@ -14145,7 +14145,7 @@
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_Satellite3]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_Satellite3]:AFTER[Bluedog_DB] // Easton-V3 "Narly" Probe Core
 {
     @TechRequired = extremeFuelStorage
     fuelTankUpgradeType = standardLiquidFuel
@@ -14268,7 +14268,7 @@
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_Satellite2]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_Satellite2]:AFTER[Bluedog_DB] // Easton-V2 "Narly" Probe Core
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -14391,7 +14391,7 @@
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_Satellite1]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_Satellite1]:AFTER[Bluedog_DB] // Easton-V1 "Narly" Probe Core
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -14514,7 +14514,7 @@
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S2_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S2_Tank]:AFTER[Bluedog_DB] // Easton-60 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -14637,7 +14637,7 @@
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S2_ShortProbeDecoupler]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S2_ShortProbeDecoupler]:AFTER[Bluedog_DB] // HLR-VD06 0.125m Decoupler
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -14760,7 +14760,7 @@
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S2_RetroRocket]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S2_RetroRocket]:AFTER[Bluedog_DB] // Easton-RSM Retro Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -14883,7 +14883,7 @@
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S2_LongProbeDecoupler]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S2_LongProbeDecoupler]:AFTER[Bluedog_DB] // HLR-VD03 0.125m Decoupler
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15006,7 +15006,7 @@
       </c>
       <c r="L18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S2_Guidance]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S2_Guidance]:AFTER[Bluedog_DB] // Easton-AGU Guidance Unit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15129,7 +15129,7 @@
       </c>
       <c r="L19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S1_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S1_Tank]:AFTER[Bluedog_DB] // Easton-490 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15252,7 +15252,7 @@
       </c>
       <c r="L20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_S1_Interstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_S1_Interstage]:AFTER[Bluedog_DB] // Easton-SIF 0.9375m Adapter Interstage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15375,7 +15375,7 @@
       </c>
       <c r="L21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Vanguard_GE405]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Vanguard_GE405]:AFTER[Bluedog_DB] // Easton-50 "Viking" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15498,7 +15498,7 @@
       </c>
       <c r="L22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_IDCSP_Truss]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_IDCSP_Truss]:AFTER[Bluedog_DB] // MOCA Satellite Truss
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15621,7 +15621,7 @@
       </c>
       <c r="L23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1208]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1208]:AFTER[Bluedog_DB] // Prometheus SRB1208 "Phaeton" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15744,7 +15744,7 @@
       </c>
       <c r="L24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1207]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1207]:AFTER[Bluedog_DB] // Prometheus SRB1207 "Helios" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15867,7 +15867,7 @@
       </c>
       <c r="L25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1206]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1206]:AFTER[Bluedog_DB] // Prometheus SRB1206 "Eurus" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -15990,7 +15990,7 @@
       </c>
       <c r="L26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1205]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1205]:AFTER[Bluedog_DB] // Prometheus SRB1205 "Eos" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16113,7 +16113,7 @@
       </c>
       <c r="L27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1204]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1204]:AFTER[Bluedog_DB] // Prometheus SRB1204 "Hekatos" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16236,7 +16236,7 @@
       </c>
       <c r="L28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1203]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1203]:AFTER[Bluedog_DB] // Prometheus SRB1203 "Heliades" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16326,7 +16326,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>371</v>
       </c>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="L29" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_UA1202]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UA1202]:AFTER[Bluedog_DB] // Prometheus SRB1202 "Los" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16482,7 +16482,7 @@
       </c>
       <c r="L30" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage_RCS_E]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage_RCS_E]:AFTER[Bluedog_DB] // Prometheus-III-S3 RCE Control System
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16605,7 +16605,7 @@
       </c>
       <c r="L31" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage_RCS_D]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage_RCS_D]:AFTER[Bluedog_DB] // Prometheus-III-S3 RCD Control System
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16728,7 +16728,7 @@
       </c>
       <c r="L32" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage_RCS_C]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage_RCS_C]:AFTER[Bluedog_DB] // Prometheus-III-S3 RCC Control System
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16851,7 +16851,7 @@
       </c>
       <c r="L33" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage_RCS_B]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage_RCS_B]:AFTER[Bluedog_DB] // Prometheus-III-S3 RCB Control System
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -16974,7 +16974,7 @@
       </c>
       <c r="L34" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage_RCS_A]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage_RCS_A]:AFTER[Bluedog_DB] // Prometheus-III-S3 RCA Control System
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17097,7 +17097,7 @@
       </c>
       <c r="L35" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage_Antenna]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage_Antenna]:AFTER[Bluedog_DB] // Prometheus-III-S3 Engineering Antenna
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17220,7 +17220,7 @@
       </c>
       <c r="L36" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_Transtage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_Transtage]:AFTER[Bluedog_DB] // Prometheus-III-S3 "Metis" Upper Stage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17343,7 +17343,7 @@
       </c>
       <c r="L37" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan_SRB_Parachute]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan_SRB_Parachute]:AFTER[Bluedog_DB] // Prometheus-KRU Landing Recovery Parachute
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17466,7 +17466,7 @@
       </c>
       <c r="L38" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan4_S2_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan4_S2_Tank]:AFTER[Bluedog_DB] // Prometheus-IV-1400 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17589,7 +17589,7 @@
       </c>
       <c r="L39" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan4_S1_Lower_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan4_S1_Lower_Tank]:AFTER[Bluedog_DB] // Prometheus-IV-2740 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17712,7 +17712,7 @@
       </c>
       <c r="L40" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan4_PLF]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan4_PLF]:AFTER[Bluedog_DB] // Prometheus-IV 3.125m Fairing Base Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17835,7 +17835,7 @@
       </c>
       <c r="L41" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan3_S1_Stretched_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan3_S1_Stretched_Tank]:AFTER[Bluedog_DB] // Prometheus-III-3080 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -17958,7 +17958,7 @@
       </c>
       <c r="L42" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan3_S1_EngineShroud]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan3_S1_EngineShroud]:AFTER[Bluedog_DB] // Prometheus-III-EHS Engine Shroud
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18081,7 +18081,7 @@
       </c>
       <c r="L43" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan3_CommercialPLF]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan3_CommercialPLF]:AFTER[Bluedog_DB] // Prometheus-III/COMM 2.5m Fairing Base Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18171,7 +18171,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>371</v>
       </c>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="L44" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan3_AvionicsTruss]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan3_AvionicsTruss]:AFTER[Bluedog_DB] // Prometheus-ACU Avionics Unit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18294,7 +18294,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>371</v>
       </c>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="L45" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan3E_PLF]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan3E_PLF]:AFTER[Bluedog_DB] // Prometheus-IIIE 2.6m Fairing Base Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18417,7 +18417,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>371</v>
       </c>
@@ -18450,7 +18450,7 @@
       </c>
       <c r="L46" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_VernierMotor]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_VernierMotor]:AFTER[Bluedog_DB] // Prometheus-II-VTM Velocity Adjustment Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18540,7 +18540,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>371</v>
       </c>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="L47" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_Tank]:AFTER[Bluedog_DB] // Prometheus-II-1160 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18663,7 +18663,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="L48" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_RetroMotor]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_RetroMotor]:AFTER[Bluedog_DB] // Prometheus-II-RGM Separation Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18786,7 +18786,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>371</v>
       </c>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="L49" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_NoseCone]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_NoseCone]:AFTER[Bluedog_DB] // Prometheus-II 1.25m Nose Cone
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -18909,7 +18909,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>371</v>
       </c>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="L50" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_GeminiDecoupler]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_GeminiDecoupler]:AFTER[Bluedog_DB] // Prometheus-LLV 1.875m Spacecraft Stack Decoupler
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19032,7 +19032,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>371</v>
       </c>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="L51" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_EngineDecoupler]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_EngineDecoupler]:AFTER[Bluedog_DB] // Prometheus 1.875m Vented Stack Decoupler
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19155,7 +19155,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -19188,7 +19188,7 @@
       </c>
       <c r="L52" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_1p5mAdapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_1p5mAdapter]:AFTER[Bluedog_DB] // Prometheus-II 1.5m Structural Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19278,7 +19278,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>371</v>
       </c>
@@ -19311,7 +19311,7 @@
       </c>
       <c r="L53" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S2_1p25mAdapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S2_1p25mAdapter]:AFTER[Bluedog_DB] // Prometheus-II 1.25m Structural Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19401,7 +19401,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -19434,7 +19434,7 @@
       </c>
       <c r="L54" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S1_Upper_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S1_Upper_Tank]:AFTER[Bluedog_DB] // Prometheus-II-2480 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19524,7 +19524,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>371</v>
       </c>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="L55" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_S1_Lower_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan2_S1_Lower_Tank]:AFTER[Bluedog_DB] // Prometheus-II-1960 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19647,7 +19647,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>371</v>
       </c>
@@ -19680,7 +19680,7 @@
       </c>
       <c r="L56" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan23G_ACS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan23G_ACS]:AFTER[Bluedog_DB] // Prometheus-IIG-ACS Control Pack
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19770,7 +19770,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>371</v>
       </c>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="L57" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_StructuralAdapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_StructuralAdapter]:AFTER[Bluedog_DB] // Prometheus-I 1.5m Structural Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -19893,7 +19893,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>371</v>
       </c>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="L58" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_SeparationBottle]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_SeparationBottle]:AFTER[Bluedog_DB] // Prometheus-I-SSB Separation Bottle
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20016,7 +20016,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="L59" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_S2_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_S2_Tank]:AFTER[Bluedog_DB] // Prometheus-I-700 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20139,7 +20139,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>371</v>
       </c>
@@ -20172,7 +20172,7 @@
       </c>
       <c r="L60" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_S2_ShortTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_S2_ShortTank]:AFTER[Bluedog_DB] // Prometheus-I-350 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20262,7 +20262,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="L61" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_S1_UpperTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_S1_UpperTank]:AFTER[Bluedog_DB] // Prometheus-I-1700 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20385,7 +20385,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>371</v>
       </c>
@@ -20418,7 +20418,7 @@
       </c>
       <c r="L62" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_S1_LowerTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_S1_LowerTank]:AFTER[Bluedog_DB] // Prometheus-I-1200 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20508,7 +20508,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>371</v>
       </c>
@@ -20541,7 +20541,7 @@
       </c>
       <c r="L63" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan1_S1_EngineShroud]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Titan1_S1_EngineShroud]:AFTER[Bluedog_DB] // Prometheus-I-EHS Engine Shroud
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20631,7 +20631,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>371</v>
       </c>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="L64" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_SRMU_XL]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_SRMU_XL]:AFTER[Bluedog_DB] // Prometheus SRB-U300 "Nemea" Solid Rocket Booster Upgrade
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20754,7 +20754,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="L65" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_SRMU_TwoSeg]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_SRMU_TwoSeg]:AFTER[Bluedog_DB] // Prometheus SRB-U200 "Antiochis" Solid Rocket Booster Upgrade
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -20877,7 +20877,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>371</v>
       </c>
@@ -20910,7 +20910,7 @@
       </c>
       <c r="L66" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>@PART[bluedog_SRMU_Single]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_SRMU_Single]:AFTER[Bluedog_DB] // Prometheus SRB-U100 "Pandia" Solid Rocket Booster Upgrade
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21000,7 +21000,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>371</v>
       </c>
@@ -21032,8 +21032,8 @@
         <v>117</v>
       </c>
       <c r="L67" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_SRMU_Half]:AFTER[Bluedog_DB]
+        <f t="shared" ref="L67:L130" si="3">_xlfn.CONCAT("@PART[",C67,"]:AFTER[",A67,"] // ",IF(Q67="",D67,Q67),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M67,IF($Q67&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q67),""),IF($R67&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R67),""),IF($S67&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S67),""),IF($T67&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T67),""),IF($AM67&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM67),""),IF(AK67&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK67),""),CHAR(10),"}",IF(Z67="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C67,"]:NEEDS[KiwiDeprecate]:AFTER[",A67,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[bluedog_SRMU_Half]:AFTER[Bluedog_DB] // Prometheus SRB-U50 "Ersa" Solid Rocket Booster Upgrade
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21123,7 +21123,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>371</v>
       </c>
@@ -21155,8 +21155,8 @@
         <v>117</v>
       </c>
       <c r="L68" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_SRMU_Full]:AFTER[Bluedog_DB]
+        <f t="shared" si="3"/>
+        <v>@PART[bluedog_SRMU_Full]:AFTER[Bluedog_DB] // Prometheus SRB-U250 "Selene" Solid Rocket Booster Upgrade
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21246,7 +21246,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>371</v>
       </c>
@@ -21278,8 +21278,8 @@
         <v>191</v>
       </c>
       <c r="L69" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_SOLTAN_SRB]:AFTER[Bluedog_DB]
+        <f t="shared" si="3"/>
+        <v>@PART[bluedog_SOLTAN_SRB]:AFTER[Bluedog_DB] // Prometheus-I-SBR "Sultan" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21369,7 +21369,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>371</v>
       </c>
@@ -21401,8 +21401,8 @@
         <v>191</v>
       </c>
       <c r="L70" s="12" t="str">
-        <f t="shared" ref="L70:L133" si="3">_xlfn.CONCAT("@PART[",C70,"]:AFTER[",A70,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M70,IF($Q70&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q70),""),IF($R70&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R70),""),IF($S70&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S70),""),IF($T70&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T70),""),IF($AM70&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM70),""),IF(AK70&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK70),""),CHAR(10),"}",IF(Z70="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C70,"]:NEEDS[KiwiDeprecate]:AFTER[",A70,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bluedog_SOLTAN_NoseCone]:AFTER[Bluedog_DB]
+        <f t="shared" si="3"/>
+        <v>@PART[bluedog_SOLTAN_NoseCone]:AFTER[Bluedog_DB] // Prometheus 1.5m Nose Cone
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21492,7 +21492,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="L71" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR91_5_FourVernier]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR91_5_FourVernier]:AFTER[Bluedog_DB] // Prometheus LR9107-167A "Lelantos-A" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21615,7 +21615,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -21648,7 +21648,7 @@
       </c>
       <c r="L72" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR91_5]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR91_5]:AFTER[Bluedog_DB] // Prometheus LR9107-167 "Lelantos" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21738,7 +21738,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>371</v>
       </c>
@@ -21771,7 +21771,7 @@
       </c>
       <c r="L73" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR91_3_SingleVernier]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR91_3_SingleVernier]:AFTER[Bluedog_DB] // Prometheus LR9103-133A "Leto-A" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21861,7 +21861,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>371</v>
       </c>
@@ -21894,7 +21894,7 @@
       </c>
       <c r="L74" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR91_3]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR91_3]:AFTER[Bluedog_DB] // Prometheus LR9103-133 "Leto" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -21984,7 +21984,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>371</v>
       </c>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="L75" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR91_11_FourVernier]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR91_11_FourVernier]:AFTER[Bluedog_DB] // Prometheus LR9111-177A "Asteria-A" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22107,7 +22107,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>371</v>
       </c>
@@ -22140,7 +22140,7 @@
       </c>
       <c r="L76" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR91_11]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR91_11]:AFTER[Bluedog_DB] // Prometheus LR9111-177 "Asteria" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22230,7 +22230,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>371</v>
       </c>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="L77" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_LH2_V]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_LH2_V]:AFTER[Bluedog_DB] // Prometheus LE87H2-V "Perseus" Cryogenic Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22353,7 +22353,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>371</v>
       </c>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="L78" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_LH2_SL]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_LH2_SL]:AFTER[Bluedog_DB] // Prometheus LE87H2-SL "Perseus" Cryogenic Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22476,7 +22476,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>371</v>
       </c>
@@ -22509,7 +22509,7 @@
       </c>
       <c r="L79" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_5]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_5]:AFTER[Bluedog_DB] // Prometheus LR8707-548 "Pallas" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22599,7 +22599,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>371</v>
       </c>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="L80" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_3]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_3]:AFTER[Bluedog_DB] // Prometheus LR8703-367 "Perses" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22722,7 +22722,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>371</v>
       </c>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="L81" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_11_Vac]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_11_Vac]:AFTER[Bluedog_DB] // Prometheus LR8711V-303 "Astoria" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22845,7 +22845,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>371</v>
       </c>
@@ -22878,7 +22878,7 @@
       </c>
       <c r="L82" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_11_Single]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_11_Single]:AFTER[Bluedog_DB] // Prometheus LR87-3511 "Astoria" Series
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -22968,7 +22968,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="L83" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_LR87_11]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_LR87_11]:AFTER[Bluedog_DB] // Prometheus LR8711-605 "Astreous" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23091,7 +23091,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="L84" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_1875_RadialSep]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_1875_RadialSep]:AFTER[Bluedog_DB] // Prometheus SRB Radial Separatron
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23214,7 +23214,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>371</v>
       </c>
@@ -23247,7 +23247,7 @@
       </c>
       <c r="L85" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_1875_RadialDecoupler]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_1875_RadialDecoupler]:AFTER[Bluedog_DB] // Prometheus 1.875m Radial Decoupler
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23337,7 +23337,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>371</v>
       </c>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="L86" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_1875_NoseSep]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_1875_NoseSep]:AFTER[Bluedog_DB] // Prometheus SRB Nosecone Separatron
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23460,7 +23460,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>371</v>
       </c>
@@ -23493,7 +23493,7 @@
       </c>
       <c r="L87" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_UpperTank_1]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_UpperTank_1]:AFTER[Bluedog_DB] // Fenris-1400/1560 Upper Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23583,7 +23583,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>371</v>
       </c>
@@ -23616,7 +23616,7 @@
       </c>
       <c r="L88" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_ShortExtensionTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_ShortExtensionTank]:AFTER[Bluedog_DB] // Fenris-X400 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23706,7 +23706,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="L89" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_MediumExtensionTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_MediumExtensionTank]:AFTER[Bluedog_DB] // Fenris-X800 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23829,7 +23829,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>371</v>
       </c>
@@ -23862,7 +23862,7 @@
       </c>
       <c r="L90" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_LR79]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_LR79]:AFTER[Bluedog_DB] // RL79 Liquid Engine Series
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -23952,7 +23952,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>371</v>
       </c>
@@ -23985,7 +23985,7 @@
       </c>
       <c r="L91" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_LR101]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_LR101]:AFTER[Bluedog_DB] // RL-101T "Finch" Inline Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24075,7 +24075,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>371</v>
       </c>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="L92" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_LowerTank_1]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_LowerTank_1]:AFTER[Bluedog_DB] // Fenris-1400/2040/2600 Lower Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24198,7 +24198,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>371</v>
       </c>
@@ -24231,7 +24231,7 @@
       </c>
       <c r="L93" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_EngineMount]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_EngineMount]:AFTER[Bluedog_DB] // Fenris-Daleth Engine Fairing
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24321,7 +24321,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>371</v>
       </c>
@@ -24354,7 +24354,7 @@
       </c>
       <c r="L94" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_CZFin]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_CZFin]:AFTER[Bluedog_DB] // Fenris-TF Trapezoidal Aerodynamic Fin
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24444,7 +24444,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -24477,7 +24477,7 @@
       </c>
       <c r="L95" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_AbleAdapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_AbleAdapter]:AFTER[Bluedog_DB] // Fenris-LCE 1.25m Structural Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24567,7 +24567,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>371</v>
       </c>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="L96" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_1p25mAdapter_Short]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_1p25mAdapter_Short]:AFTER[Bluedog_DB] // Fenris-SFA Structural Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24690,7 +24690,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>371</v>
       </c>
@@ -24723,7 +24723,7 @@
       </c>
       <c r="L97" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_1p25mAdapter_Medium]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_1p25mAdapter_Medium]:AFTER[Bluedog_DB] // Fenris-X360 Liquid Fuel Tank Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24813,7 +24813,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="L98" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_1p25mAdapter_Long]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_1p25mAdapter_Long]:AFTER[Bluedog_DB] // Fenris-600 Upper Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -24936,7 +24936,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>371</v>
       </c>
@@ -24969,7 +24969,7 @@
       </c>
       <c r="L99" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_0p9375mInterstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_0p9375mInterstage]:AFTER[Bluedog_DB] // Fenris-SSI 0.9375m Interstage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25059,7 +25059,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>371</v>
       </c>
@@ -25092,7 +25092,7 @@
       </c>
       <c r="L100" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Thor_0p9375mAdapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Thor_0p9375mAdapter]:AFTER[Bluedog_DB] // Fenris-MCA 1.25m Structural Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25182,7 +25182,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>371</v>
       </c>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="L101" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_HOSS_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_HOSS_Tank]:AFTER[Bluedog_DB] // CUSS-1200 Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25305,7 +25305,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>371</v>
       </c>
@@ -25338,7 +25338,7 @@
       </c>
       <c r="L102" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_HOSS_EngineMount]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_HOSS_EngineMount]:AFTER[Bluedog_DB] // CUSS-EMP 1.5m Engine Mount
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25428,7 +25428,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>371</v>
       </c>
@@ -25461,7 +25461,7 @@
       </c>
       <c r="L103" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_HOSS_Avionics]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_HOSS_Avionics]:AFTER[Bluedog_DB] // CUSS-ACC Avionics Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25551,7 +25551,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>371</v>
       </c>
@@ -25584,7 +25584,7 @@
       </c>
       <c r="L104" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Delta_Interstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Delta_Interstage]:AFTER[Bluedog_DB] // Daleth-K Interstage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25674,7 +25674,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>371</v>
       </c>
@@ -25707,7 +25707,7 @@
       </c>
       <c r="L105" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Delta_Fin]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Delta_Fin]:AFTER[Bluedog_DB] // Fenris-TF Aerodynamic Fin
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25797,7 +25797,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>371</v>
       </c>
@@ -25830,7 +25830,7 @@
       </c>
       <c r="L106" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Delta_DoubleBarrelAdapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Delta_DoubleBarrelAdapter]:AFTER[Bluedog_DB] // Daleth-DB Double Barrel Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -25920,7 +25920,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>371</v>
       </c>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="L107" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_DeltaIII_AdapterTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_DeltaIII_AdapterTank]:AFTER[Bluedog_DB] // Daleth-3-1700 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26043,7 +26043,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>371</v>
       </c>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="L108" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_DeltaE_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_DeltaE_Tank]:AFTER[Bluedog_DB] // Daleth-E-210 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26166,7 +26166,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>371</v>
       </c>
@@ -26199,7 +26199,7 @@
       </c>
       <c r="L109" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Ablestar_Tank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Ablestar_Tank]:AFTER[Bluedog_DB] // Alphastar-160 Liquid Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26289,7 +26289,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>371</v>
       </c>
@@ -26322,7 +26322,7 @@
       </c>
       <c r="L110" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_UpperSolids_Star48BV]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UpperSolids_Star48BV]:AFTER[Bluedog_DB] // Staara-48B/BV "Regulus" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26412,7 +26412,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>371</v>
       </c>
@@ -26445,7 +26445,7 @@
       </c>
       <c r="L111" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_UpperSolids_Star37FMV]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UpperSolids_Star37FMV]:AFTER[Bluedog_DB] // Staara-37FNV "Beran" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26535,7 +26535,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>371</v>
       </c>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="L112" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_UpperSolids_Star37BV]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UpperSolids_Star37BV]:AFTER[Bluedog_DB] // Staara-37B/BV "Berandal" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26658,7 +26658,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>371</v>
       </c>
@@ -26691,7 +26691,7 @@
       </c>
       <c r="L113" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_UpperSolids_BE3]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UpperSolids_BE3]:AFTER[Bluedog_DB] // ZE-3-LYC "Zeus" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26781,7 +26781,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>371</v>
       </c>
@@ -26814,7 +26814,7 @@
       </c>
       <c r="L114" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_UpperSolids_Altair]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_UpperSolids_Altair]:AFTER[Bluedog_DB] // Staara-20 "Aquilae" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -26904,7 +26904,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>371</v>
       </c>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="L115" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Castor_Radial]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Castor_Radial]:AFTER[Bluedog_DB] // Dioscuri-4 'Dziran' Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27027,7 +27027,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>371</v>
       </c>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="L116" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Castor_Inline]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Castor_Inline]:AFTER[Bluedog_DB] // Dioscuri-4 "Dzira" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27150,7 +27150,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>371</v>
       </c>
@@ -27183,7 +27183,7 @@
       </c>
       <c r="L117" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Antares_Inline]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Antares_Inline]:AFTER[Bluedog_DB] // Staara-31-IIIA "Satevis" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27273,7 +27273,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>371</v>
       </c>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="L118" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Antares_Basic]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Antares_Basic]:AFTER[Bluedog_DB] // Staara-31-III "Satevar" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27396,7 +27396,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -27426,7 +27426,7 @@
       </c>
       <c r="L119" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Algol_Short]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Algol_Short]:AFTER[Bluedog_DB] // Dioscuri-OPT71 "Subila" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27516,7 +27516,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>371</v>
       </c>
@@ -27546,7 +27546,7 @@
       </c>
       <c r="L120" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Algol_Radial]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Algol_Radial]:AFTER[Bluedog_DB] // Dioscuri-MGU27A "Perseir" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27636,7 +27636,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>371</v>
       </c>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="L121" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Algol_Inline]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Algol_Inline]:AFTER[Bluedog_DB] // Dioscuri-MGU27 "Persei" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27756,7 +27756,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>371</v>
       </c>
@@ -27789,7 +27789,7 @@
       </c>
       <c r="L122" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Scout_Algol_Fin]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Scout_Algol_Fin]:AFTER[Bluedog_DB] // Dioscuri-AFD1 Control Surface
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27879,7 +27879,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>371</v>
       </c>
@@ -27909,7 +27909,7 @@
       </c>
       <c r="L123" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Peacekeeper_SR120]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Peacekeeper_SR120]:AFTER[Bluedog_DB] // Paxus-MGL120/SR3 "Menelaus" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -27999,7 +27999,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>371</v>
       </c>
@@ -28029,7 +28029,7 @@
       </c>
       <c r="L124" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Peacekeeper_SR119]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Peacekeeper_SR119]:AFTER[Bluedog_DB] // Paxus-MGL119/SR2 "Minos" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28119,7 +28119,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>371</v>
       </c>
@@ -28152,7 +28152,7 @@
       </c>
       <c r="L125" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Peacekeeper_PostBoostVehicle]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Peacekeeper_PostBoostVehicle]:AFTER[Bluedog_DB] // Paxus-MGL/S4-PSBS "Orestes" Post Boost Vehicle
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28242,7 +28242,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -28272,7 +28272,7 @@
       </c>
       <c r="L126" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Peacekeeper_Castor120]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Peacekeeper_Castor120]:AFTER[Bluedog_DB] // Paxus-MGL118/CGR120 "Tyndareus/Thestius" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28362,7 +28362,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>371</v>
       </c>
@@ -28395,7 +28395,7 @@
       </c>
       <c r="L127" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Minotaur_Interstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Minotaur_Interstage]:AFTER[Bluedog_DB] // Pulgasari-VSIS 1.5m Interstage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28485,7 +28485,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -28518,7 +28518,7 @@
       </c>
       <c r="L128" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Minotaur_GCA]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Minotaur_GCA]:AFTER[Bluedog_DB] // Pulgasari-VGA Control Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28608,7 +28608,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>371</v>
       </c>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="L129" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Athena_OAM]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Athena_OAM]:AFTER[Bluedog_DB] // Minerva-VLL-AIM "Kehrl" Orbital Assist Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28731,7 +28731,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>371</v>
       </c>
@@ -28761,7 +28761,7 @@
       </c>
       <c r="L130" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>@PART[bluedog_Athena_Castor30XL]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Athena_Castor30XL]:AFTER[Bluedog_DB] // Minerva-VLL-30XL "Philanoe" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28851,7 +28851,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>371</v>
       </c>
@@ -28880,8 +28880,8 @@
         <v>162</v>
       </c>
       <c r="L131" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>@PART[bluedog_Athena_Castor30]:AFTER[Bluedog_DB]
+        <f t="shared" ref="L131:L194" si="6">_xlfn.CONCAT("@PART[",C131,"]:AFTER[",A131,"] // ",IF(Q131="",D131,Q131),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M131,IF($Q131&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q131),""),IF($R131&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R131),""),IF($S131&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S131),""),IF($T131&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T131),""),IF($AM131&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM131),""),IF(AK131&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK131),""),CHAR(10),"}",IF(Z131="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C131,"]:NEEDS[KiwiDeprecate]:AFTER[",A131,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[bluedog_Athena_Castor30]:AFTER[Bluedog_DB] // Minerva-VLL-30 "Leda" Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -28971,7 +28971,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>371</v>
       </c>
@@ -29003,8 +29003,8 @@
         <v>199</v>
       </c>
       <c r="L132" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>@PART[bluedog_TOS_Avionics]:AFTER[Bluedog_DB]
+        <f t="shared" si="6"/>
+        <v>@PART[bluedog_TOS_Avionics]:AFTER[Bluedog_DB] // PKS-ACP Avionics and Control Package
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29094,7 +29094,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>371</v>
       </c>
@@ -29126,8 +29126,8 @@
         <v>199</v>
       </c>
       <c r="L133" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>@PART[bluedog_IUS_Orbus6]:AFTER[Bluedog_DB]
+        <f t="shared" si="6"/>
+        <v>@PART[bluedog_IUS_Orbus6]:AFTER[Bluedog_DB] // Orbitas-6 0.9375m Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29217,7 +29217,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>371</v>
       </c>
@@ -29249,8 +29249,8 @@
         <v>199</v>
       </c>
       <c r="L134" s="12" t="str">
-        <f t="shared" ref="L134:L197" si="6">_xlfn.CONCAT("@PART[",C134,"]:AFTER[",A134,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M134,IF($Q134&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q134),""),IF($R134&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R134),""),IF($S134&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S134),""),IF($T134&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T134),""),IF($AM134&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM134),""),IF(AK134&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK134),""),CHAR(10),"}",IF(Z134="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C134,"]:NEEDS[KiwiDeprecate]:AFTER[",A134,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bluedog_IUS_Orbus21]:AFTER[Bluedog_DB]
+        <f t="shared" si="6"/>
+        <v>@PART[bluedog_IUS_Orbus21]:AFTER[Bluedog_DB] // Orbitas-21 1.5m Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29340,7 +29340,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>371</v>
       </c>
@@ -29373,7 +29373,7 @@
       </c>
       <c r="L135" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_IUS_Interstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_IUS_Interstage]:AFTER[Bluedog_DB] // TSS-IDA Interstage Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29463,7 +29463,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>371</v>
       </c>
@@ -29496,7 +29496,7 @@
       </c>
       <c r="L136" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_IUS_Avionics]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_IUS_Avionics]:AFTER[Bluedog_DB] // TSS-ACR Avionics and Control Package
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29586,7 +29586,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>371</v>
       </c>
@@ -29619,7 +29619,7 @@
       </c>
       <c r="L137" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_HAPS_SuperHAPS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_HAPS_SuperHAPS]:AFTER[Bluedog_DB] // KTA-LH "Super PIBS" Upper Stage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29709,7 +29709,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>371</v>
       </c>
@@ -29742,7 +29742,7 @@
       </c>
       <c r="L138" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_HAPS_HAPS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_HAPS_HAPS]:AFTER[Bluedog_DB] // KTA-SH "PIBS" Upper Stage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29832,7 +29832,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>371</v>
       </c>
@@ -29865,7 +29865,7 @@
       </c>
       <c r="L139" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Castor_RadialDecoupler]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Castor_RadialDecoupler]:AFTER[Bluedog_DB] // Dioscuri-ESMR Radial Decoupler
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -29955,7 +29955,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>371</v>
       </c>
@@ -29988,7 +29988,7 @@
       </c>
       <c r="L140" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Castor4XL]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Castor4XL]:AFTER[Bluedog_DB] // Dioscuri-4AX "Dziran-A XL" Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30078,7 +30078,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>371</v>
       </c>
@@ -30111,7 +30111,7 @@
       </c>
       <c r="L141" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Castor4]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Castor4]:AFTER[Bluedog_DB] // Dioscuri-4 'Dziran' Solid Rocket Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30201,7 +30201,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>371</v>
       </c>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="L142" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Castor2]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Castor2]:AFTER[Bluedog_DB] // Dioscuri-1 &amp; 2 Solid Rocket Booster
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30324,7 +30324,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>371</v>
       </c>
@@ -30357,7 +30357,7 @@
       </c>
       <c r="L143" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Burner2]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Burner2]:AFTER[Bluedog_DB] // MSPB-II Upper Stage Kit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30447,7 +30447,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>371</v>
       </c>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="L144" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Spacelab_SolarPanel]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Spacelab_SolarPanel]:AFTER[Bluedog_DB] // Hokulani-PPAx Double Solar Panel
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30570,7 +30570,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>371</v>
       </c>
@@ -30603,7 +30603,7 @@
       </c>
       <c r="L145" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Spacelab_ERM]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Spacelab_ERM]:AFTER[Bluedog_DB] // Hokulani-FRM Foreign Research Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30693,7 +30693,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>371</v>
       </c>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="L146" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Spacelab_Airlock]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Spacelab_Airlock]:AFTER[Bluedog_DB] // Hokulani-EALM Expansion Airlock Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30816,7 +30816,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -30849,7 +30849,7 @@
       </c>
       <c r="L147" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Spacelab_Adapter]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Spacelab_Adapter]:AFTER[Bluedog_DB] // Hokulani-RAM Adapter Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -30939,7 +30939,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>371</v>
       </c>
@@ -30972,7 +30972,7 @@
       </c>
       <c r="L148" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_SolarPanel]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_SolarPanel]:AFTER[Bluedog_DB] // Hokulani-PPA Solar Panel
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31062,7 +31062,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>371</v>
       </c>
@@ -31095,7 +31095,7 @@
       </c>
       <c r="L149" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_RCS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_RCS]:AFTER[Bluedog_DB] // Hokulani-ACT RCS Unit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31185,7 +31185,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>371</v>
       </c>
@@ -31218,7 +31218,7 @@
       </c>
       <c r="L150" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_Radiator]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_Radiator]:AFTER[Bluedog_DB] // Hokulani-RMPS Radiator Unit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31308,7 +31308,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>371</v>
       </c>
@@ -31341,7 +31341,7 @@
       </c>
       <c r="L151" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_RadialAttachmentPort]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_RadialAttachmentPort]:AFTER[Bluedog_DB] // Hokulani-RAP Radial Attachment Point
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31431,7 +31431,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>371</v>
       </c>
@@ -31464,7 +31464,7 @@
       </c>
       <c r="L152" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_OWS_Wet]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_OWS_Wet]:AFTER[Bluedog_DB] // Hokulani-WWS Wet Workshop
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31554,7 +31554,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>371</v>
       </c>
@@ -31587,7 +31587,7 @@
       </c>
       <c r="L153" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_OWS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_OWS]:AFTER[Bluedog_DB] // Hokulani-OWS Orbital Workshop
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31677,7 +31677,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>371</v>
       </c>
@@ -31710,7 +31710,7 @@
       </c>
       <c r="L154" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_MDA]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_MDA]:AFTER[Bluedog_DB] // Hokulani-MDA Multiple Docking Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31800,7 +31800,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>371</v>
       </c>
@@ -31833,7 +31833,7 @@
       </c>
       <c r="L155" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_DisconeAntenna]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_DisconeAntenna]:AFTER[Bluedog_DB] // Hokulani-DCA Discone Antenna
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -31923,7 +31923,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>371</v>
       </c>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="L156" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_ATMsolar]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_ATMsolar]:AFTER[Bluedog_DB] // Kane-OCO-PP Solar Panel
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32046,7 +32046,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>371</v>
       </c>
@@ -32079,7 +32079,7 @@
       </c>
       <c r="L157" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_ATM]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_ATM]:AFTER[Bluedog_DB] // Kane-OCO Telescope Mount
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32169,7 +32169,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -32202,7 +32202,7 @@
       </c>
       <c r="L158" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Skylab_Airlock]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Skylab_Airlock]:AFTER[Bluedog_DB] // Hokulani-ALM Airlock Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32292,7 +32292,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>371</v>
       </c>
@@ -32325,7 +32325,7 @@
       </c>
       <c r="L159" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_MiniGoo]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_MiniGoo]:AFTER[Bluedog_DB] // Micro Gooâ„¢ Radiometer
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32415,7 +32415,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>371</v>
       </c>
@@ -32448,7 +32448,7 @@
       </c>
       <c r="L160" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[Bluedog_Micrometeorite]:AFTER[Bluedog_DB]
+        <v>@PART[Bluedog_Micrometeorite]:AFTER[Bluedog_DB] // P1NG-0WW Micrometeoroid Detector
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32538,7 +32538,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -32571,7 +32571,7 @@
       </c>
       <c r="L161" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[Bluedog_MassSpec]:AFTER[Bluedog_DB]
+        <v>@PART[Bluedog_MassSpec]:AFTER[Bluedog_DB] // COS-B3N3T Quadropole Mass Spectrometer
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32661,7 +32661,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -32694,7 +32694,7 @@
       </c>
       <c r="L162" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_IRspec]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_IRspec]:AFTER[Bluedog_DB] // AIL-CH Infra-red Spectrometer
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32784,7 +32784,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -32817,7 +32817,7 @@
       </c>
       <c r="L163" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[Bluedog_IonSensor]:AFTER[Bluedog_DB]
+        <v>@PART[Bluedog_IonSensor]:AFTER[Bluedog_DB] // SWD-CCCP Hemispherical Ion Trap
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -32907,7 +32907,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>371</v>
       </c>
@@ -32940,7 +32940,7 @@
       </c>
       <c r="L164" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_hydrometer]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_hydrometer]:AFTER[Bluedog_DB] // WDU-W3T Surface Hydrometer
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33030,7 +33030,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>371</v>
       </c>
@@ -33063,7 +33063,7 @@
       </c>
       <c r="L165" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[Bluedog_Geiger]:AFTER[Bluedog_DB]
+        <v>@PART[Bluedog_Geiger]:AFTER[Bluedog_DB] // Radek-716 Geiger Counter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33153,7 +33153,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>371</v>
       </c>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="L166" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_foldingMag]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_foldingMag]:AFTER[Bluedog_DB] // DSMAG-R Folding Magnetometer Boom
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33276,7 +33276,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>371</v>
       </c>
@@ -33309,7 +33309,7 @@
       </c>
       <c r="L167" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_cameraMidTech]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_cameraMidTech]:AFTER[Bluedog_DB] // Codac LO-2180 "Eastkan" Film Camera
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33399,7 +33399,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>371</v>
       </c>
@@ -33432,7 +33432,7 @@
       </c>
       <c r="L168" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_cameraLowTech]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_cameraLowTech]:AFTER[Bluedog_DB] // MV-4 "Zufar" Film Camera
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33522,7 +33522,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>371</v>
       </c>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="L169" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_cameraHighTech]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_cameraHighTech]:AFTER[Bluedog_DB] // TPE-7000 "Cassevid" Digital Camera
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33645,7 +33645,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -33678,7 +33678,7 @@
       </c>
       <c r="L170" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_J2X]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_J2X]:AFTER[Bluedog_DB] // Sarnus-HE2JX-447 "Dnoces-X" Cryogenic Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33768,7 +33768,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>371</v>
       </c>
@@ -33801,7 +33801,7 @@
       </c>
       <c r="L171" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_J2T]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_J2T]:AFTER[Bluedog_DB] // Sarnus-HE2JT "Tohces" Cryogenic Aerospike
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -33891,7 +33891,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>371</v>
       </c>
@@ -33924,7 +33924,7 @@
       </c>
       <c r="L172" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_J2SL]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_J2SL]:AFTER[Bluedog_DB] // Sarnus-HESL2J-475 "Dnoces Sea Level" Cryogenic Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34014,7 +34014,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>371</v>
       </c>
@@ -34047,7 +34047,7 @@
       </c>
       <c r="L173" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_J2S]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_J2S]:AFTER[Bluedog_DB] // Sarnus-HE2JS-428 "Dnoces-S" Cryogenic Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34137,7 +34137,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>371</v>
       </c>
@@ -34170,7 +34170,7 @@
       </c>
       <c r="L174" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_J2]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_J2]:AFTER[Bluedog_DB] // Sarnus-HE2J-515 "Dnoces" Cryogenic Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34260,7 +34260,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>371</v>
       </c>
@@ -34293,7 +34293,7 @@
       </c>
       <c r="L175" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_H1D]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_H1D]:AFTER[Bluedog_DB] // Sarnus-HD1-270 "Navi" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34383,7 +34383,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>371</v>
       </c>
@@ -34416,7 +34416,7 @@
       </c>
       <c r="L176" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_H1C]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_H1C]:AFTER[Bluedog_DB] // Sarnus-HC1-280 "Grivan" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34506,7 +34506,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>371</v>
       </c>
@@ -34539,7 +34539,7 @@
       </c>
       <c r="L177" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_Engine_F1]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_Engine_F1]:AFTER[Bluedog_DB] // Sarnus-LE1F-2214 "Regor" Liquid Engine
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34629,7 +34629,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -34662,7 +34662,7 @@
       </c>
       <c r="L178" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_VFB_MissionModule]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_VFB_MissionModule]:AFTER[Bluedog_DB] // Sarnus-BFBM Flyby Mission Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34752,7 +34752,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>371</v>
       </c>
@@ -34785,7 +34785,7 @@
       </c>
       <c r="L179" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_VFB_Dish]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_VFB_Dish]:AFTER[Bluedog_DB] // Sarnus-BFBMa(76) Communications Dish
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34875,7 +34875,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="L180" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4_Ullage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4_Ullage]:AFTER[Bluedog_DB] // Sarnus-SIV-SRM Ullage Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -34998,7 +34998,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>371</v>
       </c>
@@ -35031,7 +35031,7 @@
       </c>
       <c r="L181" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4_Tankage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4_Tankage]:AFTER[Bluedog_DB] // Sarnus-SIV-3200 Cryogenic Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35121,7 +35121,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>371</v>
       </c>
@@ -35154,7 +35154,7 @@
       </c>
       <c r="L182" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4_Interstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4_Interstage]:AFTER[Bluedog_DB] // Sarnus-SIV Interstage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35244,7 +35244,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -35277,7 +35277,7 @@
       </c>
       <c r="L183" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4_InstrumentUnit]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4_InstrumentUnit]:AFTER[Bluedog_DB] // Sarnus-SIV-CGI Instrumentation Unit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35367,7 +35367,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>371</v>
       </c>
@@ -35400,7 +35400,7 @@
       </c>
       <c r="L184" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4_EngineMount]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4_EngineMount]:AFTER[Bluedog_DB] // Sarnus-SIV-2800 Engine Mount
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35490,7 +35490,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>371</v>
       </c>
@@ -35523,7 +35523,7 @@
       </c>
       <c r="L185" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4_AdapterTank]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4_AdapterTank]:AFTER[Bluedog_DB] // Sarnus-SIV-2200 Cryogenic Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35613,7 +35613,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -35646,7 +35646,7 @@
       </c>
       <c r="L186" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_3125mFairingBase]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_3125mFairingBase]:AFTER[Bluedog_DB] // Sarnus-SIV-3125 Fairing Base
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35736,7 +35736,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -35769,7 +35769,7 @@
       </c>
       <c r="L187" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_25mFairingBase]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_25mFairingBase]:AFTER[Bluedog_DB] // Sarnus-SIV-25 Fairing Base
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35859,7 +35859,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>371</v>
       </c>
@@ -35892,7 +35892,7 @@
       </c>
       <c r="L188" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4C_Tankage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4C_Tankage]:AFTER[Bluedog_DB] // Sarnus-SIVC-6240 Cryogenic Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -35982,7 +35982,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>371</v>
       </c>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="L189" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4C_EngineMount]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4C_EngineMount]:AFTER[Bluedog_DB] // Sarnus-SIVC Engine Mount
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36105,7 +36105,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -36138,7 +36138,7 @@
       </c>
       <c r="L190" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_WideInterstage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_WideInterstage]:AFTER[Bluedog_DB] // Sarnus-SIVB-W56IA Interstage Adapter
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36228,7 +36228,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>371</v>
       </c>
@@ -36261,7 +36261,7 @@
       </c>
       <c r="L191" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_Tankage_WWS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_Tankage_WWS]:AFTER[Bluedog_DB] // Hokulani-LWWS Light Wet Workshop
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36351,7 +36351,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>371</v>
       </c>
@@ -36384,7 +36384,7 @@
       </c>
       <c r="L192" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_Tankage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_Tankage]:AFTER[Bluedog_DB] // Sarnus-SIVB-11300 Cryogenic Fuel Tank
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36474,7 +36474,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>371</v>
       </c>
@@ -36507,7 +36507,7 @@
       </c>
       <c r="L193" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_SLA_SinglePanel]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_SLA_SinglePanel]:AFTER[Bluedog_DB] // Sarnus-SIVB-SLAM Lander Adapter Segment
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36597,7 +36597,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>371</v>
       </c>
@@ -36630,7 +36630,7 @@
       </c>
       <c r="L194" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_SLA_Full]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_SLA_Full]:AFTER[Bluedog_DB] // Sarnus-SIVB-LAM(F) Petal Fairing
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36720,7 +36720,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>371</v>
       </c>
@@ -36752,8 +36752,8 @@
         <v>83</v>
       </c>
       <c r="L195" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_SLAbase]:AFTER[Bluedog_DB]
+        <f t="shared" ref="L195:L202" si="9">_xlfn.CONCAT("@PART[",C195,"]:AFTER[",A195,"] // ",IF(Q195="",D195,Q195),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M195,IF($Q195&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q195),""),IF($R195&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R195),""),IF($S195&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S195),""),IF($T195&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T195),""),IF($AM195&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM195),""),IF(AK195&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK195),""),CHAR(10),"}",IF(Z195="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C195,"]:NEEDS[KiwiDeprecate]:AFTER[",A195,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
+        <v>@PART[bluedog_Saturn_S4B_SLAbase]:AFTER[Bluedog_DB] // Sarnus-SIVB-BLAM Lunar Adapter Base
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36843,7 +36843,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>371</v>
       </c>
@@ -36875,8 +36875,8 @@
         <v>83</v>
       </c>
       <c r="L196" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_SLA]:AFTER[Bluedog_DB]
+        <f t="shared" si="9"/>
+        <v>@PART[bluedog_Saturn_S4B_SLA]:AFTER[Bluedog_DB] // Sarnus-SIVB-LAM Lander Adapter Module
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -36966,7 +36966,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>371</v>
       </c>
@@ -36998,8 +36998,8 @@
         <v>117</v>
       </c>
       <c r="L197" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>@PART[bluedog_Saturn_S4B_Interstage]:AFTER[Bluedog_DB]
+        <f t="shared" si="9"/>
+        <v>@PART[bluedog_Saturn_S4B_Interstage]:AFTER[Bluedog_DB] // Sarnus-SIVB-38IA Interstage
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -37089,7 +37089,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>371</v>
       </c>
@@ -37121,8 +37121,8 @@
         <v>83</v>
       </c>
       <c r="L198" s="12" t="str">
-        <f t="shared" ref="L198:L202" si="9">_xlfn.CONCAT("@PART[",C198,"]:AFTER[",A198,"]",CHAR(10),"{",CHAR(10),"    @TechRequired = ",M198,IF($Q198&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q198),""),IF($R198&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R198),""),IF($S198&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S198),""),IF($T198&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T198),""),IF($AM198&lt;&gt;"",_xlfn.CONCAT(CHAR(10),$AM198),""),IF(AK198&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AK198),""),CHAR(10),"}",IF(Z198="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C198,"]:NEEDS[KiwiDeprecate]:AFTER[",A198,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""))</f>
-        <v>@PART[bluedog_Saturn_S4B_InstrumentUnit]:AFTER[Bluedog_DB]
+        <f t="shared" si="9"/>
+        <v>@PART[bluedog_Saturn_S4B_InstrumentUnit]:AFTER[Bluedog_DB] // Sarnus-SIVB-IU Instrument Unit
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -37212,7 +37212,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>371</v>
       </c>
@@ -37245,7 +37245,7 @@
       </c>
       <c r="L199" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>@PART[bluedog_Saturn_S4B_EngineMount]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_EngineMount]:AFTER[Bluedog_DB] // Sarnus-SIVB Engine Mount
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -37335,7 +37335,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>371</v>
       </c>
@@ -37368,7 +37368,7 @@
       </c>
       <c r="L200" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>@PART[bluedog_Saturn_S4B_APS]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_APS]:AFTER[Bluedog_DB] // Sarnus-SIVB-APS Auxilary Propulsion System
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -37458,7 +37458,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>371</v>
       </c>
@@ -37491,7 +37491,7 @@
       </c>
       <c r="L201" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>@PART[bluedog_Saturn_S4B_375mFairingBase]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S4B_375mFairingBase]:AFTER[Bluedog_DB] // Sarnus-SIVB-375 Fairing Base
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel
@@ -37581,7 +37581,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>371</v>
       </c>
@@ -37614,7 +37614,7 @@
       </c>
       <c r="L202" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>@PART[bluedog_Saturn_S2_Ullage]:AFTER[Bluedog_DB]
+        <v>@PART[bluedog_Saturn_S2_Ullage]:AFTER[Bluedog_DB] // Sarnus-SII-SUM Ullage Motor
 {
     @TechRequired = Not Valid Combination
     fuelTankUpgradeType = standardLiquidFuel

--- a/Source/Template.xlsx
+++ b/Source/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC066E4F-11DA-45C8-B34A-8F3D35BA8FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9698D6-59E3-415C-9332-FB734779488F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3010" yWindow="4920" windowWidth="23850" windowHeight="10730" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
+    <workbookView xWindow="15750" yWindow="3500" windowWidth="22360" windowHeight="10730" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10338" uniqueCount="4093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10339" uniqueCount="4094">
   <si>
     <t>TopFolder</t>
   </si>
@@ -12320,6 +12320,9 @@
   </si>
   <si>
     <t>sublimationUpgrade</t>
+  </si>
+  <si>
+    <t>RCS</t>
   </si>
 </sst>
 </file>
@@ -12807,10 +12810,10 @@
   <dimension ref="A1:AR1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L202"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12987,12 +12990,7 @@
         <v>@PART[bpPhotonSail]:AFTER[BeamedPowerStandalone] // BP-541L "Starshot" Photon-Sail
 {
     @TechRequired = beamedPowerPropulsion
-    engineUpgradeType = standardOther
-    engineNumber = 
-    engineNumberUpgrade = 
-    engineName = 
-    engineNameUpgrade = 
-    enginePartUpgradeName = starshotUpgrade
+    rcsUpgradeType = coldGas
 }</v>
       </c>
       <c r="M2" s="9" t="str">
@@ -13006,7 +13004,7 @@
         <v>10</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>19</v>
+        <v>4093</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>256</v>
@@ -13028,27 +13026,7 @@
       </c>
       <c r="AB2" s="12" t="str">
         <f>IF(P2="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A2,"]",CHAR(10),"{",CHAR(10),"    name = ",W2,CHAR(10),"    partIcon = ",C2,CHAR(10),"    techRequired = ",AR2,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",W2,"]:NEEDS[",A2,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C2,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AO2,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C2,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C2,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C2,"]:NEEDS[",A2,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",W2,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P2="System",P2="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A2,"]",CHAR(10),"{",CHAR(10),"    name = ",W2,"Upgrade",CHAR(10),"    partIcon = ",C2,CHAR(10),"    techRequired = ",AR2,CHAR(10),"    title = ",CHAR(10),"    basicInfo = 20% Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",W2,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",W2,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
-        <v>PARTUPGRADE:NEEDS[BeamedPowerStandalone]
-{
-    name = starshotUpgrade
-    partIcon = bpPhotonSail
-    techRequired = experimentalBeamedPowerPropulsion
-    title = 
-    basicInfo = Increased Thrust, Increased Specific Impulse
-    manufacturer = Kiwi Imagineers
-    description = 
-}
-@PARTUPGRADE[starshotUpgrade]:NEEDS[BeamedPowerStandalone]:FOR[zKiwiTechTree]
-{
-    @entryCost = #$@PART[bpPhotonSail]/entryCost$
-    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/OTHER/UPGRADE_ENTRYCOST_MULTIPLIER$
-    @title = #$@PART[bpPhotonSail]/title$ Upgrade
-    @description = #Our imagineers dreamt about making the $@PART[bpPhotonSail]/engineName$ thrustier and efficientier and have 'made it so'.
-}
-@PART[bpPhotonSail]:NEEDS[BeamedPowerStandalone]:AFTER[zzKiwiTechTree]
-{
-    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[starshotUpgrade]/techRequired$!&lt;/color&gt; 
-}</v>
+        <v/>
       </c>
       <c r="AC2" s="14"/>
       <c r="AD2" s="18" t="s">
@@ -13074,36 +13052,27 @@
       </c>
       <c r="AL2" s="14"/>
       <c r="AM2" s="15" t="str">
-        <f>IF(P2="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O2&lt;3,"0_2",IF(O2&lt;5,"3_4",IF(O2&lt;7,"5_6",IF(O2&lt;9,"7_8","9Plus"))))),IF(P2="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U2),IF(P2="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V2,CHAR(10),Parts!AP2,CHAR(10),"    enginePartUpgradeName = ",W2),IF(P2="Parachute","    parachuteUpgradeType = standard",IF(P2="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O2),IF(OR(P2="System",P2="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W2,IF(P2="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P2="Fuel Tank",IF(X2="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X2="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X2,CHAR(10),"    fuelTankSizeUpgrade = ",Y2),_xlfn.CONCAT("    fuelTankUpgradeType = ",X2))),"")))))))</f>
-        <v xml:space="preserve">    engineUpgradeType = standardOther
-    engineNumber = 
-    engineNumberUpgrade = 
-    engineName = 
-    engineNameUpgrade = 
-    enginePartUpgradeName = starshotUpgrade</v>
+        <f>IF(P2="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O2&lt;3,"0_2",IF(O2&lt;5,"3_4",IF(O2&lt;7,"5_6",IF(O2&lt;9,"7_8","9Plus"))))),IF(P2="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U2),IF(P2="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V2,CHAR(10),Parts!AP2,CHAR(10),"    enginePartUpgradeName = ",W2),IF(P2="Parachute","    parachuteUpgradeType = standard",IF(P2="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O2),IF(OR(P2="System",P2="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W2,IF(P2="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P2="Fuel Tank",IF(X2="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X2="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X2,CHAR(10),"    fuelTankSizeUpgrade = ",Y2),_xlfn.CONCAT("    fuelTankUpgradeType = ",X2))),IF(P2="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
+        <v xml:space="preserve">    rcsUpgradeType = coldGas</v>
       </c>
       <c r="AN2" s="16" t="str">
         <f>IF(P2="Engine",VLOOKUP(V2,EngineUpgrades!$A$2:$C$15,2,FALSE),"")</f>
-        <v>singleFuel</v>
+        <v/>
       </c>
       <c r="AO2" s="16" t="str">
         <f>IF(P2="Engine",VLOOKUP(V2,EngineUpgrades!$A$2:$C$15,3,FALSE),"")</f>
-        <v>OTHER</v>
+        <v/>
       </c>
       <c r="AP2" s="15" t="str">
         <f>IF(AN2=EngineUpgrades!$D$1,EngineUpgrades!$D$17,IF(AN2=EngineUpgrades!$E$1,EngineUpgrades!$E$17,IF(AN2=EngineUpgrades!$F$1,EngineUpgrades!$F$17,IF(AN2=EngineUpgrades!$G$1,EngineUpgrades!$G$17,IF(AN2=EngineUpgrades!$H$1,EngineUpgrades!$H$17,"")))))</f>
-        <v xml:space="preserve">    engineNumber = 
-    engineNumberUpgrade = 
-    engineName = 
-    engineNameUpgrade = 
-</v>
+        <v/>
       </c>
       <c r="AQ2" s="17">
         <v>1</v>
       </c>
       <c r="AR2" s="16" t="str">
         <f>IF(P2="Engine",_xlfn.XLOOKUP(_xlfn.CONCAT(N2,O2+AQ2),TechTree!$C$2:$C$500,TechTree!$D$2:$D$500,"Not Valid Combination",0,1),"")</f>
-        <v>experimentalBeamedPowerPropulsion</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:44" ht="252.5" x14ac:dyDescent="0.35">
@@ -13208,7 +13177,7 @@
       </c>
       <c r="AL3" s="14"/>
       <c r="AM3" s="15" t="str">
-        <f>IF(P3="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O3&lt;3,"0_2",IF(O3&lt;5,"3_4",IF(O3&lt;7,"5_6",IF(O3&lt;9,"7_8","9Plus"))))),IF(P3="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U3),IF(P3="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V3,CHAR(10),Parts!AP3,CHAR(10),"    enginePartUpgradeName = ",W3),IF(P3="Parachute","    parachuteUpgradeType = standard",IF(P3="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O3),IF(OR(P3="System",P3="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W3,IF(P3="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P3="Fuel Tank",IF(X3="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X3="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X3,CHAR(10),"    fuelTankSizeUpgrade = ",Y3),_xlfn.CONCAT("    fuelTankUpgradeType = ",X3))),"")))))))</f>
+        <f>IF(P3="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O3&lt;3,"0_2",IF(O3&lt;5,"3_4",IF(O3&lt;7,"5_6",IF(O3&lt;9,"7_8","9Plus"))))),IF(P3="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U3),IF(P3="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V3,CHAR(10),Parts!AP3,CHAR(10),"    enginePartUpgradeName = ",W3),IF(P3="Parachute","    parachuteUpgradeType = standard",IF(P3="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O3),IF(OR(P3="System",P3="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W3,IF(P3="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P3="Fuel Tank",IF(X3="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X3="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X3,CHAR(10),"    fuelTankSizeUpgrade = ",Y3),_xlfn.CONCAT("    fuelTankUpgradeType = ",X3))),IF(P3="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    engineUpgradeType = standardOther
     engineNumber = 
     engineNumberUpgrade = 
@@ -13342,7 +13311,7 @@
       </c>
       <c r="AL4" s="14"/>
       <c r="AM4" s="15" t="str">
-        <f>IF(P4="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O4&lt;3,"0_2",IF(O4&lt;5,"3_4",IF(O4&lt;7,"5_6",IF(O4&lt;9,"7_8","9Plus"))))),IF(P4="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U4),IF(P4="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V4,CHAR(10),Parts!AP4,CHAR(10),"    enginePartUpgradeName = ",W4),IF(P4="Parachute","    parachuteUpgradeType = standard",IF(P4="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O4),IF(OR(P4="System",P4="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W4,IF(P4="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P4="Fuel Tank",IF(X4="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X4="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X4,CHAR(10),"    fuelTankSizeUpgrade = ",Y4),_xlfn.CONCAT("    fuelTankUpgradeType = ",X4))),"")))))))</f>
+        <f>IF(P4="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O4&lt;3,"0_2",IF(O4&lt;5,"3_4",IF(O4&lt;7,"5_6",IF(O4&lt;9,"7_8","9Plus"))))),IF(P4="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U4),IF(P4="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V4,CHAR(10),Parts!AP4,CHAR(10),"    enginePartUpgradeName = ",W4),IF(P4="Parachute","    parachuteUpgradeType = standard",IF(P4="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O4),IF(OR(P4="System",P4="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W4,IF(P4="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P4="Fuel Tank",IF(X4="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X4="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X4,CHAR(10),"    fuelTankSizeUpgrade = ",Y4),_xlfn.CONCAT("    fuelTankUpgradeType = ",X4))),IF(P4="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    engineUpgradeType = standardOther
     engineNumber = 
     engineNumberUpgrade = 
@@ -13374,7 +13343,7 @@
         <v>exoticBeamedPowerPropulsion</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>371</v>
       </c>
@@ -13473,7 +13442,7 @@
       </c>
       <c r="AL5" s="14"/>
       <c r="AM5" s="15" t="str">
-        <f>IF(P5="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O5&lt;3,"0_2",IF(O5&lt;5,"3_4",IF(O5&lt;7,"5_6",IF(O5&lt;9,"7_8","9Plus"))))),IF(P5="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U5),IF(P5="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V5,CHAR(10),Parts!AP5,CHAR(10),"    enginePartUpgradeName = ",W5),IF(P5="Parachute","    parachuteUpgradeType = standard",IF(P5="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O5),IF(OR(P5="System",P5="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W5,IF(P5="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P5="Fuel Tank",IF(X5="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X5="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X5,CHAR(10),"    fuelTankSizeUpgrade = ",Y5),_xlfn.CONCAT("    fuelTankUpgradeType = ",X5))),"")))))))</f>
+        <f>IF(P5="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O5&lt;3,"0_2",IF(O5&lt;5,"3_4",IF(O5&lt;7,"5_6",IF(O5&lt;9,"7_8","9Plus"))))),IF(P5="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U5),IF(P5="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V5,CHAR(10),Parts!AP5,CHAR(10),"    enginePartUpgradeName = ",W5),IF(P5="Parachute","    parachuteUpgradeType = standard",IF(P5="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O5),IF(OR(P5="System",P5="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W5,IF(P5="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P5="Fuel Tank",IF(X5="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X5="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X5,CHAR(10),"    fuelTankSizeUpgrade = ",Y5),_xlfn.CONCAT("    fuelTankUpgradeType = ",X5))),IF(P5="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size2</v>
       </c>
@@ -13497,7 +13466,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>371</v>
       </c>
@@ -13596,7 +13565,7 @@
       </c>
       <c r="AL6" s="14"/>
       <c r="AM6" s="15" t="str">
-        <f>IF(P6="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O6&lt;3,"0_2",IF(O6&lt;5,"3_4",IF(O6&lt;7,"5_6",IF(O6&lt;9,"7_8","9Plus"))))),IF(P6="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U6),IF(P6="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V6,CHAR(10),Parts!AP6,CHAR(10),"    enginePartUpgradeName = ",W6),IF(P6="Parachute","    parachuteUpgradeType = standard",IF(P6="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O6),IF(OR(P6="System",P6="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W6,IF(P6="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P6="Fuel Tank",IF(X6="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X6="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X6,CHAR(10),"    fuelTankSizeUpgrade = ",Y6),_xlfn.CONCAT("    fuelTankUpgradeType = ",X6))),"")))))))</f>
+        <f>IF(P6="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O6&lt;3,"0_2",IF(O6&lt;5,"3_4",IF(O6&lt;7,"5_6",IF(O6&lt;9,"7_8","9Plus"))))),IF(P6="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U6),IF(P6="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V6,CHAR(10),Parts!AP6,CHAR(10),"    enginePartUpgradeName = ",W6),IF(P6="Parachute","    parachuteUpgradeType = standard",IF(P6="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O6),IF(OR(P6="System",P6="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W6,IF(P6="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P6="Fuel Tank",IF(X6="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X6="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X6,CHAR(10),"    fuelTankSizeUpgrade = ",Y6),_xlfn.CONCAT("    fuelTankUpgradeType = ",X6))),IF(P6="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size3</v>
       </c>
@@ -13620,7 +13589,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>371</v>
       </c>
@@ -13719,7 +13688,7 @@
       </c>
       <c r="AL7" s="14"/>
       <c r="AM7" s="15" t="str">
-        <f>IF(P7="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O7&lt;3,"0_2",IF(O7&lt;5,"3_4",IF(O7&lt;7,"5_6",IF(O7&lt;9,"7_8","9Plus"))))),IF(P7="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U7),IF(P7="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V7,CHAR(10),Parts!AP7,CHAR(10),"    enginePartUpgradeName = ",W7),IF(P7="Parachute","    parachuteUpgradeType = standard",IF(P7="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O7),IF(OR(P7="System",P7="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W7,IF(P7="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P7="Fuel Tank",IF(X7="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X7="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X7,CHAR(10),"    fuelTankSizeUpgrade = ",Y7),_xlfn.CONCAT("    fuelTankUpgradeType = ",X7))),"")))))))</f>
+        <f>IF(P7="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O7&lt;3,"0_2",IF(O7&lt;5,"3_4",IF(O7&lt;7,"5_6",IF(O7&lt;9,"7_8","9Plus"))))),IF(P7="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U7),IF(P7="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V7,CHAR(10),Parts!AP7,CHAR(10),"    enginePartUpgradeName = ",W7),IF(P7="Parachute","    parachuteUpgradeType = standard",IF(P7="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O7),IF(OR(P7="System",P7="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W7,IF(P7="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P7="Fuel Tank",IF(X7="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X7="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X7,CHAR(10),"    fuelTankSizeUpgrade = ",Y7),_xlfn.CONCAT("    fuelTankUpgradeType = ",X7))),IF(P7="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size4</v>
       </c>
@@ -13743,7 +13712,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -13842,7 +13811,7 @@
       </c>
       <c r="AL8" s="14"/>
       <c r="AM8" s="15" t="str">
-        <f>IF(P8="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O8&lt;3,"0_2",IF(O8&lt;5,"3_4",IF(O8&lt;7,"5_6",IF(O8&lt;9,"7_8","9Plus"))))),IF(P8="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U8),IF(P8="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V8,CHAR(10),Parts!AP8,CHAR(10),"    enginePartUpgradeName = ",W8),IF(P8="Parachute","    parachuteUpgradeType = standard",IF(P8="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O8),IF(OR(P8="System",P8="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W8,IF(P8="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P8="Fuel Tank",IF(X8="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X8="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X8,CHAR(10),"    fuelTankSizeUpgrade = ",Y8),_xlfn.CONCAT("    fuelTankUpgradeType = ",X8))),"")))))))</f>
+        <f>IF(P8="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O8&lt;3,"0_2",IF(O8&lt;5,"3_4",IF(O8&lt;7,"5_6",IF(O8&lt;9,"7_8","9Plus"))))),IF(P8="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U8),IF(P8="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V8,CHAR(10),Parts!AP8,CHAR(10),"    enginePartUpgradeName = ",W8),IF(P8="Parachute","    parachuteUpgradeType = standard",IF(P8="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O8),IF(OR(P8="System",P8="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W8,IF(P8="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P8="Fuel Tank",IF(X8="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X8="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X8,CHAR(10),"    fuelTankSizeUpgrade = ",Y8),_xlfn.CONCAT("    fuelTankUpgradeType = ",X8))),IF(P8="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size5</v>
       </c>
@@ -13965,7 +13934,7 @@
       </c>
       <c r="AL9" s="14"/>
       <c r="AM9" s="15" t="str">
-        <f>IF(P9="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O9&lt;3,"0_2",IF(O9&lt;5,"3_4",IF(O9&lt;7,"5_6",IF(O9&lt;9,"7_8","9Plus"))))),IF(P9="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U9),IF(P9="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V9,CHAR(10),Parts!AP9,CHAR(10),"    enginePartUpgradeName = ",W9),IF(P9="Parachute","    parachuteUpgradeType = standard",IF(P9="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O9),IF(OR(P9="System",P9="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W9,IF(P9="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P9="Fuel Tank",IF(X9="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X9="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X9,CHAR(10),"    fuelTankSizeUpgrade = ",Y9),_xlfn.CONCAT("    fuelTankUpgradeType = ",X9))),"")))))))</f>
+        <f>IF(P9="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O9&lt;3,"0_2",IF(O9&lt;5,"3_4",IF(O9&lt;7,"5_6",IF(O9&lt;9,"7_8","9Plus"))))),IF(P9="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U9),IF(P9="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V9,CHAR(10),Parts!AP9,CHAR(10),"    enginePartUpgradeName = ",W9),IF(P9="Parachute","    parachuteUpgradeType = standard",IF(P9="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O9),IF(OR(P9="System",P9="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W9,IF(P9="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P9="Fuel Tank",IF(X9="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X9="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X9,CHAR(10),"    fuelTankSizeUpgrade = ",Y9),_xlfn.CONCAT("    fuelTankUpgradeType = ",X9))),IF(P9="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size6</v>
       </c>
@@ -14088,7 +14057,7 @@
       </c>
       <c r="AL10" s="14"/>
       <c r="AM10" s="15" t="str">
-        <f>IF(P10="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O10&lt;3,"0_2",IF(O10&lt;5,"3_4",IF(O10&lt;7,"5_6",IF(O10&lt;9,"7_8","9Plus"))))),IF(P10="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U10),IF(P10="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V10,CHAR(10),Parts!AP10,CHAR(10),"    enginePartUpgradeName = ",W10),IF(P10="Parachute","    parachuteUpgradeType = standard",IF(P10="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O10),IF(OR(P10="System",P10="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W10,IF(P10="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P10="Fuel Tank",IF(X10="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X10="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X10,CHAR(10),"    fuelTankSizeUpgrade = ",Y10),_xlfn.CONCAT("    fuelTankUpgradeType = ",X10))),"")))))))</f>
+        <f>IF(P10="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O10&lt;3,"0_2",IF(O10&lt;5,"3_4",IF(O10&lt;7,"5_6",IF(O10&lt;9,"7_8","9Plus"))))),IF(P10="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U10),IF(P10="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V10,CHAR(10),Parts!AP10,CHAR(10),"    enginePartUpgradeName = ",W10),IF(P10="Parachute","    parachuteUpgradeType = standard",IF(P10="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O10),IF(OR(P10="System",P10="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W10,IF(P10="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P10="Fuel Tank",IF(X10="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X10="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X10,CHAR(10),"    fuelTankSizeUpgrade = ",Y10),_xlfn.CONCAT("    fuelTankUpgradeType = ",X10))),IF(P10="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size7</v>
       </c>
@@ -14211,7 +14180,7 @@
       </c>
       <c r="AL11" s="14"/>
       <c r="AM11" s="15" t="str">
-        <f>IF(P11="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O11&lt;3,"0_2",IF(O11&lt;5,"3_4",IF(O11&lt;7,"5_6",IF(O11&lt;9,"7_8","9Plus"))))),IF(P11="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U11),IF(P11="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V11,CHAR(10),Parts!AP11,CHAR(10),"    enginePartUpgradeName = ",W11),IF(P11="Parachute","    parachuteUpgradeType = standard",IF(P11="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O11),IF(OR(P11="System",P11="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W11,IF(P11="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P11="Fuel Tank",IF(X11="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X11="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X11,CHAR(10),"    fuelTankSizeUpgrade = ",Y11),_xlfn.CONCAT("    fuelTankUpgradeType = ",X11))),"")))))))</f>
+        <f>IF(P11="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O11&lt;3,"0_2",IF(O11&lt;5,"3_4",IF(O11&lt;7,"5_6",IF(O11&lt;9,"7_8","9Plus"))))),IF(P11="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U11),IF(P11="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V11,CHAR(10),Parts!AP11,CHAR(10),"    enginePartUpgradeName = ",W11),IF(P11="Parachute","    parachuteUpgradeType = standard",IF(P11="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O11),IF(OR(P11="System",P11="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W11,IF(P11="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P11="Fuel Tank",IF(X11="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X11="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X11,CHAR(10),"    fuelTankSizeUpgrade = ",Y11),_xlfn.CONCAT("    fuelTankUpgradeType = ",X11))),IF(P11="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size8</v>
       </c>
@@ -14334,7 +14303,7 @@
       </c>
       <c r="AL12" s="14"/>
       <c r="AM12" s="15" t="str">
-        <f>IF(P12="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O12&lt;3,"0_2",IF(O12&lt;5,"3_4",IF(O12&lt;7,"5_6",IF(O12&lt;9,"7_8","9Plus"))))),IF(P12="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U12),IF(P12="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V12,CHAR(10),Parts!AP12,CHAR(10),"    enginePartUpgradeName = ",W12),IF(P12="Parachute","    parachuteUpgradeType = standard",IF(P12="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O12),IF(OR(P12="System",P12="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W12,IF(P12="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P12="Fuel Tank",IF(X12="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X12="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X12,CHAR(10),"    fuelTankSizeUpgrade = ",Y12),_xlfn.CONCAT("    fuelTankUpgradeType = ",X12))),"")))))))</f>
+        <f>IF(P12="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O12&lt;3,"0_2",IF(O12&lt;5,"3_4",IF(O12&lt;7,"5_6",IF(O12&lt;9,"7_8","9Plus"))))),IF(P12="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U12),IF(P12="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V12,CHAR(10),Parts!AP12,CHAR(10),"    enginePartUpgradeName = ",W12),IF(P12="Parachute","    parachuteUpgradeType = standard",IF(P12="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O12),IF(OR(P12="System",P12="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W12,IF(P12="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P12="Fuel Tank",IF(X12="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X12="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X12,CHAR(10),"    fuelTankSizeUpgrade = ",Y12),_xlfn.CONCAT("    fuelTankUpgradeType = ",X12))),IF(P12="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size9</v>
       </c>
@@ -14457,7 +14426,7 @@
       </c>
       <c r="AL13" s="14"/>
       <c r="AM13" s="15" t="str">
-        <f>IF(P13="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O13&lt;3,"0_2",IF(O13&lt;5,"3_4",IF(O13&lt;7,"5_6",IF(O13&lt;9,"7_8","9Plus"))))),IF(P13="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U13),IF(P13="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V13,CHAR(10),Parts!AP13,CHAR(10),"    enginePartUpgradeName = ",W13),IF(P13="Parachute","    parachuteUpgradeType = standard",IF(P13="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O13),IF(OR(P13="System",P13="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W13,IF(P13="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P13="Fuel Tank",IF(X13="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X13="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X13,CHAR(10),"    fuelTankSizeUpgrade = ",Y13),_xlfn.CONCAT("    fuelTankUpgradeType = ",X13))),"")))))))</f>
+        <f>IF(P13="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O13&lt;3,"0_2",IF(O13&lt;5,"3_4",IF(O13&lt;7,"5_6",IF(O13&lt;9,"7_8","9Plus"))))),IF(P13="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U13),IF(P13="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V13,CHAR(10),Parts!AP13,CHAR(10),"    enginePartUpgradeName = ",W13),IF(P13="Parachute","    parachuteUpgradeType = standard",IF(P13="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O13),IF(OR(P13="System",P13="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W13,IF(P13="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P13="Fuel Tank",IF(X13="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X13="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X13,CHAR(10),"    fuelTankSizeUpgrade = ",Y13),_xlfn.CONCAT("    fuelTankUpgradeType = ",X13))),IF(P13="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size10</v>
       </c>
@@ -14580,7 +14549,7 @@
       </c>
       <c r="AL14" s="14"/>
       <c r="AM14" s="15" t="str">
-        <f>IF(P14="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O14&lt;3,"0_2",IF(O14&lt;5,"3_4",IF(O14&lt;7,"5_6",IF(O14&lt;9,"7_8","9Plus"))))),IF(P14="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U14),IF(P14="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V14,CHAR(10),Parts!AP14,CHAR(10),"    enginePartUpgradeName = ",W14),IF(P14="Parachute","    parachuteUpgradeType = standard",IF(P14="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O14),IF(OR(P14="System",P14="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W14,IF(P14="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P14="Fuel Tank",IF(X14="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X14="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X14,CHAR(10),"    fuelTankSizeUpgrade = ",Y14),_xlfn.CONCAT("    fuelTankUpgradeType = ",X14))),"")))))))</f>
+        <f>IF(P14="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O14&lt;3,"0_2",IF(O14&lt;5,"3_4",IF(O14&lt;7,"5_6",IF(O14&lt;9,"7_8","9Plus"))))),IF(P14="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U14),IF(P14="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V14,CHAR(10),Parts!AP14,CHAR(10),"    enginePartUpgradeName = ",W14),IF(P14="Parachute","    parachuteUpgradeType = standard",IF(P14="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O14),IF(OR(P14="System",P14="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W14,IF(P14="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P14="Fuel Tank",IF(X14="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X14="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X14,CHAR(10),"    fuelTankSizeUpgrade = ",Y14),_xlfn.CONCAT("    fuelTankUpgradeType = ",X14))),IF(P14="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size11</v>
       </c>
@@ -14703,7 +14672,7 @@
       </c>
       <c r="AL15" s="14"/>
       <c r="AM15" s="15" t="str">
-        <f>IF(P15="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O15&lt;3,"0_2",IF(O15&lt;5,"3_4",IF(O15&lt;7,"5_6",IF(O15&lt;9,"7_8","9Plus"))))),IF(P15="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U15),IF(P15="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V15,CHAR(10),Parts!AP15,CHAR(10),"    enginePartUpgradeName = ",W15),IF(P15="Parachute","    parachuteUpgradeType = standard",IF(P15="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O15),IF(OR(P15="System",P15="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W15,IF(P15="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P15="Fuel Tank",IF(X15="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X15="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X15,CHAR(10),"    fuelTankSizeUpgrade = ",Y15),_xlfn.CONCAT("    fuelTankUpgradeType = ",X15))),"")))))))</f>
+        <f>IF(P15="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O15&lt;3,"0_2",IF(O15&lt;5,"3_4",IF(O15&lt;7,"5_6",IF(O15&lt;9,"7_8","9Plus"))))),IF(P15="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U15),IF(P15="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V15,CHAR(10),Parts!AP15,CHAR(10),"    enginePartUpgradeName = ",W15),IF(P15="Parachute","    parachuteUpgradeType = standard",IF(P15="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O15),IF(OR(P15="System",P15="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W15,IF(P15="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P15="Fuel Tank",IF(X15="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X15="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X15,CHAR(10),"    fuelTankSizeUpgrade = ",Y15),_xlfn.CONCAT("    fuelTankUpgradeType = ",X15))),IF(P15="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size12</v>
       </c>
@@ -14826,7 +14795,7 @@
       </c>
       <c r="AL16" s="14"/>
       <c r="AM16" s="15" t="str">
-        <f>IF(P16="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O16&lt;3,"0_2",IF(O16&lt;5,"3_4",IF(O16&lt;7,"5_6",IF(O16&lt;9,"7_8","9Plus"))))),IF(P16="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U16),IF(P16="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V16,CHAR(10),Parts!AP16,CHAR(10),"    enginePartUpgradeName = ",W16),IF(P16="Parachute","    parachuteUpgradeType = standard",IF(P16="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O16),IF(OR(P16="System",P16="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W16,IF(P16="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P16="Fuel Tank",IF(X16="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X16="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X16,CHAR(10),"    fuelTankSizeUpgrade = ",Y16),_xlfn.CONCAT("    fuelTankUpgradeType = ",X16))),"")))))))</f>
+        <f>IF(P16="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O16&lt;3,"0_2",IF(O16&lt;5,"3_4",IF(O16&lt;7,"5_6",IF(O16&lt;9,"7_8","9Plus"))))),IF(P16="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U16),IF(P16="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V16,CHAR(10),Parts!AP16,CHAR(10),"    enginePartUpgradeName = ",W16),IF(P16="Parachute","    parachuteUpgradeType = standard",IF(P16="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O16),IF(OR(P16="System",P16="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W16,IF(P16="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P16="Fuel Tank",IF(X16="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X16="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X16,CHAR(10),"    fuelTankSizeUpgrade = ",Y16),_xlfn.CONCAT("    fuelTankUpgradeType = ",X16))),IF(P16="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size13</v>
       </c>
@@ -14949,7 +14918,7 @@
       </c>
       <c r="AL17" s="14"/>
       <c r="AM17" s="15" t="str">
-        <f>IF(P17="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O17&lt;3,"0_2",IF(O17&lt;5,"3_4",IF(O17&lt;7,"5_6",IF(O17&lt;9,"7_8","9Plus"))))),IF(P17="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U17),IF(P17="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V17,CHAR(10),Parts!AP17,CHAR(10),"    enginePartUpgradeName = ",W17),IF(P17="Parachute","    parachuteUpgradeType = standard",IF(P17="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O17),IF(OR(P17="System",P17="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W17,IF(P17="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P17="Fuel Tank",IF(X17="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X17="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X17,CHAR(10),"    fuelTankSizeUpgrade = ",Y17),_xlfn.CONCAT("    fuelTankUpgradeType = ",X17))),"")))))))</f>
+        <f>IF(P17="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O17&lt;3,"0_2",IF(O17&lt;5,"3_4",IF(O17&lt;7,"5_6",IF(O17&lt;9,"7_8","9Plus"))))),IF(P17="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U17),IF(P17="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V17,CHAR(10),Parts!AP17,CHAR(10),"    enginePartUpgradeName = ",W17),IF(P17="Parachute","    parachuteUpgradeType = standard",IF(P17="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O17),IF(OR(P17="System",P17="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W17,IF(P17="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P17="Fuel Tank",IF(X17="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X17="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X17,CHAR(10),"    fuelTankSizeUpgrade = ",Y17),_xlfn.CONCAT("    fuelTankUpgradeType = ",X17))),IF(P17="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size14</v>
       </c>
@@ -15072,7 +15041,7 @@
       </c>
       <c r="AL18" s="14"/>
       <c r="AM18" s="15" t="str">
-        <f>IF(P18="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O18&lt;3,"0_2",IF(O18&lt;5,"3_4",IF(O18&lt;7,"5_6",IF(O18&lt;9,"7_8","9Plus"))))),IF(P18="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U18),IF(P18="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V18,CHAR(10),Parts!AP18,CHAR(10),"    enginePartUpgradeName = ",W18),IF(P18="Parachute","    parachuteUpgradeType = standard",IF(P18="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O18),IF(OR(P18="System",P18="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W18,IF(P18="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P18="Fuel Tank",IF(X18="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X18="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X18,CHAR(10),"    fuelTankSizeUpgrade = ",Y18),_xlfn.CONCAT("    fuelTankUpgradeType = ",X18))),"")))))))</f>
+        <f>IF(P18="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O18&lt;3,"0_2",IF(O18&lt;5,"3_4",IF(O18&lt;7,"5_6",IF(O18&lt;9,"7_8","9Plus"))))),IF(P18="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U18),IF(P18="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V18,CHAR(10),Parts!AP18,CHAR(10),"    enginePartUpgradeName = ",W18),IF(P18="Parachute","    parachuteUpgradeType = standard",IF(P18="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O18),IF(OR(P18="System",P18="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W18,IF(P18="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P18="Fuel Tank",IF(X18="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X18="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X18,CHAR(10),"    fuelTankSizeUpgrade = ",Y18),_xlfn.CONCAT("    fuelTankUpgradeType = ",X18))),IF(P18="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size15</v>
       </c>
@@ -15195,7 +15164,7 @@
       </c>
       <c r="AL19" s="14"/>
       <c r="AM19" s="15" t="str">
-        <f>IF(P19="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O19&lt;3,"0_2",IF(O19&lt;5,"3_4",IF(O19&lt;7,"5_6",IF(O19&lt;9,"7_8","9Plus"))))),IF(P19="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U19),IF(P19="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V19,CHAR(10),Parts!AP19,CHAR(10),"    enginePartUpgradeName = ",W19),IF(P19="Parachute","    parachuteUpgradeType = standard",IF(P19="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O19),IF(OR(P19="System",P19="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W19,IF(P19="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P19="Fuel Tank",IF(X19="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X19="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X19,CHAR(10),"    fuelTankSizeUpgrade = ",Y19),_xlfn.CONCAT("    fuelTankUpgradeType = ",X19))),"")))))))</f>
+        <f>IF(P19="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O19&lt;3,"0_2",IF(O19&lt;5,"3_4",IF(O19&lt;7,"5_6",IF(O19&lt;9,"7_8","9Plus"))))),IF(P19="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U19),IF(P19="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V19,CHAR(10),Parts!AP19,CHAR(10),"    enginePartUpgradeName = ",W19),IF(P19="Parachute","    parachuteUpgradeType = standard",IF(P19="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O19),IF(OR(P19="System",P19="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W19,IF(P19="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P19="Fuel Tank",IF(X19="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X19="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X19,CHAR(10),"    fuelTankSizeUpgrade = ",Y19),_xlfn.CONCAT("    fuelTankUpgradeType = ",X19))),IF(P19="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size16</v>
       </c>
@@ -15318,7 +15287,7 @@
       </c>
       <c r="AL20" s="14"/>
       <c r="AM20" s="15" t="str">
-        <f>IF(P20="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O20&lt;3,"0_2",IF(O20&lt;5,"3_4",IF(O20&lt;7,"5_6",IF(O20&lt;9,"7_8","9Plus"))))),IF(P20="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U20),IF(P20="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V20,CHAR(10),Parts!AP20,CHAR(10),"    enginePartUpgradeName = ",W20),IF(P20="Parachute","    parachuteUpgradeType = standard",IF(P20="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O20),IF(OR(P20="System",P20="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W20,IF(P20="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P20="Fuel Tank",IF(X20="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X20="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X20,CHAR(10),"    fuelTankSizeUpgrade = ",Y20),_xlfn.CONCAT("    fuelTankUpgradeType = ",X20))),"")))))))</f>
+        <f>IF(P20="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O20&lt;3,"0_2",IF(O20&lt;5,"3_4",IF(O20&lt;7,"5_6",IF(O20&lt;9,"7_8","9Plus"))))),IF(P20="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U20),IF(P20="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V20,CHAR(10),Parts!AP20,CHAR(10),"    enginePartUpgradeName = ",W20),IF(P20="Parachute","    parachuteUpgradeType = standard",IF(P20="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O20),IF(OR(P20="System",P20="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W20,IF(P20="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P20="Fuel Tank",IF(X20="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X20="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X20,CHAR(10),"    fuelTankSizeUpgrade = ",Y20),_xlfn.CONCAT("    fuelTankUpgradeType = ",X20))),IF(P20="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size17</v>
       </c>
@@ -15441,7 +15410,7 @@
       </c>
       <c r="AL21" s="14"/>
       <c r="AM21" s="15" t="str">
-        <f>IF(P21="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O21&lt;3,"0_2",IF(O21&lt;5,"3_4",IF(O21&lt;7,"5_6",IF(O21&lt;9,"7_8","9Plus"))))),IF(P21="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U21),IF(P21="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V21,CHAR(10),Parts!AP21,CHAR(10),"    enginePartUpgradeName = ",W21),IF(P21="Parachute","    parachuteUpgradeType = standard",IF(P21="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O21),IF(OR(P21="System",P21="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W21,IF(P21="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P21="Fuel Tank",IF(X21="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X21="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X21,CHAR(10),"    fuelTankSizeUpgrade = ",Y21),_xlfn.CONCAT("    fuelTankUpgradeType = ",X21))),"")))))))</f>
+        <f>IF(P21="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O21&lt;3,"0_2",IF(O21&lt;5,"3_4",IF(O21&lt;7,"5_6",IF(O21&lt;9,"7_8","9Plus"))))),IF(P21="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U21),IF(P21="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V21,CHAR(10),Parts!AP21,CHAR(10),"    enginePartUpgradeName = ",W21),IF(P21="Parachute","    parachuteUpgradeType = standard",IF(P21="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O21),IF(OR(P21="System",P21="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W21,IF(P21="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P21="Fuel Tank",IF(X21="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X21="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X21,CHAR(10),"    fuelTankSizeUpgrade = ",Y21),_xlfn.CONCAT("    fuelTankUpgradeType = ",X21))),IF(P21="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size18</v>
       </c>
@@ -15564,7 +15533,7 @@
       </c>
       <c r="AL22" s="14"/>
       <c r="AM22" s="15" t="str">
-        <f>IF(P22="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O22&lt;3,"0_2",IF(O22&lt;5,"3_4",IF(O22&lt;7,"5_6",IF(O22&lt;9,"7_8","9Plus"))))),IF(P22="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U22),IF(P22="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V22,CHAR(10),Parts!AP22,CHAR(10),"    enginePartUpgradeName = ",W22),IF(P22="Parachute","    parachuteUpgradeType = standard",IF(P22="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O22),IF(OR(P22="System",P22="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W22,IF(P22="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P22="Fuel Tank",IF(X22="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X22="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X22,CHAR(10),"    fuelTankSizeUpgrade = ",Y22),_xlfn.CONCAT("    fuelTankUpgradeType = ",X22))),"")))))))</f>
+        <f>IF(P22="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O22&lt;3,"0_2",IF(O22&lt;5,"3_4",IF(O22&lt;7,"5_6",IF(O22&lt;9,"7_8","9Plus"))))),IF(P22="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U22),IF(P22="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V22,CHAR(10),Parts!AP22,CHAR(10),"    enginePartUpgradeName = ",W22),IF(P22="Parachute","    parachuteUpgradeType = standard",IF(P22="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O22),IF(OR(P22="System",P22="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W22,IF(P22="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P22="Fuel Tank",IF(X22="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X22="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X22,CHAR(10),"    fuelTankSizeUpgrade = ",Y22),_xlfn.CONCAT("    fuelTankUpgradeType = ",X22))),IF(P22="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size19</v>
       </c>
@@ -15687,7 +15656,7 @@
       </c>
       <c r="AL23" s="14"/>
       <c r="AM23" s="15" t="str">
-        <f>IF(P23="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O23&lt;3,"0_2",IF(O23&lt;5,"3_4",IF(O23&lt;7,"5_6",IF(O23&lt;9,"7_8","9Plus"))))),IF(P23="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U23),IF(P23="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V23,CHAR(10),Parts!AP23,CHAR(10),"    enginePartUpgradeName = ",W23),IF(P23="Parachute","    parachuteUpgradeType = standard",IF(P23="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O23),IF(OR(P23="System",P23="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W23,IF(P23="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P23="Fuel Tank",IF(X23="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X23="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X23,CHAR(10),"    fuelTankSizeUpgrade = ",Y23),_xlfn.CONCAT("    fuelTankUpgradeType = ",X23))),"")))))))</f>
+        <f>IF(P23="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O23&lt;3,"0_2",IF(O23&lt;5,"3_4",IF(O23&lt;7,"5_6",IF(O23&lt;9,"7_8","9Plus"))))),IF(P23="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U23),IF(P23="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V23,CHAR(10),Parts!AP23,CHAR(10),"    enginePartUpgradeName = ",W23),IF(P23="Parachute","    parachuteUpgradeType = standard",IF(P23="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O23),IF(OR(P23="System",P23="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W23,IF(P23="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P23="Fuel Tank",IF(X23="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X23="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X23,CHAR(10),"    fuelTankSizeUpgrade = ",Y23),_xlfn.CONCAT("    fuelTankUpgradeType = ",X23))),IF(P23="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size20</v>
       </c>
@@ -15810,7 +15779,7 @@
       </c>
       <c r="AL24" s="14"/>
       <c r="AM24" s="15" t="str">
-        <f>IF(P24="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O24&lt;3,"0_2",IF(O24&lt;5,"3_4",IF(O24&lt;7,"5_6",IF(O24&lt;9,"7_8","9Plus"))))),IF(P24="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U24),IF(P24="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V24,CHAR(10),Parts!AP24,CHAR(10),"    enginePartUpgradeName = ",W24),IF(P24="Parachute","    parachuteUpgradeType = standard",IF(P24="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O24),IF(OR(P24="System",P24="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W24,IF(P24="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P24="Fuel Tank",IF(X24="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X24="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X24,CHAR(10),"    fuelTankSizeUpgrade = ",Y24),_xlfn.CONCAT("    fuelTankUpgradeType = ",X24))),"")))))))</f>
+        <f>IF(P24="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O24&lt;3,"0_2",IF(O24&lt;5,"3_4",IF(O24&lt;7,"5_6",IF(O24&lt;9,"7_8","9Plus"))))),IF(P24="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U24),IF(P24="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V24,CHAR(10),Parts!AP24,CHAR(10),"    enginePartUpgradeName = ",W24),IF(P24="Parachute","    parachuteUpgradeType = standard",IF(P24="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O24),IF(OR(P24="System",P24="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W24,IF(P24="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P24="Fuel Tank",IF(X24="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X24="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X24,CHAR(10),"    fuelTankSizeUpgrade = ",Y24),_xlfn.CONCAT("    fuelTankUpgradeType = ",X24))),IF(P24="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size21</v>
       </c>
@@ -15933,7 +15902,7 @@
       </c>
       <c r="AL25" s="14"/>
       <c r="AM25" s="15" t="str">
-        <f>IF(P25="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O25&lt;3,"0_2",IF(O25&lt;5,"3_4",IF(O25&lt;7,"5_6",IF(O25&lt;9,"7_8","9Plus"))))),IF(P25="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U25),IF(P25="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V25,CHAR(10),Parts!AP25,CHAR(10),"    enginePartUpgradeName = ",W25),IF(P25="Parachute","    parachuteUpgradeType = standard",IF(P25="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O25),IF(OR(P25="System",P25="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W25,IF(P25="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P25="Fuel Tank",IF(X25="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X25="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X25,CHAR(10),"    fuelTankSizeUpgrade = ",Y25),_xlfn.CONCAT("    fuelTankUpgradeType = ",X25))),"")))))))</f>
+        <f>IF(P25="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O25&lt;3,"0_2",IF(O25&lt;5,"3_4",IF(O25&lt;7,"5_6",IF(O25&lt;9,"7_8","9Plus"))))),IF(P25="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U25),IF(P25="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V25,CHAR(10),Parts!AP25,CHAR(10),"    enginePartUpgradeName = ",W25),IF(P25="Parachute","    parachuteUpgradeType = standard",IF(P25="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O25),IF(OR(P25="System",P25="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W25,IF(P25="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P25="Fuel Tank",IF(X25="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X25="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X25,CHAR(10),"    fuelTankSizeUpgrade = ",Y25),_xlfn.CONCAT("    fuelTankUpgradeType = ",X25))),IF(P25="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size22</v>
       </c>
@@ -16056,7 +16025,7 @@
       </c>
       <c r="AL26" s="14"/>
       <c r="AM26" s="15" t="str">
-        <f>IF(P26="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O26&lt;3,"0_2",IF(O26&lt;5,"3_4",IF(O26&lt;7,"5_6",IF(O26&lt;9,"7_8","9Plus"))))),IF(P26="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U26),IF(P26="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V26,CHAR(10),Parts!AP26,CHAR(10),"    enginePartUpgradeName = ",W26),IF(P26="Parachute","    parachuteUpgradeType = standard",IF(P26="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O26),IF(OR(P26="System",P26="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W26,IF(P26="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P26="Fuel Tank",IF(X26="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X26="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X26,CHAR(10),"    fuelTankSizeUpgrade = ",Y26),_xlfn.CONCAT("    fuelTankUpgradeType = ",X26))),"")))))))</f>
+        <f>IF(P26="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O26&lt;3,"0_2",IF(O26&lt;5,"3_4",IF(O26&lt;7,"5_6",IF(O26&lt;9,"7_8","9Plus"))))),IF(P26="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U26),IF(P26="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V26,CHAR(10),Parts!AP26,CHAR(10),"    enginePartUpgradeName = ",W26),IF(P26="Parachute","    parachuteUpgradeType = standard",IF(P26="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O26),IF(OR(P26="System",P26="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W26,IF(P26="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P26="Fuel Tank",IF(X26="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X26="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X26,CHAR(10),"    fuelTankSizeUpgrade = ",Y26),_xlfn.CONCAT("    fuelTankUpgradeType = ",X26))),IF(P26="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size23</v>
       </c>
@@ -16179,7 +16148,7 @@
       </c>
       <c r="AL27" s="14"/>
       <c r="AM27" s="15" t="str">
-        <f>IF(P27="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O27&lt;3,"0_2",IF(O27&lt;5,"3_4",IF(O27&lt;7,"5_6",IF(O27&lt;9,"7_8","9Plus"))))),IF(P27="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U27),IF(P27="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V27,CHAR(10),Parts!AP27,CHAR(10),"    enginePartUpgradeName = ",W27),IF(P27="Parachute","    parachuteUpgradeType = standard",IF(P27="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O27),IF(OR(P27="System",P27="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W27,IF(P27="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P27="Fuel Tank",IF(X27="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X27="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X27,CHAR(10),"    fuelTankSizeUpgrade = ",Y27),_xlfn.CONCAT("    fuelTankUpgradeType = ",X27))),"")))))))</f>
+        <f>IF(P27="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O27&lt;3,"0_2",IF(O27&lt;5,"3_4",IF(O27&lt;7,"5_6",IF(O27&lt;9,"7_8","9Plus"))))),IF(P27="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U27),IF(P27="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V27,CHAR(10),Parts!AP27,CHAR(10),"    enginePartUpgradeName = ",W27),IF(P27="Parachute","    parachuteUpgradeType = standard",IF(P27="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O27),IF(OR(P27="System",P27="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W27,IF(P27="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P27="Fuel Tank",IF(X27="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X27="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X27,CHAR(10),"    fuelTankSizeUpgrade = ",Y27),_xlfn.CONCAT("    fuelTankUpgradeType = ",X27))),IF(P27="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size24</v>
       </c>
@@ -16302,7 +16271,7 @@
       </c>
       <c r="AL28" s="14"/>
       <c r="AM28" s="15" t="str">
-        <f>IF(P28="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O28&lt;3,"0_2",IF(O28&lt;5,"3_4",IF(O28&lt;7,"5_6",IF(O28&lt;9,"7_8","9Plus"))))),IF(P28="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U28),IF(P28="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V28,CHAR(10),Parts!AP28,CHAR(10),"    enginePartUpgradeName = ",W28),IF(P28="Parachute","    parachuteUpgradeType = standard",IF(P28="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O28),IF(OR(P28="System",P28="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W28,IF(P28="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P28="Fuel Tank",IF(X28="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X28="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X28,CHAR(10),"    fuelTankSizeUpgrade = ",Y28),_xlfn.CONCAT("    fuelTankUpgradeType = ",X28))),"")))))))</f>
+        <f>IF(P28="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O28&lt;3,"0_2",IF(O28&lt;5,"3_4",IF(O28&lt;7,"5_6",IF(O28&lt;9,"7_8","9Plus"))))),IF(P28="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U28),IF(P28="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V28,CHAR(10),Parts!AP28,CHAR(10),"    enginePartUpgradeName = ",W28),IF(P28="Parachute","    parachuteUpgradeType = standard",IF(P28="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O28),IF(OR(P28="System",P28="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W28,IF(P28="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P28="Fuel Tank",IF(X28="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X28="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X28,CHAR(10),"    fuelTankSizeUpgrade = ",Y28),_xlfn.CONCAT("    fuelTankUpgradeType = ",X28))),IF(P28="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size25</v>
       </c>
@@ -16425,7 +16394,7 @@
       </c>
       <c r="AL29" s="14"/>
       <c r="AM29" s="15" t="str">
-        <f>IF(P29="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O29&lt;3,"0_2",IF(O29&lt;5,"3_4",IF(O29&lt;7,"5_6",IF(O29&lt;9,"7_8","9Plus"))))),IF(P29="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U29),IF(P29="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V29,CHAR(10),Parts!AP29,CHAR(10),"    enginePartUpgradeName = ",W29),IF(P29="Parachute","    parachuteUpgradeType = standard",IF(P29="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O29),IF(OR(P29="System",P29="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W29,IF(P29="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P29="Fuel Tank",IF(X29="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X29="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X29,CHAR(10),"    fuelTankSizeUpgrade = ",Y29),_xlfn.CONCAT("    fuelTankUpgradeType = ",X29))),"")))))))</f>
+        <f>IF(P29="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O29&lt;3,"0_2",IF(O29&lt;5,"3_4",IF(O29&lt;7,"5_6",IF(O29&lt;9,"7_8","9Plus"))))),IF(P29="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U29),IF(P29="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V29,CHAR(10),Parts!AP29,CHAR(10),"    enginePartUpgradeName = ",W29),IF(P29="Parachute","    parachuteUpgradeType = standard",IF(P29="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O29),IF(OR(P29="System",P29="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W29,IF(P29="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P29="Fuel Tank",IF(X29="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X29="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X29,CHAR(10),"    fuelTankSizeUpgrade = ",Y29),_xlfn.CONCAT("    fuelTankUpgradeType = ",X29))),IF(P29="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size26</v>
       </c>
@@ -16548,7 +16517,7 @@
       </c>
       <c r="AL30" s="14"/>
       <c r="AM30" s="15" t="str">
-        <f>IF(P30="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O30&lt;3,"0_2",IF(O30&lt;5,"3_4",IF(O30&lt;7,"5_6",IF(O30&lt;9,"7_8","9Plus"))))),IF(P30="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U30),IF(P30="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V30,CHAR(10),Parts!AP30,CHAR(10),"    enginePartUpgradeName = ",W30),IF(P30="Parachute","    parachuteUpgradeType = standard",IF(P30="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O30),IF(OR(P30="System",P30="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W30,IF(P30="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P30="Fuel Tank",IF(X30="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X30="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X30,CHAR(10),"    fuelTankSizeUpgrade = ",Y30),_xlfn.CONCAT("    fuelTankUpgradeType = ",X30))),"")))))))</f>
+        <f>IF(P30="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O30&lt;3,"0_2",IF(O30&lt;5,"3_4",IF(O30&lt;7,"5_6",IF(O30&lt;9,"7_8","9Plus"))))),IF(P30="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U30),IF(P30="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V30,CHAR(10),Parts!AP30,CHAR(10),"    enginePartUpgradeName = ",W30),IF(P30="Parachute","    parachuteUpgradeType = standard",IF(P30="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O30),IF(OR(P30="System",P30="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W30,IF(P30="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P30="Fuel Tank",IF(X30="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X30="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X30,CHAR(10),"    fuelTankSizeUpgrade = ",Y30),_xlfn.CONCAT("    fuelTankUpgradeType = ",X30))),IF(P30="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size27</v>
       </c>
@@ -16671,7 +16640,7 @@
       </c>
       <c r="AL31" s="14"/>
       <c r="AM31" s="15" t="str">
-        <f>IF(P31="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O31&lt;3,"0_2",IF(O31&lt;5,"3_4",IF(O31&lt;7,"5_6",IF(O31&lt;9,"7_8","9Plus"))))),IF(P31="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U31),IF(P31="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V31,CHAR(10),Parts!AP31,CHAR(10),"    enginePartUpgradeName = ",W31),IF(P31="Parachute","    parachuteUpgradeType = standard",IF(P31="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O31),IF(OR(P31="System",P31="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W31,IF(P31="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P31="Fuel Tank",IF(X31="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X31="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X31,CHAR(10),"    fuelTankSizeUpgrade = ",Y31),_xlfn.CONCAT("    fuelTankUpgradeType = ",X31))),"")))))))</f>
+        <f>IF(P31="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O31&lt;3,"0_2",IF(O31&lt;5,"3_4",IF(O31&lt;7,"5_6",IF(O31&lt;9,"7_8","9Plus"))))),IF(P31="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U31),IF(P31="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V31,CHAR(10),Parts!AP31,CHAR(10),"    enginePartUpgradeName = ",W31),IF(P31="Parachute","    parachuteUpgradeType = standard",IF(P31="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O31),IF(OR(P31="System",P31="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W31,IF(P31="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P31="Fuel Tank",IF(X31="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X31="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X31,CHAR(10),"    fuelTankSizeUpgrade = ",Y31),_xlfn.CONCAT("    fuelTankUpgradeType = ",X31))),IF(P31="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size28</v>
       </c>
@@ -16794,7 +16763,7 @@
       </c>
       <c r="AL32" s="14"/>
       <c r="AM32" s="15" t="str">
-        <f>IF(P32="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O32&lt;3,"0_2",IF(O32&lt;5,"3_4",IF(O32&lt;7,"5_6",IF(O32&lt;9,"7_8","9Plus"))))),IF(P32="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U32),IF(P32="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V32,CHAR(10),Parts!AP32,CHAR(10),"    enginePartUpgradeName = ",W32),IF(P32="Parachute","    parachuteUpgradeType = standard",IF(P32="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O32),IF(OR(P32="System",P32="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W32,IF(P32="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P32="Fuel Tank",IF(X32="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X32="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X32,CHAR(10),"    fuelTankSizeUpgrade = ",Y32),_xlfn.CONCAT("    fuelTankUpgradeType = ",X32))),"")))))))</f>
+        <f>IF(P32="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O32&lt;3,"0_2",IF(O32&lt;5,"3_4",IF(O32&lt;7,"5_6",IF(O32&lt;9,"7_8","9Plus"))))),IF(P32="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U32),IF(P32="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V32,CHAR(10),Parts!AP32,CHAR(10),"    enginePartUpgradeName = ",W32),IF(P32="Parachute","    parachuteUpgradeType = standard",IF(P32="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O32),IF(OR(P32="System",P32="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W32,IF(P32="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P32="Fuel Tank",IF(X32="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X32="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X32,CHAR(10),"    fuelTankSizeUpgrade = ",Y32),_xlfn.CONCAT("    fuelTankUpgradeType = ",X32))),IF(P32="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size29</v>
       </c>
@@ -16917,7 +16886,7 @@
       </c>
       <c r="AL33" s="14"/>
       <c r="AM33" s="15" t="str">
-        <f>IF(P33="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O33&lt;3,"0_2",IF(O33&lt;5,"3_4",IF(O33&lt;7,"5_6",IF(O33&lt;9,"7_8","9Plus"))))),IF(P33="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U33),IF(P33="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V33,CHAR(10),Parts!AP33,CHAR(10),"    enginePartUpgradeName = ",W33),IF(P33="Parachute","    parachuteUpgradeType = standard",IF(P33="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O33),IF(OR(P33="System",P33="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W33,IF(P33="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P33="Fuel Tank",IF(X33="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X33="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X33,CHAR(10),"    fuelTankSizeUpgrade = ",Y33),_xlfn.CONCAT("    fuelTankUpgradeType = ",X33))),"")))))))</f>
+        <f>IF(P33="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O33&lt;3,"0_2",IF(O33&lt;5,"3_4",IF(O33&lt;7,"5_6",IF(O33&lt;9,"7_8","9Plus"))))),IF(P33="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U33),IF(P33="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V33,CHAR(10),Parts!AP33,CHAR(10),"    enginePartUpgradeName = ",W33),IF(P33="Parachute","    parachuteUpgradeType = standard",IF(P33="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O33),IF(OR(P33="System",P33="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W33,IF(P33="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P33="Fuel Tank",IF(X33="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X33="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X33,CHAR(10),"    fuelTankSizeUpgrade = ",Y33),_xlfn.CONCAT("    fuelTankUpgradeType = ",X33))),IF(P33="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size30</v>
       </c>
@@ -17040,7 +17009,7 @@
       </c>
       <c r="AL34" s="14"/>
       <c r="AM34" s="15" t="str">
-        <f>IF(P34="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O34&lt;3,"0_2",IF(O34&lt;5,"3_4",IF(O34&lt;7,"5_6",IF(O34&lt;9,"7_8","9Plus"))))),IF(P34="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U34),IF(P34="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V34,CHAR(10),Parts!AP34,CHAR(10),"    enginePartUpgradeName = ",W34),IF(P34="Parachute","    parachuteUpgradeType = standard",IF(P34="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O34),IF(OR(P34="System",P34="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W34,IF(P34="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P34="Fuel Tank",IF(X34="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X34="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X34,CHAR(10),"    fuelTankSizeUpgrade = ",Y34),_xlfn.CONCAT("    fuelTankUpgradeType = ",X34))),"")))))))</f>
+        <f>IF(P34="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O34&lt;3,"0_2",IF(O34&lt;5,"3_4",IF(O34&lt;7,"5_6",IF(O34&lt;9,"7_8","9Plus"))))),IF(P34="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U34),IF(P34="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V34,CHAR(10),Parts!AP34,CHAR(10),"    enginePartUpgradeName = ",W34),IF(P34="Parachute","    parachuteUpgradeType = standard",IF(P34="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O34),IF(OR(P34="System",P34="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W34,IF(P34="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P34="Fuel Tank",IF(X34="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X34="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X34,CHAR(10),"    fuelTankSizeUpgrade = ",Y34),_xlfn.CONCAT("    fuelTankUpgradeType = ",X34))),IF(P34="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size31</v>
       </c>
@@ -17163,7 +17132,7 @@
       </c>
       <c r="AL35" s="14"/>
       <c r="AM35" s="15" t="str">
-        <f>IF(P35="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O35&lt;3,"0_2",IF(O35&lt;5,"3_4",IF(O35&lt;7,"5_6",IF(O35&lt;9,"7_8","9Plus"))))),IF(P35="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U35),IF(P35="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V35,CHAR(10),Parts!AP35,CHAR(10),"    enginePartUpgradeName = ",W35),IF(P35="Parachute","    parachuteUpgradeType = standard",IF(P35="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O35),IF(OR(P35="System",P35="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W35,IF(P35="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P35="Fuel Tank",IF(X35="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X35="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X35,CHAR(10),"    fuelTankSizeUpgrade = ",Y35),_xlfn.CONCAT("    fuelTankUpgradeType = ",X35))),"")))))))</f>
+        <f>IF(P35="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O35&lt;3,"0_2",IF(O35&lt;5,"3_4",IF(O35&lt;7,"5_6",IF(O35&lt;9,"7_8","9Plus"))))),IF(P35="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U35),IF(P35="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V35,CHAR(10),Parts!AP35,CHAR(10),"    enginePartUpgradeName = ",W35),IF(P35="Parachute","    parachuteUpgradeType = standard",IF(P35="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O35),IF(OR(P35="System",P35="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W35,IF(P35="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P35="Fuel Tank",IF(X35="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X35="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X35,CHAR(10),"    fuelTankSizeUpgrade = ",Y35),_xlfn.CONCAT("    fuelTankUpgradeType = ",X35))),IF(P35="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size32</v>
       </c>
@@ -17286,7 +17255,7 @@
       </c>
       <c r="AL36" s="14"/>
       <c r="AM36" s="15" t="str">
-        <f>IF(P36="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O36&lt;3,"0_2",IF(O36&lt;5,"3_4",IF(O36&lt;7,"5_6",IF(O36&lt;9,"7_8","9Plus"))))),IF(P36="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U36),IF(P36="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V36,CHAR(10),Parts!AP36,CHAR(10),"    enginePartUpgradeName = ",W36),IF(P36="Parachute","    parachuteUpgradeType = standard",IF(P36="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O36),IF(OR(P36="System",P36="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W36,IF(P36="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P36="Fuel Tank",IF(X36="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X36="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X36,CHAR(10),"    fuelTankSizeUpgrade = ",Y36),_xlfn.CONCAT("    fuelTankUpgradeType = ",X36))),"")))))))</f>
+        <f>IF(P36="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O36&lt;3,"0_2",IF(O36&lt;5,"3_4",IF(O36&lt;7,"5_6",IF(O36&lt;9,"7_8","9Plus"))))),IF(P36="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U36),IF(P36="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V36,CHAR(10),Parts!AP36,CHAR(10),"    enginePartUpgradeName = ",W36),IF(P36="Parachute","    parachuteUpgradeType = standard",IF(P36="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O36),IF(OR(P36="System",P36="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W36,IF(P36="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P36="Fuel Tank",IF(X36="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X36="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X36,CHAR(10),"    fuelTankSizeUpgrade = ",Y36),_xlfn.CONCAT("    fuelTankUpgradeType = ",X36))),IF(P36="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size33</v>
       </c>
@@ -17409,7 +17378,7 @@
       </c>
       <c r="AL37" s="14"/>
       <c r="AM37" s="15" t="str">
-        <f>IF(P37="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O37&lt;3,"0_2",IF(O37&lt;5,"3_4",IF(O37&lt;7,"5_6",IF(O37&lt;9,"7_8","9Plus"))))),IF(P37="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U37),IF(P37="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V37,CHAR(10),Parts!AP37,CHAR(10),"    enginePartUpgradeName = ",W37),IF(P37="Parachute","    parachuteUpgradeType = standard",IF(P37="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O37),IF(OR(P37="System",P37="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W37,IF(P37="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P37="Fuel Tank",IF(X37="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X37="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X37,CHAR(10),"    fuelTankSizeUpgrade = ",Y37),_xlfn.CONCAT("    fuelTankUpgradeType = ",X37))),"")))))))</f>
+        <f>IF(P37="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O37&lt;3,"0_2",IF(O37&lt;5,"3_4",IF(O37&lt;7,"5_6",IF(O37&lt;9,"7_8","9Plus"))))),IF(P37="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U37),IF(P37="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V37,CHAR(10),Parts!AP37,CHAR(10),"    enginePartUpgradeName = ",W37),IF(P37="Parachute","    parachuteUpgradeType = standard",IF(P37="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O37),IF(OR(P37="System",P37="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W37,IF(P37="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P37="Fuel Tank",IF(X37="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X37="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X37,CHAR(10),"    fuelTankSizeUpgrade = ",Y37),_xlfn.CONCAT("    fuelTankUpgradeType = ",X37))),IF(P37="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size34</v>
       </c>
@@ -17532,7 +17501,7 @@
       </c>
       <c r="AL38" s="14"/>
       <c r="AM38" s="15" t="str">
-        <f>IF(P38="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O38&lt;3,"0_2",IF(O38&lt;5,"3_4",IF(O38&lt;7,"5_6",IF(O38&lt;9,"7_8","9Plus"))))),IF(P38="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U38),IF(P38="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V38,CHAR(10),Parts!AP38,CHAR(10),"    enginePartUpgradeName = ",W38),IF(P38="Parachute","    parachuteUpgradeType = standard",IF(P38="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O38),IF(OR(P38="System",P38="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W38,IF(P38="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P38="Fuel Tank",IF(X38="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X38="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X38,CHAR(10),"    fuelTankSizeUpgrade = ",Y38),_xlfn.CONCAT("    fuelTankUpgradeType = ",X38))),"")))))))</f>
+        <f>IF(P38="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O38&lt;3,"0_2",IF(O38&lt;5,"3_4",IF(O38&lt;7,"5_6",IF(O38&lt;9,"7_8","9Plus"))))),IF(P38="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U38),IF(P38="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V38,CHAR(10),Parts!AP38,CHAR(10),"    enginePartUpgradeName = ",W38),IF(P38="Parachute","    parachuteUpgradeType = standard",IF(P38="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O38),IF(OR(P38="System",P38="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W38,IF(P38="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P38="Fuel Tank",IF(X38="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X38="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X38,CHAR(10),"    fuelTankSizeUpgrade = ",Y38),_xlfn.CONCAT("    fuelTankUpgradeType = ",X38))),IF(P38="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size35</v>
       </c>
@@ -17655,7 +17624,7 @@
       </c>
       <c r="AL39" s="14"/>
       <c r="AM39" s="15" t="str">
-        <f>IF(P39="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O39&lt;3,"0_2",IF(O39&lt;5,"3_4",IF(O39&lt;7,"5_6",IF(O39&lt;9,"7_8","9Plus"))))),IF(P39="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U39),IF(P39="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V39,CHAR(10),Parts!AP39,CHAR(10),"    enginePartUpgradeName = ",W39),IF(P39="Parachute","    parachuteUpgradeType = standard",IF(P39="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O39),IF(OR(P39="System",P39="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W39,IF(P39="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P39="Fuel Tank",IF(X39="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X39="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X39,CHAR(10),"    fuelTankSizeUpgrade = ",Y39),_xlfn.CONCAT("    fuelTankUpgradeType = ",X39))),"")))))))</f>
+        <f>IF(P39="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O39&lt;3,"0_2",IF(O39&lt;5,"3_4",IF(O39&lt;7,"5_6",IF(O39&lt;9,"7_8","9Plus"))))),IF(P39="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U39),IF(P39="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V39,CHAR(10),Parts!AP39,CHAR(10),"    enginePartUpgradeName = ",W39),IF(P39="Parachute","    parachuteUpgradeType = standard",IF(P39="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O39),IF(OR(P39="System",P39="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W39,IF(P39="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P39="Fuel Tank",IF(X39="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X39="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X39,CHAR(10),"    fuelTankSizeUpgrade = ",Y39),_xlfn.CONCAT("    fuelTankUpgradeType = ",X39))),IF(P39="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size36</v>
       </c>
@@ -17778,7 +17747,7 @@
       </c>
       <c r="AL40" s="14"/>
       <c r="AM40" s="15" t="str">
-        <f>IF(P40="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O40&lt;3,"0_2",IF(O40&lt;5,"3_4",IF(O40&lt;7,"5_6",IF(O40&lt;9,"7_8","9Plus"))))),IF(P40="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U40),IF(P40="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V40,CHAR(10),Parts!AP40,CHAR(10),"    enginePartUpgradeName = ",W40),IF(P40="Parachute","    parachuteUpgradeType = standard",IF(P40="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O40),IF(OR(P40="System",P40="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W40,IF(P40="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P40="Fuel Tank",IF(X40="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X40="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X40,CHAR(10),"    fuelTankSizeUpgrade = ",Y40),_xlfn.CONCAT("    fuelTankUpgradeType = ",X40))),"")))))))</f>
+        <f>IF(P40="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O40&lt;3,"0_2",IF(O40&lt;5,"3_4",IF(O40&lt;7,"5_6",IF(O40&lt;9,"7_8","9Plus"))))),IF(P40="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U40),IF(P40="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V40,CHAR(10),Parts!AP40,CHAR(10),"    enginePartUpgradeName = ",W40),IF(P40="Parachute","    parachuteUpgradeType = standard",IF(P40="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O40),IF(OR(P40="System",P40="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W40,IF(P40="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P40="Fuel Tank",IF(X40="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X40="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X40,CHAR(10),"    fuelTankSizeUpgrade = ",Y40),_xlfn.CONCAT("    fuelTankUpgradeType = ",X40))),IF(P40="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size37</v>
       </c>
@@ -17901,7 +17870,7 @@
       </c>
       <c r="AL41" s="14"/>
       <c r="AM41" s="15" t="str">
-        <f>IF(P41="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O41&lt;3,"0_2",IF(O41&lt;5,"3_4",IF(O41&lt;7,"5_6",IF(O41&lt;9,"7_8","9Plus"))))),IF(P41="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U41),IF(P41="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V41,CHAR(10),Parts!AP41,CHAR(10),"    enginePartUpgradeName = ",W41),IF(P41="Parachute","    parachuteUpgradeType = standard",IF(P41="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O41),IF(OR(P41="System",P41="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W41,IF(P41="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P41="Fuel Tank",IF(X41="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X41="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X41,CHAR(10),"    fuelTankSizeUpgrade = ",Y41),_xlfn.CONCAT("    fuelTankUpgradeType = ",X41))),"")))))))</f>
+        <f>IF(P41="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O41&lt;3,"0_2",IF(O41&lt;5,"3_4",IF(O41&lt;7,"5_6",IF(O41&lt;9,"7_8","9Plus"))))),IF(P41="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U41),IF(P41="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V41,CHAR(10),Parts!AP41,CHAR(10),"    enginePartUpgradeName = ",W41),IF(P41="Parachute","    parachuteUpgradeType = standard",IF(P41="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O41),IF(OR(P41="System",P41="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W41,IF(P41="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P41="Fuel Tank",IF(X41="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X41="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X41,CHAR(10),"    fuelTankSizeUpgrade = ",Y41),_xlfn.CONCAT("    fuelTankUpgradeType = ",X41))),IF(P41="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size38</v>
       </c>
@@ -18024,7 +17993,7 @@
       </c>
       <c r="AL42" s="14"/>
       <c r="AM42" s="15" t="str">
-        <f>IF(P42="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O42&lt;3,"0_2",IF(O42&lt;5,"3_4",IF(O42&lt;7,"5_6",IF(O42&lt;9,"7_8","9Plus"))))),IF(P42="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U42),IF(P42="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V42,CHAR(10),Parts!AP42,CHAR(10),"    enginePartUpgradeName = ",W42),IF(P42="Parachute","    parachuteUpgradeType = standard",IF(P42="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O42),IF(OR(P42="System",P42="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W42,IF(P42="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P42="Fuel Tank",IF(X42="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X42="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X42,CHAR(10),"    fuelTankSizeUpgrade = ",Y42),_xlfn.CONCAT("    fuelTankUpgradeType = ",X42))),"")))))))</f>
+        <f>IF(P42="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O42&lt;3,"0_2",IF(O42&lt;5,"3_4",IF(O42&lt;7,"5_6",IF(O42&lt;9,"7_8","9Plus"))))),IF(P42="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U42),IF(P42="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V42,CHAR(10),Parts!AP42,CHAR(10),"    enginePartUpgradeName = ",W42),IF(P42="Parachute","    parachuteUpgradeType = standard",IF(P42="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O42),IF(OR(P42="System",P42="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W42,IF(P42="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P42="Fuel Tank",IF(X42="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X42="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X42,CHAR(10),"    fuelTankSizeUpgrade = ",Y42),_xlfn.CONCAT("    fuelTankUpgradeType = ",X42))),IF(P42="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size39</v>
       </c>
@@ -18147,7 +18116,7 @@
       </c>
       <c r="AL43" s="14"/>
       <c r="AM43" s="15" t="str">
-        <f>IF(P43="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O43&lt;3,"0_2",IF(O43&lt;5,"3_4",IF(O43&lt;7,"5_6",IF(O43&lt;9,"7_8","9Plus"))))),IF(P43="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U43),IF(P43="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V43,CHAR(10),Parts!AP43,CHAR(10),"    enginePartUpgradeName = ",W43),IF(P43="Parachute","    parachuteUpgradeType = standard",IF(P43="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O43),IF(OR(P43="System",P43="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W43,IF(P43="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P43="Fuel Tank",IF(X43="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X43="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X43,CHAR(10),"    fuelTankSizeUpgrade = ",Y43),_xlfn.CONCAT("    fuelTankUpgradeType = ",X43))),"")))))))</f>
+        <f>IF(P43="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O43&lt;3,"0_2",IF(O43&lt;5,"3_4",IF(O43&lt;7,"5_6",IF(O43&lt;9,"7_8","9Plus"))))),IF(P43="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U43),IF(P43="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V43,CHAR(10),Parts!AP43,CHAR(10),"    enginePartUpgradeName = ",W43),IF(P43="Parachute","    parachuteUpgradeType = standard",IF(P43="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O43),IF(OR(P43="System",P43="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W43,IF(P43="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P43="Fuel Tank",IF(X43="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X43="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X43,CHAR(10),"    fuelTankSizeUpgrade = ",Y43),_xlfn.CONCAT("    fuelTankUpgradeType = ",X43))),IF(P43="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size40</v>
       </c>
@@ -18171,7 +18140,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>371</v>
       </c>
@@ -18270,7 +18239,7 @@
       </c>
       <c r="AL44" s="14"/>
       <c r="AM44" s="15" t="str">
-        <f>IF(P44="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O44&lt;3,"0_2",IF(O44&lt;5,"3_4",IF(O44&lt;7,"5_6",IF(O44&lt;9,"7_8","9Plus"))))),IF(P44="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U44),IF(P44="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V44,CHAR(10),Parts!AP44,CHAR(10),"    enginePartUpgradeName = ",W44),IF(P44="Parachute","    parachuteUpgradeType = standard",IF(P44="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O44),IF(OR(P44="System",P44="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W44,IF(P44="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P44="Fuel Tank",IF(X44="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X44="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X44,CHAR(10),"    fuelTankSizeUpgrade = ",Y44),_xlfn.CONCAT("    fuelTankUpgradeType = ",X44))),"")))))))</f>
+        <f>IF(P44="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O44&lt;3,"0_2",IF(O44&lt;5,"3_4",IF(O44&lt;7,"5_6",IF(O44&lt;9,"7_8","9Plus"))))),IF(P44="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U44),IF(P44="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V44,CHAR(10),Parts!AP44,CHAR(10),"    enginePartUpgradeName = ",W44),IF(P44="Parachute","    parachuteUpgradeType = standard",IF(P44="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O44),IF(OR(P44="System",P44="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W44,IF(P44="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P44="Fuel Tank",IF(X44="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X44="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X44,CHAR(10),"    fuelTankSizeUpgrade = ",Y44),_xlfn.CONCAT("    fuelTankUpgradeType = ",X44))),IF(P44="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size41</v>
       </c>
@@ -18294,7 +18263,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>371</v>
       </c>
@@ -18393,7 +18362,7 @@
       </c>
       <c r="AL45" s="14"/>
       <c r="AM45" s="15" t="str">
-        <f>IF(P45="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O45&lt;3,"0_2",IF(O45&lt;5,"3_4",IF(O45&lt;7,"5_6",IF(O45&lt;9,"7_8","9Plus"))))),IF(P45="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U45),IF(P45="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V45,CHAR(10),Parts!AP45,CHAR(10),"    enginePartUpgradeName = ",W45),IF(P45="Parachute","    parachuteUpgradeType = standard",IF(P45="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O45),IF(OR(P45="System",P45="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W45,IF(P45="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P45="Fuel Tank",IF(X45="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X45="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X45,CHAR(10),"    fuelTankSizeUpgrade = ",Y45),_xlfn.CONCAT("    fuelTankUpgradeType = ",X45))),"")))))))</f>
+        <f>IF(P45="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O45&lt;3,"0_2",IF(O45&lt;5,"3_4",IF(O45&lt;7,"5_6",IF(O45&lt;9,"7_8","9Plus"))))),IF(P45="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U45),IF(P45="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V45,CHAR(10),Parts!AP45,CHAR(10),"    enginePartUpgradeName = ",W45),IF(P45="Parachute","    parachuteUpgradeType = standard",IF(P45="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O45),IF(OR(P45="System",P45="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W45,IF(P45="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P45="Fuel Tank",IF(X45="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X45="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X45,CHAR(10),"    fuelTankSizeUpgrade = ",Y45),_xlfn.CONCAT("    fuelTankUpgradeType = ",X45))),IF(P45="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size42</v>
       </c>
@@ -18417,7 +18386,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>371</v>
       </c>
@@ -18516,7 +18485,7 @@
       </c>
       <c r="AL46" s="14"/>
       <c r="AM46" s="15" t="str">
-        <f>IF(P46="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O46&lt;3,"0_2",IF(O46&lt;5,"3_4",IF(O46&lt;7,"5_6",IF(O46&lt;9,"7_8","9Plus"))))),IF(P46="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U46),IF(P46="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V46,CHAR(10),Parts!AP46,CHAR(10),"    enginePartUpgradeName = ",W46),IF(P46="Parachute","    parachuteUpgradeType = standard",IF(P46="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O46),IF(OR(P46="System",P46="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W46,IF(P46="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P46="Fuel Tank",IF(X46="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X46="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X46,CHAR(10),"    fuelTankSizeUpgrade = ",Y46),_xlfn.CONCAT("    fuelTankUpgradeType = ",X46))),"")))))))</f>
+        <f>IF(P46="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O46&lt;3,"0_2",IF(O46&lt;5,"3_4",IF(O46&lt;7,"5_6",IF(O46&lt;9,"7_8","9Plus"))))),IF(P46="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U46),IF(P46="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V46,CHAR(10),Parts!AP46,CHAR(10),"    enginePartUpgradeName = ",W46),IF(P46="Parachute","    parachuteUpgradeType = standard",IF(P46="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O46),IF(OR(P46="System",P46="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W46,IF(P46="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P46="Fuel Tank",IF(X46="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X46="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X46,CHAR(10),"    fuelTankSizeUpgrade = ",Y46),_xlfn.CONCAT("    fuelTankUpgradeType = ",X46))),IF(P46="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size43</v>
       </c>
@@ -18540,7 +18509,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>371</v>
       </c>
@@ -18639,7 +18608,7 @@
       </c>
       <c r="AL47" s="14"/>
       <c r="AM47" s="15" t="str">
-        <f>IF(P47="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O47&lt;3,"0_2",IF(O47&lt;5,"3_4",IF(O47&lt;7,"5_6",IF(O47&lt;9,"7_8","9Plus"))))),IF(P47="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U47),IF(P47="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V47,CHAR(10),Parts!AP47,CHAR(10),"    enginePartUpgradeName = ",W47),IF(P47="Parachute","    parachuteUpgradeType = standard",IF(P47="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O47),IF(OR(P47="System",P47="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W47,IF(P47="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P47="Fuel Tank",IF(X47="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X47="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X47,CHAR(10),"    fuelTankSizeUpgrade = ",Y47),_xlfn.CONCAT("    fuelTankUpgradeType = ",X47))),"")))))))</f>
+        <f>IF(P47="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O47&lt;3,"0_2",IF(O47&lt;5,"3_4",IF(O47&lt;7,"5_6",IF(O47&lt;9,"7_8","9Plus"))))),IF(P47="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U47),IF(P47="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V47,CHAR(10),Parts!AP47,CHAR(10),"    enginePartUpgradeName = ",W47),IF(P47="Parachute","    parachuteUpgradeType = standard",IF(P47="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O47),IF(OR(P47="System",P47="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W47,IF(P47="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P47="Fuel Tank",IF(X47="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X47="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X47,CHAR(10),"    fuelTankSizeUpgrade = ",Y47),_xlfn.CONCAT("    fuelTankUpgradeType = ",X47))),IF(P47="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size44</v>
       </c>
@@ -18663,7 +18632,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -18762,7 +18731,7 @@
       </c>
       <c r="AL48" s="14"/>
       <c r="AM48" s="15" t="str">
-        <f>IF(P48="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O48&lt;3,"0_2",IF(O48&lt;5,"3_4",IF(O48&lt;7,"5_6",IF(O48&lt;9,"7_8","9Plus"))))),IF(P48="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U48),IF(P48="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V48,CHAR(10),Parts!AP48,CHAR(10),"    enginePartUpgradeName = ",W48),IF(P48="Parachute","    parachuteUpgradeType = standard",IF(P48="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O48),IF(OR(P48="System",P48="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W48,IF(P48="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P48="Fuel Tank",IF(X48="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X48="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X48,CHAR(10),"    fuelTankSizeUpgrade = ",Y48),_xlfn.CONCAT("    fuelTankUpgradeType = ",X48))),"")))))))</f>
+        <f>IF(P48="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O48&lt;3,"0_2",IF(O48&lt;5,"3_4",IF(O48&lt;7,"5_6",IF(O48&lt;9,"7_8","9Plus"))))),IF(P48="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U48),IF(P48="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V48,CHAR(10),Parts!AP48,CHAR(10),"    enginePartUpgradeName = ",W48),IF(P48="Parachute","    parachuteUpgradeType = standard",IF(P48="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O48),IF(OR(P48="System",P48="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W48,IF(P48="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P48="Fuel Tank",IF(X48="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X48="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X48,CHAR(10),"    fuelTankSizeUpgrade = ",Y48),_xlfn.CONCAT("    fuelTankUpgradeType = ",X48))),IF(P48="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size45</v>
       </c>
@@ -18786,7 +18755,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>371</v>
       </c>
@@ -18885,7 +18854,7 @@
       </c>
       <c r="AL49" s="14"/>
       <c r="AM49" s="15" t="str">
-        <f>IF(P49="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O49&lt;3,"0_2",IF(O49&lt;5,"3_4",IF(O49&lt;7,"5_6",IF(O49&lt;9,"7_8","9Plus"))))),IF(P49="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U49),IF(P49="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V49,CHAR(10),Parts!AP49,CHAR(10),"    enginePartUpgradeName = ",W49),IF(P49="Parachute","    parachuteUpgradeType = standard",IF(P49="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O49),IF(OR(P49="System",P49="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W49,IF(P49="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P49="Fuel Tank",IF(X49="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X49="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X49,CHAR(10),"    fuelTankSizeUpgrade = ",Y49),_xlfn.CONCAT("    fuelTankUpgradeType = ",X49))),"")))))))</f>
+        <f>IF(P49="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O49&lt;3,"0_2",IF(O49&lt;5,"3_4",IF(O49&lt;7,"5_6",IF(O49&lt;9,"7_8","9Plus"))))),IF(P49="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U49),IF(P49="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V49,CHAR(10),Parts!AP49,CHAR(10),"    enginePartUpgradeName = ",W49),IF(P49="Parachute","    parachuteUpgradeType = standard",IF(P49="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O49),IF(OR(P49="System",P49="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W49,IF(P49="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P49="Fuel Tank",IF(X49="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X49="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X49,CHAR(10),"    fuelTankSizeUpgrade = ",Y49),_xlfn.CONCAT("    fuelTankUpgradeType = ",X49))),IF(P49="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size46</v>
       </c>
@@ -18909,7 +18878,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>371</v>
       </c>
@@ -19008,7 +18977,7 @@
       </c>
       <c r="AL50" s="14"/>
       <c r="AM50" s="15" t="str">
-        <f>IF(P50="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O50&lt;3,"0_2",IF(O50&lt;5,"3_4",IF(O50&lt;7,"5_6",IF(O50&lt;9,"7_8","9Plus"))))),IF(P50="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U50),IF(P50="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V50,CHAR(10),Parts!AP50,CHAR(10),"    enginePartUpgradeName = ",W50),IF(P50="Parachute","    parachuteUpgradeType = standard",IF(P50="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O50),IF(OR(P50="System",P50="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W50,IF(P50="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P50="Fuel Tank",IF(X50="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X50="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X50,CHAR(10),"    fuelTankSizeUpgrade = ",Y50),_xlfn.CONCAT("    fuelTankUpgradeType = ",X50))),"")))))))</f>
+        <f>IF(P50="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O50&lt;3,"0_2",IF(O50&lt;5,"3_4",IF(O50&lt;7,"5_6",IF(O50&lt;9,"7_8","9Plus"))))),IF(P50="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U50),IF(P50="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V50,CHAR(10),Parts!AP50,CHAR(10),"    enginePartUpgradeName = ",W50),IF(P50="Parachute","    parachuteUpgradeType = standard",IF(P50="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O50),IF(OR(P50="System",P50="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W50,IF(P50="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P50="Fuel Tank",IF(X50="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X50="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X50,CHAR(10),"    fuelTankSizeUpgrade = ",Y50),_xlfn.CONCAT("    fuelTankUpgradeType = ",X50))),IF(P50="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size47</v>
       </c>
@@ -19032,7 +19001,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>371</v>
       </c>
@@ -19131,7 +19100,7 @@
       </c>
       <c r="AL51" s="14"/>
       <c r="AM51" s="15" t="str">
-        <f>IF(P51="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O51&lt;3,"0_2",IF(O51&lt;5,"3_4",IF(O51&lt;7,"5_6",IF(O51&lt;9,"7_8","9Plus"))))),IF(P51="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U51),IF(P51="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V51,CHAR(10),Parts!AP51,CHAR(10),"    enginePartUpgradeName = ",W51),IF(P51="Parachute","    parachuteUpgradeType = standard",IF(P51="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O51),IF(OR(P51="System",P51="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W51,IF(P51="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P51="Fuel Tank",IF(X51="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X51="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X51,CHAR(10),"    fuelTankSizeUpgrade = ",Y51),_xlfn.CONCAT("    fuelTankUpgradeType = ",X51))),"")))))))</f>
+        <f>IF(P51="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O51&lt;3,"0_2",IF(O51&lt;5,"3_4",IF(O51&lt;7,"5_6",IF(O51&lt;9,"7_8","9Plus"))))),IF(P51="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U51),IF(P51="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V51,CHAR(10),Parts!AP51,CHAR(10),"    enginePartUpgradeName = ",W51),IF(P51="Parachute","    parachuteUpgradeType = standard",IF(P51="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O51),IF(OR(P51="System",P51="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W51,IF(P51="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P51="Fuel Tank",IF(X51="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X51="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X51,CHAR(10),"    fuelTankSizeUpgrade = ",Y51),_xlfn.CONCAT("    fuelTankUpgradeType = ",X51))),IF(P51="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size48</v>
       </c>
@@ -19155,7 +19124,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -19254,7 +19223,7 @@
       </c>
       <c r="AL52" s="14"/>
       <c r="AM52" s="15" t="str">
-        <f>IF(P52="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O52&lt;3,"0_2",IF(O52&lt;5,"3_4",IF(O52&lt;7,"5_6",IF(O52&lt;9,"7_8","9Plus"))))),IF(P52="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U52),IF(P52="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V52,CHAR(10),Parts!AP52,CHAR(10),"    enginePartUpgradeName = ",W52),IF(P52="Parachute","    parachuteUpgradeType = standard",IF(P52="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O52),IF(OR(P52="System",P52="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W52,IF(P52="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P52="Fuel Tank",IF(X52="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X52="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X52,CHAR(10),"    fuelTankSizeUpgrade = ",Y52),_xlfn.CONCAT("    fuelTankUpgradeType = ",X52))),"")))))))</f>
+        <f>IF(P52="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O52&lt;3,"0_2",IF(O52&lt;5,"3_4",IF(O52&lt;7,"5_6",IF(O52&lt;9,"7_8","9Plus"))))),IF(P52="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U52),IF(P52="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V52,CHAR(10),Parts!AP52,CHAR(10),"    enginePartUpgradeName = ",W52),IF(P52="Parachute","    parachuteUpgradeType = standard",IF(P52="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O52),IF(OR(P52="System",P52="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W52,IF(P52="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P52="Fuel Tank",IF(X52="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X52="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X52,CHAR(10),"    fuelTankSizeUpgrade = ",Y52),_xlfn.CONCAT("    fuelTankUpgradeType = ",X52))),IF(P52="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size49</v>
       </c>
@@ -19278,7 +19247,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>371</v>
       </c>
@@ -19377,7 +19346,7 @@
       </c>
       <c r="AL53" s="14"/>
       <c r="AM53" s="15" t="str">
-        <f>IF(P53="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O53&lt;3,"0_2",IF(O53&lt;5,"3_4",IF(O53&lt;7,"5_6",IF(O53&lt;9,"7_8","9Plus"))))),IF(P53="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U53),IF(P53="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V53,CHAR(10),Parts!AP53,CHAR(10),"    enginePartUpgradeName = ",W53),IF(P53="Parachute","    parachuteUpgradeType = standard",IF(P53="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O53),IF(OR(P53="System",P53="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W53,IF(P53="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P53="Fuel Tank",IF(X53="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X53="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X53,CHAR(10),"    fuelTankSizeUpgrade = ",Y53),_xlfn.CONCAT("    fuelTankUpgradeType = ",X53))),"")))))))</f>
+        <f>IF(P53="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O53&lt;3,"0_2",IF(O53&lt;5,"3_4",IF(O53&lt;7,"5_6",IF(O53&lt;9,"7_8","9Plus"))))),IF(P53="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U53),IF(P53="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V53,CHAR(10),Parts!AP53,CHAR(10),"    enginePartUpgradeName = ",W53),IF(P53="Parachute","    parachuteUpgradeType = standard",IF(P53="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O53),IF(OR(P53="System",P53="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W53,IF(P53="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P53="Fuel Tank",IF(X53="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X53="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X53,CHAR(10),"    fuelTankSizeUpgrade = ",Y53),_xlfn.CONCAT("    fuelTankUpgradeType = ",X53))),IF(P53="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size50</v>
       </c>
@@ -19401,7 +19370,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -19500,7 +19469,7 @@
       </c>
       <c r="AL54" s="14"/>
       <c r="AM54" s="15" t="str">
-        <f>IF(P54="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O54&lt;3,"0_2",IF(O54&lt;5,"3_4",IF(O54&lt;7,"5_6",IF(O54&lt;9,"7_8","9Plus"))))),IF(P54="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U54),IF(P54="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V54,CHAR(10),Parts!AP54,CHAR(10),"    enginePartUpgradeName = ",W54),IF(P54="Parachute","    parachuteUpgradeType = standard",IF(P54="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O54),IF(OR(P54="System",P54="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W54,IF(P54="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P54="Fuel Tank",IF(X54="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X54="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X54,CHAR(10),"    fuelTankSizeUpgrade = ",Y54),_xlfn.CONCAT("    fuelTankUpgradeType = ",X54))),"")))))))</f>
+        <f>IF(P54="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O54&lt;3,"0_2",IF(O54&lt;5,"3_4",IF(O54&lt;7,"5_6",IF(O54&lt;9,"7_8","9Plus"))))),IF(P54="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U54),IF(P54="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V54,CHAR(10),Parts!AP54,CHAR(10),"    enginePartUpgradeName = ",W54),IF(P54="Parachute","    parachuteUpgradeType = standard",IF(P54="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O54),IF(OR(P54="System",P54="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W54,IF(P54="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P54="Fuel Tank",IF(X54="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X54="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X54,CHAR(10),"    fuelTankSizeUpgrade = ",Y54),_xlfn.CONCAT("    fuelTankUpgradeType = ",X54))),IF(P54="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size51</v>
       </c>
@@ -19524,7 +19493,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>371</v>
       </c>
@@ -19623,7 +19592,7 @@
       </c>
       <c r="AL55" s="14"/>
       <c r="AM55" s="15" t="str">
-        <f>IF(P55="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O55&lt;3,"0_2",IF(O55&lt;5,"3_4",IF(O55&lt;7,"5_6",IF(O55&lt;9,"7_8","9Plus"))))),IF(P55="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U55),IF(P55="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V55,CHAR(10),Parts!AP55,CHAR(10),"    enginePartUpgradeName = ",W55),IF(P55="Parachute","    parachuteUpgradeType = standard",IF(P55="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O55),IF(OR(P55="System",P55="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W55,IF(P55="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P55="Fuel Tank",IF(X55="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X55="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X55,CHAR(10),"    fuelTankSizeUpgrade = ",Y55),_xlfn.CONCAT("    fuelTankUpgradeType = ",X55))),"")))))))</f>
+        <f>IF(P55="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O55&lt;3,"0_2",IF(O55&lt;5,"3_4",IF(O55&lt;7,"5_6",IF(O55&lt;9,"7_8","9Plus"))))),IF(P55="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U55),IF(P55="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V55,CHAR(10),Parts!AP55,CHAR(10),"    enginePartUpgradeName = ",W55),IF(P55="Parachute","    parachuteUpgradeType = standard",IF(P55="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O55),IF(OR(P55="System",P55="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W55,IF(P55="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P55="Fuel Tank",IF(X55="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X55="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X55,CHAR(10),"    fuelTankSizeUpgrade = ",Y55),_xlfn.CONCAT("    fuelTankUpgradeType = ",X55))),IF(P55="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size52</v>
       </c>
@@ -19647,7 +19616,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>371</v>
       </c>
@@ -19746,7 +19715,7 @@
       </c>
       <c r="AL56" s="14"/>
       <c r="AM56" s="15" t="str">
-        <f>IF(P56="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O56&lt;3,"0_2",IF(O56&lt;5,"3_4",IF(O56&lt;7,"5_6",IF(O56&lt;9,"7_8","9Plus"))))),IF(P56="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U56),IF(P56="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V56,CHAR(10),Parts!AP56,CHAR(10),"    enginePartUpgradeName = ",W56),IF(P56="Parachute","    parachuteUpgradeType = standard",IF(P56="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O56),IF(OR(P56="System",P56="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W56,IF(P56="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P56="Fuel Tank",IF(X56="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X56="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X56,CHAR(10),"    fuelTankSizeUpgrade = ",Y56),_xlfn.CONCAT("    fuelTankUpgradeType = ",X56))),"")))))))</f>
+        <f>IF(P56="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O56&lt;3,"0_2",IF(O56&lt;5,"3_4",IF(O56&lt;7,"5_6",IF(O56&lt;9,"7_8","9Plus"))))),IF(P56="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U56),IF(P56="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V56,CHAR(10),Parts!AP56,CHAR(10),"    enginePartUpgradeName = ",W56),IF(P56="Parachute","    parachuteUpgradeType = standard",IF(P56="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O56),IF(OR(P56="System",P56="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W56,IF(P56="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P56="Fuel Tank",IF(X56="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X56="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X56,CHAR(10),"    fuelTankSizeUpgrade = ",Y56),_xlfn.CONCAT("    fuelTankUpgradeType = ",X56))),IF(P56="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size53</v>
       </c>
@@ -19770,7 +19739,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>371</v>
       </c>
@@ -19869,7 +19838,7 @@
       </c>
       <c r="AL57" s="14"/>
       <c r="AM57" s="15" t="str">
-        <f>IF(P57="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O57&lt;3,"0_2",IF(O57&lt;5,"3_4",IF(O57&lt;7,"5_6",IF(O57&lt;9,"7_8","9Plus"))))),IF(P57="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U57),IF(P57="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V57,CHAR(10),Parts!AP57,CHAR(10),"    enginePartUpgradeName = ",W57),IF(P57="Parachute","    parachuteUpgradeType = standard",IF(P57="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O57),IF(OR(P57="System",P57="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W57,IF(P57="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P57="Fuel Tank",IF(X57="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X57="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X57,CHAR(10),"    fuelTankSizeUpgrade = ",Y57),_xlfn.CONCAT("    fuelTankUpgradeType = ",X57))),"")))))))</f>
+        <f>IF(P57="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O57&lt;3,"0_2",IF(O57&lt;5,"3_4",IF(O57&lt;7,"5_6",IF(O57&lt;9,"7_8","9Plus"))))),IF(P57="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U57),IF(P57="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V57,CHAR(10),Parts!AP57,CHAR(10),"    enginePartUpgradeName = ",W57),IF(P57="Parachute","    parachuteUpgradeType = standard",IF(P57="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O57),IF(OR(P57="System",P57="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W57,IF(P57="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P57="Fuel Tank",IF(X57="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X57="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X57,CHAR(10),"    fuelTankSizeUpgrade = ",Y57),_xlfn.CONCAT("    fuelTankUpgradeType = ",X57))),IF(P57="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size54</v>
       </c>
@@ -19893,7 +19862,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>371</v>
       </c>
@@ -19992,7 +19961,7 @@
       </c>
       <c r="AL58" s="14"/>
       <c r="AM58" s="15" t="str">
-        <f>IF(P58="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O58&lt;3,"0_2",IF(O58&lt;5,"3_4",IF(O58&lt;7,"5_6",IF(O58&lt;9,"7_8","9Plus"))))),IF(P58="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U58),IF(P58="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V58,CHAR(10),Parts!AP58,CHAR(10),"    enginePartUpgradeName = ",W58),IF(P58="Parachute","    parachuteUpgradeType = standard",IF(P58="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O58),IF(OR(P58="System",P58="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W58,IF(P58="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P58="Fuel Tank",IF(X58="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X58="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X58,CHAR(10),"    fuelTankSizeUpgrade = ",Y58),_xlfn.CONCAT("    fuelTankUpgradeType = ",X58))),"")))))))</f>
+        <f>IF(P58="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O58&lt;3,"0_2",IF(O58&lt;5,"3_4",IF(O58&lt;7,"5_6",IF(O58&lt;9,"7_8","9Plus"))))),IF(P58="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U58),IF(P58="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V58,CHAR(10),Parts!AP58,CHAR(10),"    enginePartUpgradeName = ",W58),IF(P58="Parachute","    parachuteUpgradeType = standard",IF(P58="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O58),IF(OR(P58="System",P58="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W58,IF(P58="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P58="Fuel Tank",IF(X58="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X58="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X58,CHAR(10),"    fuelTankSizeUpgrade = ",Y58),_xlfn.CONCAT("    fuelTankUpgradeType = ",X58))),IF(P58="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size55</v>
       </c>
@@ -20016,7 +19985,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -20115,7 +20084,7 @@
       </c>
       <c r="AL59" s="14"/>
       <c r="AM59" s="15" t="str">
-        <f>IF(P59="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O59&lt;3,"0_2",IF(O59&lt;5,"3_4",IF(O59&lt;7,"5_6",IF(O59&lt;9,"7_8","9Plus"))))),IF(P59="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U59),IF(P59="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V59,CHAR(10),Parts!AP59,CHAR(10),"    enginePartUpgradeName = ",W59),IF(P59="Parachute","    parachuteUpgradeType = standard",IF(P59="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O59),IF(OR(P59="System",P59="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W59,IF(P59="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P59="Fuel Tank",IF(X59="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X59="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X59,CHAR(10),"    fuelTankSizeUpgrade = ",Y59),_xlfn.CONCAT("    fuelTankUpgradeType = ",X59))),"")))))))</f>
+        <f>IF(P59="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O59&lt;3,"0_2",IF(O59&lt;5,"3_4",IF(O59&lt;7,"5_6",IF(O59&lt;9,"7_8","9Plus"))))),IF(P59="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U59),IF(P59="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V59,CHAR(10),Parts!AP59,CHAR(10),"    enginePartUpgradeName = ",W59),IF(P59="Parachute","    parachuteUpgradeType = standard",IF(P59="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O59),IF(OR(P59="System",P59="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W59,IF(P59="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P59="Fuel Tank",IF(X59="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X59="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X59,CHAR(10),"    fuelTankSizeUpgrade = ",Y59),_xlfn.CONCAT("    fuelTankUpgradeType = ",X59))),IF(P59="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size56</v>
       </c>
@@ -20139,7 +20108,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>371</v>
       </c>
@@ -20238,7 +20207,7 @@
       </c>
       <c r="AL60" s="14"/>
       <c r="AM60" s="15" t="str">
-        <f>IF(P60="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O60&lt;3,"0_2",IF(O60&lt;5,"3_4",IF(O60&lt;7,"5_6",IF(O60&lt;9,"7_8","9Plus"))))),IF(P60="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U60),IF(P60="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V60,CHAR(10),Parts!AP60,CHAR(10),"    enginePartUpgradeName = ",W60),IF(P60="Parachute","    parachuteUpgradeType = standard",IF(P60="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O60),IF(OR(P60="System",P60="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W60,IF(P60="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P60="Fuel Tank",IF(X60="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X60="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X60,CHAR(10),"    fuelTankSizeUpgrade = ",Y60),_xlfn.CONCAT("    fuelTankUpgradeType = ",X60))),"")))))))</f>
+        <f>IF(P60="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O60&lt;3,"0_2",IF(O60&lt;5,"3_4",IF(O60&lt;7,"5_6",IF(O60&lt;9,"7_8","9Plus"))))),IF(P60="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U60),IF(P60="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V60,CHAR(10),Parts!AP60,CHAR(10),"    enginePartUpgradeName = ",W60),IF(P60="Parachute","    parachuteUpgradeType = standard",IF(P60="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O60),IF(OR(P60="System",P60="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W60,IF(P60="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P60="Fuel Tank",IF(X60="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X60="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X60,CHAR(10),"    fuelTankSizeUpgrade = ",Y60),_xlfn.CONCAT("    fuelTankUpgradeType = ",X60))),IF(P60="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size57</v>
       </c>
@@ -20262,7 +20231,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -20361,7 +20330,7 @@
       </c>
       <c r="AL61" s="14"/>
       <c r="AM61" s="15" t="str">
-        <f>IF(P61="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O61&lt;3,"0_2",IF(O61&lt;5,"3_4",IF(O61&lt;7,"5_6",IF(O61&lt;9,"7_8","9Plus"))))),IF(P61="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U61),IF(P61="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V61,CHAR(10),Parts!AP61,CHAR(10),"    enginePartUpgradeName = ",W61),IF(P61="Parachute","    parachuteUpgradeType = standard",IF(P61="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O61),IF(OR(P61="System",P61="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W61,IF(P61="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P61="Fuel Tank",IF(X61="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X61="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X61,CHAR(10),"    fuelTankSizeUpgrade = ",Y61),_xlfn.CONCAT("    fuelTankUpgradeType = ",X61))),"")))))))</f>
+        <f>IF(P61="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O61&lt;3,"0_2",IF(O61&lt;5,"3_4",IF(O61&lt;7,"5_6",IF(O61&lt;9,"7_8","9Plus"))))),IF(P61="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U61),IF(P61="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V61,CHAR(10),Parts!AP61,CHAR(10),"    enginePartUpgradeName = ",W61),IF(P61="Parachute","    parachuteUpgradeType = standard",IF(P61="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O61),IF(OR(P61="System",P61="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W61,IF(P61="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P61="Fuel Tank",IF(X61="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X61="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X61,CHAR(10),"    fuelTankSizeUpgrade = ",Y61),_xlfn.CONCAT("    fuelTankUpgradeType = ",X61))),IF(P61="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size58</v>
       </c>
@@ -20385,7 +20354,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>371</v>
       </c>
@@ -20484,7 +20453,7 @@
       </c>
       <c r="AL62" s="14"/>
       <c r="AM62" s="15" t="str">
-        <f>IF(P62="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O62&lt;3,"0_2",IF(O62&lt;5,"3_4",IF(O62&lt;7,"5_6",IF(O62&lt;9,"7_8","9Plus"))))),IF(P62="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U62),IF(P62="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V62,CHAR(10),Parts!AP62,CHAR(10),"    enginePartUpgradeName = ",W62),IF(P62="Parachute","    parachuteUpgradeType = standard",IF(P62="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O62),IF(OR(P62="System",P62="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W62,IF(P62="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P62="Fuel Tank",IF(X62="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X62="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X62,CHAR(10),"    fuelTankSizeUpgrade = ",Y62),_xlfn.CONCAT("    fuelTankUpgradeType = ",X62))),"")))))))</f>
+        <f>IF(P62="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O62&lt;3,"0_2",IF(O62&lt;5,"3_4",IF(O62&lt;7,"5_6",IF(O62&lt;9,"7_8","9Plus"))))),IF(P62="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U62),IF(P62="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V62,CHAR(10),Parts!AP62,CHAR(10),"    enginePartUpgradeName = ",W62),IF(P62="Parachute","    parachuteUpgradeType = standard",IF(P62="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O62),IF(OR(P62="System",P62="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W62,IF(P62="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P62="Fuel Tank",IF(X62="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X62="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X62,CHAR(10),"    fuelTankSizeUpgrade = ",Y62),_xlfn.CONCAT("    fuelTankUpgradeType = ",X62))),IF(P62="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size59</v>
       </c>
@@ -20508,7 +20477,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>371</v>
       </c>
@@ -20607,7 +20576,7 @@
       </c>
       <c r="AL63" s="14"/>
       <c r="AM63" s="15" t="str">
-        <f>IF(P63="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O63&lt;3,"0_2",IF(O63&lt;5,"3_4",IF(O63&lt;7,"5_6",IF(O63&lt;9,"7_8","9Plus"))))),IF(P63="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U63),IF(P63="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V63,CHAR(10),Parts!AP63,CHAR(10),"    enginePartUpgradeName = ",W63),IF(P63="Parachute","    parachuteUpgradeType = standard",IF(P63="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O63),IF(OR(P63="System",P63="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W63,IF(P63="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P63="Fuel Tank",IF(X63="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X63="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X63,CHAR(10),"    fuelTankSizeUpgrade = ",Y63),_xlfn.CONCAT("    fuelTankUpgradeType = ",X63))),"")))))))</f>
+        <f>IF(P63="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O63&lt;3,"0_2",IF(O63&lt;5,"3_4",IF(O63&lt;7,"5_6",IF(O63&lt;9,"7_8","9Plus"))))),IF(P63="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U63),IF(P63="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V63,CHAR(10),Parts!AP63,CHAR(10),"    enginePartUpgradeName = ",W63),IF(P63="Parachute","    parachuteUpgradeType = standard",IF(P63="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O63),IF(OR(P63="System",P63="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W63,IF(P63="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P63="Fuel Tank",IF(X63="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X63="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X63,CHAR(10),"    fuelTankSizeUpgrade = ",Y63),_xlfn.CONCAT("    fuelTankUpgradeType = ",X63))),IF(P63="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size60</v>
       </c>
@@ -20631,7 +20600,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>371</v>
       </c>
@@ -20730,7 +20699,7 @@
       </c>
       <c r="AL64" s="14"/>
       <c r="AM64" s="15" t="str">
-        <f>IF(P64="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O64&lt;3,"0_2",IF(O64&lt;5,"3_4",IF(O64&lt;7,"5_6",IF(O64&lt;9,"7_8","9Plus"))))),IF(P64="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U64),IF(P64="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V64,CHAR(10),Parts!AP64,CHAR(10),"    enginePartUpgradeName = ",W64),IF(P64="Parachute","    parachuteUpgradeType = standard",IF(P64="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O64),IF(OR(P64="System",P64="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W64,IF(P64="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P64="Fuel Tank",IF(X64="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X64="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X64,CHAR(10),"    fuelTankSizeUpgrade = ",Y64),_xlfn.CONCAT("    fuelTankUpgradeType = ",X64))),"")))))))</f>
+        <f>IF(P64="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O64&lt;3,"0_2",IF(O64&lt;5,"3_4",IF(O64&lt;7,"5_6",IF(O64&lt;9,"7_8","9Plus"))))),IF(P64="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U64),IF(P64="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V64,CHAR(10),Parts!AP64,CHAR(10),"    enginePartUpgradeName = ",W64),IF(P64="Parachute","    parachuteUpgradeType = standard",IF(P64="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O64),IF(OR(P64="System",P64="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W64,IF(P64="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P64="Fuel Tank",IF(X64="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X64="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X64,CHAR(10),"    fuelTankSizeUpgrade = ",Y64),_xlfn.CONCAT("    fuelTankUpgradeType = ",X64))),IF(P64="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size61</v>
       </c>
@@ -20754,7 +20723,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -20853,7 +20822,7 @@
       </c>
       <c r="AL65" s="14"/>
       <c r="AM65" s="15" t="str">
-        <f>IF(P65="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O65&lt;3,"0_2",IF(O65&lt;5,"3_4",IF(O65&lt;7,"5_6",IF(O65&lt;9,"7_8","9Plus"))))),IF(P65="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U65),IF(P65="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V65,CHAR(10),Parts!AP65,CHAR(10),"    enginePartUpgradeName = ",W65),IF(P65="Parachute","    parachuteUpgradeType = standard",IF(P65="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O65),IF(OR(P65="System",P65="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W65,IF(P65="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P65="Fuel Tank",IF(X65="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X65="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X65,CHAR(10),"    fuelTankSizeUpgrade = ",Y65),_xlfn.CONCAT("    fuelTankUpgradeType = ",X65))),"")))))))</f>
+        <f>IF(P65="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O65&lt;3,"0_2",IF(O65&lt;5,"3_4",IF(O65&lt;7,"5_6",IF(O65&lt;9,"7_8","9Plus"))))),IF(P65="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U65),IF(P65="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V65,CHAR(10),Parts!AP65,CHAR(10),"    enginePartUpgradeName = ",W65),IF(P65="Parachute","    parachuteUpgradeType = standard",IF(P65="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O65),IF(OR(P65="System",P65="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W65,IF(P65="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P65="Fuel Tank",IF(X65="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X65="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X65,CHAR(10),"    fuelTankSizeUpgrade = ",Y65),_xlfn.CONCAT("    fuelTankUpgradeType = ",X65))),IF(P65="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size62</v>
       </c>
@@ -20877,7 +20846,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>371</v>
       </c>
@@ -20976,7 +20945,7 @@
       </c>
       <c r="AL66" s="14"/>
       <c r="AM66" s="15" t="str">
-        <f>IF(P66="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O66&lt;3,"0_2",IF(O66&lt;5,"3_4",IF(O66&lt;7,"5_6",IF(O66&lt;9,"7_8","9Plus"))))),IF(P66="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U66),IF(P66="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V66,CHAR(10),Parts!AP66,CHAR(10),"    enginePartUpgradeName = ",W66),IF(P66="Parachute","    parachuteUpgradeType = standard",IF(P66="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O66),IF(OR(P66="System",P66="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W66,IF(P66="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P66="Fuel Tank",IF(X66="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X66="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X66,CHAR(10),"    fuelTankSizeUpgrade = ",Y66),_xlfn.CONCAT("    fuelTankUpgradeType = ",X66))),"")))))))</f>
+        <f>IF(P66="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O66&lt;3,"0_2",IF(O66&lt;5,"3_4",IF(O66&lt;7,"5_6",IF(O66&lt;9,"7_8","9Plus"))))),IF(P66="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U66),IF(P66="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V66,CHAR(10),Parts!AP66,CHAR(10),"    enginePartUpgradeName = ",W66),IF(P66="Parachute","    parachuteUpgradeType = standard",IF(P66="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O66),IF(OR(P66="System",P66="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W66,IF(P66="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P66="Fuel Tank",IF(X66="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X66="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X66,CHAR(10),"    fuelTankSizeUpgrade = ",Y66),_xlfn.CONCAT("    fuelTankUpgradeType = ",X66))),IF(P66="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size63</v>
       </c>
@@ -21000,7 +20969,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>371</v>
       </c>
@@ -21099,7 +21068,7 @@
       </c>
       <c r="AL67" s="14"/>
       <c r="AM67" s="15" t="str">
-        <f>IF(P67="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O67&lt;3,"0_2",IF(O67&lt;5,"3_4",IF(O67&lt;7,"5_6",IF(O67&lt;9,"7_8","9Plus"))))),IF(P67="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U67),IF(P67="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V67,CHAR(10),Parts!AP67,CHAR(10),"    enginePartUpgradeName = ",W67),IF(P67="Parachute","    parachuteUpgradeType = standard",IF(P67="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O67),IF(OR(P67="System",P67="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W67,IF(P67="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P67="Fuel Tank",IF(X67="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X67="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X67,CHAR(10),"    fuelTankSizeUpgrade = ",Y67),_xlfn.CONCAT("    fuelTankUpgradeType = ",X67))),"")))))))</f>
+        <f>IF(P67="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O67&lt;3,"0_2",IF(O67&lt;5,"3_4",IF(O67&lt;7,"5_6",IF(O67&lt;9,"7_8","9Plus"))))),IF(P67="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U67),IF(P67="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V67,CHAR(10),Parts!AP67,CHAR(10),"    enginePartUpgradeName = ",W67),IF(P67="Parachute","    parachuteUpgradeType = standard",IF(P67="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O67),IF(OR(P67="System",P67="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W67,IF(P67="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P67="Fuel Tank",IF(X67="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X67="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X67,CHAR(10),"    fuelTankSizeUpgrade = ",Y67),_xlfn.CONCAT("    fuelTankUpgradeType = ",X67))),IF(P67="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size64</v>
       </c>
@@ -21123,7 +21092,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>371</v>
       </c>
@@ -21222,7 +21191,7 @@
       </c>
       <c r="AL68" s="14"/>
       <c r="AM68" s="15" t="str">
-        <f>IF(P68="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O68&lt;3,"0_2",IF(O68&lt;5,"3_4",IF(O68&lt;7,"5_6",IF(O68&lt;9,"7_8","9Plus"))))),IF(P68="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U68),IF(P68="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V68,CHAR(10),Parts!AP68,CHAR(10),"    enginePartUpgradeName = ",W68),IF(P68="Parachute","    parachuteUpgradeType = standard",IF(P68="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O68),IF(OR(P68="System",P68="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W68,IF(P68="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P68="Fuel Tank",IF(X68="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X68="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X68,CHAR(10),"    fuelTankSizeUpgrade = ",Y68),_xlfn.CONCAT("    fuelTankUpgradeType = ",X68))),"")))))))</f>
+        <f>IF(P68="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O68&lt;3,"0_2",IF(O68&lt;5,"3_4",IF(O68&lt;7,"5_6",IF(O68&lt;9,"7_8","9Plus"))))),IF(P68="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U68),IF(P68="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V68,CHAR(10),Parts!AP68,CHAR(10),"    enginePartUpgradeName = ",W68),IF(P68="Parachute","    parachuteUpgradeType = standard",IF(P68="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O68),IF(OR(P68="System",P68="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W68,IF(P68="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P68="Fuel Tank",IF(X68="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X68="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X68,CHAR(10),"    fuelTankSizeUpgrade = ",Y68),_xlfn.CONCAT("    fuelTankUpgradeType = ",X68))),IF(P68="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size65</v>
       </c>
@@ -21246,7 +21215,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>371</v>
       </c>
@@ -21345,7 +21314,7 @@
       </c>
       <c r="AL69" s="14"/>
       <c r="AM69" s="15" t="str">
-        <f>IF(P69="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O69&lt;3,"0_2",IF(O69&lt;5,"3_4",IF(O69&lt;7,"5_6",IF(O69&lt;9,"7_8","9Plus"))))),IF(P69="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U69),IF(P69="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V69,CHAR(10),Parts!AP69,CHAR(10),"    enginePartUpgradeName = ",W69),IF(P69="Parachute","    parachuteUpgradeType = standard",IF(P69="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O69),IF(OR(P69="System",P69="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W69,IF(P69="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P69="Fuel Tank",IF(X69="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X69="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X69,CHAR(10),"    fuelTankSizeUpgrade = ",Y69),_xlfn.CONCAT("    fuelTankUpgradeType = ",X69))),"")))))))</f>
+        <f>IF(P69="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O69&lt;3,"0_2",IF(O69&lt;5,"3_4",IF(O69&lt;7,"5_6",IF(O69&lt;9,"7_8","9Plus"))))),IF(P69="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U69),IF(P69="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V69,CHAR(10),Parts!AP69,CHAR(10),"    enginePartUpgradeName = ",W69),IF(P69="Parachute","    parachuteUpgradeType = standard",IF(P69="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O69),IF(OR(P69="System",P69="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W69,IF(P69="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P69="Fuel Tank",IF(X69="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X69="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X69,CHAR(10),"    fuelTankSizeUpgrade = ",Y69),_xlfn.CONCAT("    fuelTankUpgradeType = ",X69))),IF(P69="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size66</v>
       </c>
@@ -21369,7 +21338,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>371</v>
       </c>
@@ -21468,7 +21437,7 @@
       </c>
       <c r="AL70" s="14"/>
       <c r="AM70" s="15" t="str">
-        <f>IF(P70="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O70&lt;3,"0_2",IF(O70&lt;5,"3_4",IF(O70&lt;7,"5_6",IF(O70&lt;9,"7_8","9Plus"))))),IF(P70="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U70),IF(P70="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V70,CHAR(10),Parts!AP70,CHAR(10),"    enginePartUpgradeName = ",W70),IF(P70="Parachute","    parachuteUpgradeType = standard",IF(P70="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O70),IF(OR(P70="System",P70="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W70,IF(P70="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P70="Fuel Tank",IF(X70="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X70="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X70,CHAR(10),"    fuelTankSizeUpgrade = ",Y70),_xlfn.CONCAT("    fuelTankUpgradeType = ",X70))),"")))))))</f>
+        <f>IF(P70="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O70&lt;3,"0_2",IF(O70&lt;5,"3_4",IF(O70&lt;7,"5_6",IF(O70&lt;9,"7_8","9Plus"))))),IF(P70="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U70),IF(P70="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V70,CHAR(10),Parts!AP70,CHAR(10),"    enginePartUpgradeName = ",W70),IF(P70="Parachute","    parachuteUpgradeType = standard",IF(P70="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O70),IF(OR(P70="System",P70="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W70,IF(P70="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P70="Fuel Tank",IF(X70="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X70="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X70,CHAR(10),"    fuelTankSizeUpgrade = ",Y70),_xlfn.CONCAT("    fuelTankUpgradeType = ",X70))),IF(P70="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size67</v>
       </c>
@@ -21492,7 +21461,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -21591,7 +21560,7 @@
       </c>
       <c r="AL71" s="14"/>
       <c r="AM71" s="15" t="str">
-        <f>IF(P71="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O71&lt;3,"0_2",IF(O71&lt;5,"3_4",IF(O71&lt;7,"5_6",IF(O71&lt;9,"7_8","9Plus"))))),IF(P71="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U71),IF(P71="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V71,CHAR(10),Parts!AP71,CHAR(10),"    enginePartUpgradeName = ",W71),IF(P71="Parachute","    parachuteUpgradeType = standard",IF(P71="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O71),IF(OR(P71="System",P71="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W71,IF(P71="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P71="Fuel Tank",IF(X71="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X71="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X71,CHAR(10),"    fuelTankSizeUpgrade = ",Y71),_xlfn.CONCAT("    fuelTankUpgradeType = ",X71))),"")))))))</f>
+        <f>IF(P71="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O71&lt;3,"0_2",IF(O71&lt;5,"3_4",IF(O71&lt;7,"5_6",IF(O71&lt;9,"7_8","9Plus"))))),IF(P71="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U71),IF(P71="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V71,CHAR(10),Parts!AP71,CHAR(10),"    enginePartUpgradeName = ",W71),IF(P71="Parachute","    parachuteUpgradeType = standard",IF(P71="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O71),IF(OR(P71="System",P71="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W71,IF(P71="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P71="Fuel Tank",IF(X71="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X71="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X71,CHAR(10),"    fuelTankSizeUpgrade = ",Y71),_xlfn.CONCAT("    fuelTankUpgradeType = ",X71))),IF(P71="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size68</v>
       </c>
@@ -21615,7 +21584,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -21714,7 +21683,7 @@
       </c>
       <c r="AL72" s="14"/>
       <c r="AM72" s="15" t="str">
-        <f>IF(P72="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O72&lt;3,"0_2",IF(O72&lt;5,"3_4",IF(O72&lt;7,"5_6",IF(O72&lt;9,"7_8","9Plus"))))),IF(P72="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U72),IF(P72="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V72,CHAR(10),Parts!AP72,CHAR(10),"    enginePartUpgradeName = ",W72),IF(P72="Parachute","    parachuteUpgradeType = standard",IF(P72="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O72),IF(OR(P72="System",P72="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W72,IF(P72="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P72="Fuel Tank",IF(X72="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X72="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X72,CHAR(10),"    fuelTankSizeUpgrade = ",Y72),_xlfn.CONCAT("    fuelTankUpgradeType = ",X72))),"")))))))</f>
+        <f>IF(P72="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O72&lt;3,"0_2",IF(O72&lt;5,"3_4",IF(O72&lt;7,"5_6",IF(O72&lt;9,"7_8","9Plus"))))),IF(P72="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U72),IF(P72="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V72,CHAR(10),Parts!AP72,CHAR(10),"    enginePartUpgradeName = ",W72),IF(P72="Parachute","    parachuteUpgradeType = standard",IF(P72="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O72),IF(OR(P72="System",P72="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W72,IF(P72="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P72="Fuel Tank",IF(X72="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X72="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X72,CHAR(10),"    fuelTankSizeUpgrade = ",Y72),_xlfn.CONCAT("    fuelTankUpgradeType = ",X72))),IF(P72="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size69</v>
       </c>
@@ -21738,7 +21707,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>371</v>
       </c>
@@ -21837,7 +21806,7 @@
       </c>
       <c r="AL73" s="14"/>
       <c r="AM73" s="15" t="str">
-        <f>IF(P73="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O73&lt;3,"0_2",IF(O73&lt;5,"3_4",IF(O73&lt;7,"5_6",IF(O73&lt;9,"7_8","9Plus"))))),IF(P73="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U73),IF(P73="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V73,CHAR(10),Parts!AP73,CHAR(10),"    enginePartUpgradeName = ",W73),IF(P73="Parachute","    parachuteUpgradeType = standard",IF(P73="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O73),IF(OR(P73="System",P73="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W73,IF(P73="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P73="Fuel Tank",IF(X73="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X73="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X73,CHAR(10),"    fuelTankSizeUpgrade = ",Y73),_xlfn.CONCAT("    fuelTankUpgradeType = ",X73))),"")))))))</f>
+        <f>IF(P73="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O73&lt;3,"0_2",IF(O73&lt;5,"3_4",IF(O73&lt;7,"5_6",IF(O73&lt;9,"7_8","9Plus"))))),IF(P73="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U73),IF(P73="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V73,CHAR(10),Parts!AP73,CHAR(10),"    enginePartUpgradeName = ",W73),IF(P73="Parachute","    parachuteUpgradeType = standard",IF(P73="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O73),IF(OR(P73="System",P73="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W73,IF(P73="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P73="Fuel Tank",IF(X73="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X73="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X73,CHAR(10),"    fuelTankSizeUpgrade = ",Y73),_xlfn.CONCAT("    fuelTankUpgradeType = ",X73))),IF(P73="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size70</v>
       </c>
@@ -21861,7 +21830,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>371</v>
       </c>
@@ -21960,7 +21929,7 @@
       </c>
       <c r="AL74" s="14"/>
       <c r="AM74" s="15" t="str">
-        <f>IF(P74="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O74&lt;3,"0_2",IF(O74&lt;5,"3_4",IF(O74&lt;7,"5_6",IF(O74&lt;9,"7_8","9Plus"))))),IF(P74="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U74),IF(P74="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V74,CHAR(10),Parts!AP74,CHAR(10),"    enginePartUpgradeName = ",W74),IF(P74="Parachute","    parachuteUpgradeType = standard",IF(P74="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O74),IF(OR(P74="System",P74="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W74,IF(P74="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P74="Fuel Tank",IF(X74="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X74="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X74,CHAR(10),"    fuelTankSizeUpgrade = ",Y74),_xlfn.CONCAT("    fuelTankUpgradeType = ",X74))),"")))))))</f>
+        <f>IF(P74="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O74&lt;3,"0_2",IF(O74&lt;5,"3_4",IF(O74&lt;7,"5_6",IF(O74&lt;9,"7_8","9Plus"))))),IF(P74="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U74),IF(P74="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V74,CHAR(10),Parts!AP74,CHAR(10),"    enginePartUpgradeName = ",W74),IF(P74="Parachute","    parachuteUpgradeType = standard",IF(P74="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O74),IF(OR(P74="System",P74="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W74,IF(P74="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P74="Fuel Tank",IF(X74="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X74="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X74,CHAR(10),"    fuelTankSizeUpgrade = ",Y74),_xlfn.CONCAT("    fuelTankUpgradeType = ",X74))),IF(P74="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size71</v>
       </c>
@@ -21984,7 +21953,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>371</v>
       </c>
@@ -22083,7 +22052,7 @@
       </c>
       <c r="AL75" s="14"/>
       <c r="AM75" s="15" t="str">
-        <f>IF(P75="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O75&lt;3,"0_2",IF(O75&lt;5,"3_4",IF(O75&lt;7,"5_6",IF(O75&lt;9,"7_8","9Plus"))))),IF(P75="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U75),IF(P75="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V75,CHAR(10),Parts!AP75,CHAR(10),"    enginePartUpgradeName = ",W75),IF(P75="Parachute","    parachuteUpgradeType = standard",IF(P75="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O75),IF(OR(P75="System",P75="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W75,IF(P75="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P75="Fuel Tank",IF(X75="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X75="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X75,CHAR(10),"    fuelTankSizeUpgrade = ",Y75),_xlfn.CONCAT("    fuelTankUpgradeType = ",X75))),"")))))))</f>
+        <f>IF(P75="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O75&lt;3,"0_2",IF(O75&lt;5,"3_4",IF(O75&lt;7,"5_6",IF(O75&lt;9,"7_8","9Plus"))))),IF(P75="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U75),IF(P75="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V75,CHAR(10),Parts!AP75,CHAR(10),"    enginePartUpgradeName = ",W75),IF(P75="Parachute","    parachuteUpgradeType = standard",IF(P75="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O75),IF(OR(P75="System",P75="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W75,IF(P75="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P75="Fuel Tank",IF(X75="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X75="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X75,CHAR(10),"    fuelTankSizeUpgrade = ",Y75),_xlfn.CONCAT("    fuelTankUpgradeType = ",X75))),IF(P75="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size72</v>
       </c>
@@ -22107,7 +22076,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>371</v>
       </c>
@@ -22206,7 +22175,7 @@
       </c>
       <c r="AL76" s="14"/>
       <c r="AM76" s="15" t="str">
-        <f>IF(P76="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O76&lt;3,"0_2",IF(O76&lt;5,"3_4",IF(O76&lt;7,"5_6",IF(O76&lt;9,"7_8","9Plus"))))),IF(P76="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U76),IF(P76="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V76,CHAR(10),Parts!AP76,CHAR(10),"    enginePartUpgradeName = ",W76),IF(P76="Parachute","    parachuteUpgradeType = standard",IF(P76="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O76),IF(OR(P76="System",P76="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W76,IF(P76="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P76="Fuel Tank",IF(X76="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X76="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X76,CHAR(10),"    fuelTankSizeUpgrade = ",Y76),_xlfn.CONCAT("    fuelTankUpgradeType = ",X76))),"")))))))</f>
+        <f>IF(P76="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O76&lt;3,"0_2",IF(O76&lt;5,"3_4",IF(O76&lt;7,"5_6",IF(O76&lt;9,"7_8","9Plus"))))),IF(P76="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U76),IF(P76="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V76,CHAR(10),Parts!AP76,CHAR(10),"    enginePartUpgradeName = ",W76),IF(P76="Parachute","    parachuteUpgradeType = standard",IF(P76="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O76),IF(OR(P76="System",P76="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W76,IF(P76="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P76="Fuel Tank",IF(X76="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X76="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X76,CHAR(10),"    fuelTankSizeUpgrade = ",Y76),_xlfn.CONCAT("    fuelTankUpgradeType = ",X76))),IF(P76="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size73</v>
       </c>
@@ -22230,7 +22199,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>371</v>
       </c>
@@ -22329,7 +22298,7 @@
       </c>
       <c r="AL77" s="14"/>
       <c r="AM77" s="15" t="str">
-        <f>IF(P77="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O77&lt;3,"0_2",IF(O77&lt;5,"3_4",IF(O77&lt;7,"5_6",IF(O77&lt;9,"7_8","9Plus"))))),IF(P77="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U77),IF(P77="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V77,CHAR(10),Parts!AP77,CHAR(10),"    enginePartUpgradeName = ",W77),IF(P77="Parachute","    parachuteUpgradeType = standard",IF(P77="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O77),IF(OR(P77="System",P77="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W77,IF(P77="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P77="Fuel Tank",IF(X77="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X77="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X77,CHAR(10),"    fuelTankSizeUpgrade = ",Y77),_xlfn.CONCAT("    fuelTankUpgradeType = ",X77))),"")))))))</f>
+        <f>IF(P77="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O77&lt;3,"0_2",IF(O77&lt;5,"3_4",IF(O77&lt;7,"5_6",IF(O77&lt;9,"7_8","9Plus"))))),IF(P77="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U77),IF(P77="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V77,CHAR(10),Parts!AP77,CHAR(10),"    enginePartUpgradeName = ",W77),IF(P77="Parachute","    parachuteUpgradeType = standard",IF(P77="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O77),IF(OR(P77="System",P77="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W77,IF(P77="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P77="Fuel Tank",IF(X77="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X77="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X77,CHAR(10),"    fuelTankSizeUpgrade = ",Y77),_xlfn.CONCAT("    fuelTankUpgradeType = ",X77))),IF(P77="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size74</v>
       </c>
@@ -22353,7 +22322,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>371</v>
       </c>
@@ -22452,7 +22421,7 @@
       </c>
       <c r="AL78" s="14"/>
       <c r="AM78" s="15" t="str">
-        <f>IF(P78="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O78&lt;3,"0_2",IF(O78&lt;5,"3_4",IF(O78&lt;7,"5_6",IF(O78&lt;9,"7_8","9Plus"))))),IF(P78="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U78),IF(P78="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V78,CHAR(10),Parts!AP78,CHAR(10),"    enginePartUpgradeName = ",W78),IF(P78="Parachute","    parachuteUpgradeType = standard",IF(P78="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O78),IF(OR(P78="System",P78="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W78,IF(P78="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P78="Fuel Tank",IF(X78="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X78="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X78,CHAR(10),"    fuelTankSizeUpgrade = ",Y78),_xlfn.CONCAT("    fuelTankUpgradeType = ",X78))),"")))))))</f>
+        <f>IF(P78="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O78&lt;3,"0_2",IF(O78&lt;5,"3_4",IF(O78&lt;7,"5_6",IF(O78&lt;9,"7_8","9Plus"))))),IF(P78="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U78),IF(P78="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V78,CHAR(10),Parts!AP78,CHAR(10),"    enginePartUpgradeName = ",W78),IF(P78="Parachute","    parachuteUpgradeType = standard",IF(P78="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O78),IF(OR(P78="System",P78="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W78,IF(P78="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P78="Fuel Tank",IF(X78="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X78="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X78,CHAR(10),"    fuelTankSizeUpgrade = ",Y78),_xlfn.CONCAT("    fuelTankUpgradeType = ",X78))),IF(P78="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size75</v>
       </c>
@@ -22476,7 +22445,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>371</v>
       </c>
@@ -22575,7 +22544,7 @@
       </c>
       <c r="AL79" s="14"/>
       <c r="AM79" s="15" t="str">
-        <f>IF(P79="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O79&lt;3,"0_2",IF(O79&lt;5,"3_4",IF(O79&lt;7,"5_6",IF(O79&lt;9,"7_8","9Plus"))))),IF(P79="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U79),IF(P79="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V79,CHAR(10),Parts!AP79,CHAR(10),"    enginePartUpgradeName = ",W79),IF(P79="Parachute","    parachuteUpgradeType = standard",IF(P79="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O79),IF(OR(P79="System",P79="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W79,IF(P79="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P79="Fuel Tank",IF(X79="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X79="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X79,CHAR(10),"    fuelTankSizeUpgrade = ",Y79),_xlfn.CONCAT("    fuelTankUpgradeType = ",X79))),"")))))))</f>
+        <f>IF(P79="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O79&lt;3,"0_2",IF(O79&lt;5,"3_4",IF(O79&lt;7,"5_6",IF(O79&lt;9,"7_8","9Plus"))))),IF(P79="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U79),IF(P79="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V79,CHAR(10),Parts!AP79,CHAR(10),"    enginePartUpgradeName = ",W79),IF(P79="Parachute","    parachuteUpgradeType = standard",IF(P79="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O79),IF(OR(P79="System",P79="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W79,IF(P79="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P79="Fuel Tank",IF(X79="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X79="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X79,CHAR(10),"    fuelTankSizeUpgrade = ",Y79),_xlfn.CONCAT("    fuelTankUpgradeType = ",X79))),IF(P79="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size76</v>
       </c>
@@ -22599,7 +22568,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>371</v>
       </c>
@@ -22698,7 +22667,7 @@
       </c>
       <c r="AL80" s="14"/>
       <c r="AM80" s="15" t="str">
-        <f>IF(P80="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O80&lt;3,"0_2",IF(O80&lt;5,"3_4",IF(O80&lt;7,"5_6",IF(O80&lt;9,"7_8","9Plus"))))),IF(P80="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U80),IF(P80="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V80,CHAR(10),Parts!AP80,CHAR(10),"    enginePartUpgradeName = ",W80),IF(P80="Parachute","    parachuteUpgradeType = standard",IF(P80="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O80),IF(OR(P80="System",P80="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W80,IF(P80="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P80="Fuel Tank",IF(X80="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X80="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X80,CHAR(10),"    fuelTankSizeUpgrade = ",Y80),_xlfn.CONCAT("    fuelTankUpgradeType = ",X80))),"")))))))</f>
+        <f>IF(P80="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O80&lt;3,"0_2",IF(O80&lt;5,"3_4",IF(O80&lt;7,"5_6",IF(O80&lt;9,"7_8","9Plus"))))),IF(P80="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U80),IF(P80="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V80,CHAR(10),Parts!AP80,CHAR(10),"    enginePartUpgradeName = ",W80),IF(P80="Parachute","    parachuteUpgradeType = standard",IF(P80="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O80),IF(OR(P80="System",P80="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W80,IF(P80="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P80="Fuel Tank",IF(X80="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X80="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X80,CHAR(10),"    fuelTankSizeUpgrade = ",Y80),_xlfn.CONCAT("    fuelTankUpgradeType = ",X80))),IF(P80="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size77</v>
       </c>
@@ -22722,7 +22691,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>371</v>
       </c>
@@ -22821,7 +22790,7 @@
       </c>
       <c r="AL81" s="14"/>
       <c r="AM81" s="15" t="str">
-        <f>IF(P81="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O81&lt;3,"0_2",IF(O81&lt;5,"3_4",IF(O81&lt;7,"5_6",IF(O81&lt;9,"7_8","9Plus"))))),IF(P81="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U81),IF(P81="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V81,CHAR(10),Parts!AP81,CHAR(10),"    enginePartUpgradeName = ",W81),IF(P81="Parachute","    parachuteUpgradeType = standard",IF(P81="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O81),IF(OR(P81="System",P81="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W81,IF(P81="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P81="Fuel Tank",IF(X81="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X81="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X81,CHAR(10),"    fuelTankSizeUpgrade = ",Y81),_xlfn.CONCAT("    fuelTankUpgradeType = ",X81))),"")))))))</f>
+        <f>IF(P81="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O81&lt;3,"0_2",IF(O81&lt;5,"3_4",IF(O81&lt;7,"5_6",IF(O81&lt;9,"7_8","9Plus"))))),IF(P81="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U81),IF(P81="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V81,CHAR(10),Parts!AP81,CHAR(10),"    enginePartUpgradeName = ",W81),IF(P81="Parachute","    parachuteUpgradeType = standard",IF(P81="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O81),IF(OR(P81="System",P81="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W81,IF(P81="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P81="Fuel Tank",IF(X81="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X81="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X81,CHAR(10),"    fuelTankSizeUpgrade = ",Y81),_xlfn.CONCAT("    fuelTankUpgradeType = ",X81))),IF(P81="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size78</v>
       </c>
@@ -22845,7 +22814,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>371</v>
       </c>
@@ -22944,7 +22913,7 @@
       </c>
       <c r="AL82" s="14"/>
       <c r="AM82" s="15" t="str">
-        <f>IF(P82="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O82&lt;3,"0_2",IF(O82&lt;5,"3_4",IF(O82&lt;7,"5_6",IF(O82&lt;9,"7_8","9Plus"))))),IF(P82="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U82),IF(P82="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V82,CHAR(10),Parts!AP82,CHAR(10),"    enginePartUpgradeName = ",W82),IF(P82="Parachute","    parachuteUpgradeType = standard",IF(P82="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O82),IF(OR(P82="System",P82="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W82,IF(P82="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P82="Fuel Tank",IF(X82="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X82="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X82,CHAR(10),"    fuelTankSizeUpgrade = ",Y82),_xlfn.CONCAT("    fuelTankUpgradeType = ",X82))),"")))))))</f>
+        <f>IF(P82="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O82&lt;3,"0_2",IF(O82&lt;5,"3_4",IF(O82&lt;7,"5_6",IF(O82&lt;9,"7_8","9Plus"))))),IF(P82="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U82),IF(P82="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V82,CHAR(10),Parts!AP82,CHAR(10),"    enginePartUpgradeName = ",W82),IF(P82="Parachute","    parachuteUpgradeType = standard",IF(P82="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O82),IF(OR(P82="System",P82="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W82,IF(P82="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P82="Fuel Tank",IF(X82="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X82="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X82,CHAR(10),"    fuelTankSizeUpgrade = ",Y82),_xlfn.CONCAT("    fuelTankUpgradeType = ",X82))),IF(P82="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size79</v>
       </c>
@@ -22968,7 +22937,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>371</v>
       </c>
@@ -23067,7 +23036,7 @@
       </c>
       <c r="AL83" s="14"/>
       <c r="AM83" s="15" t="str">
-        <f>IF(P83="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O83&lt;3,"0_2",IF(O83&lt;5,"3_4",IF(O83&lt;7,"5_6",IF(O83&lt;9,"7_8","9Plus"))))),IF(P83="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U83),IF(P83="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V83,CHAR(10),Parts!AP83,CHAR(10),"    enginePartUpgradeName = ",W83),IF(P83="Parachute","    parachuteUpgradeType = standard",IF(P83="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O83),IF(OR(P83="System",P83="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W83,IF(P83="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P83="Fuel Tank",IF(X83="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X83="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X83,CHAR(10),"    fuelTankSizeUpgrade = ",Y83),_xlfn.CONCAT("    fuelTankUpgradeType = ",X83))),"")))))))</f>
+        <f>IF(P83="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O83&lt;3,"0_2",IF(O83&lt;5,"3_4",IF(O83&lt;7,"5_6",IF(O83&lt;9,"7_8","9Plus"))))),IF(P83="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U83),IF(P83="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V83,CHAR(10),Parts!AP83,CHAR(10),"    enginePartUpgradeName = ",W83),IF(P83="Parachute","    parachuteUpgradeType = standard",IF(P83="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O83),IF(OR(P83="System",P83="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W83,IF(P83="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P83="Fuel Tank",IF(X83="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X83="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X83,CHAR(10),"    fuelTankSizeUpgrade = ",Y83),_xlfn.CONCAT("    fuelTankUpgradeType = ",X83))),IF(P83="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size80</v>
       </c>
@@ -23091,7 +23060,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -23190,7 +23159,7 @@
       </c>
       <c r="AL84" s="14"/>
       <c r="AM84" s="15" t="str">
-        <f>IF(P84="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O84&lt;3,"0_2",IF(O84&lt;5,"3_4",IF(O84&lt;7,"5_6",IF(O84&lt;9,"7_8","9Plus"))))),IF(P84="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U84),IF(P84="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V84,CHAR(10),Parts!AP84,CHAR(10),"    enginePartUpgradeName = ",W84),IF(P84="Parachute","    parachuteUpgradeType = standard",IF(P84="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O84),IF(OR(P84="System",P84="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W84,IF(P84="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P84="Fuel Tank",IF(X84="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X84="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X84,CHAR(10),"    fuelTankSizeUpgrade = ",Y84),_xlfn.CONCAT("    fuelTankUpgradeType = ",X84))),"")))))))</f>
+        <f>IF(P84="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O84&lt;3,"0_2",IF(O84&lt;5,"3_4",IF(O84&lt;7,"5_6",IF(O84&lt;9,"7_8","9Plus"))))),IF(P84="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U84),IF(P84="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V84,CHAR(10),Parts!AP84,CHAR(10),"    enginePartUpgradeName = ",W84),IF(P84="Parachute","    parachuteUpgradeType = standard",IF(P84="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O84),IF(OR(P84="System",P84="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W84,IF(P84="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P84="Fuel Tank",IF(X84="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X84="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X84,CHAR(10),"    fuelTankSizeUpgrade = ",Y84),_xlfn.CONCAT("    fuelTankUpgradeType = ",X84))),IF(P84="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size81</v>
       </c>
@@ -23214,7 +23183,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>371</v>
       </c>
@@ -23313,7 +23282,7 @@
       </c>
       <c r="AL85" s="14"/>
       <c r="AM85" s="15" t="str">
-        <f>IF(P85="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O85&lt;3,"0_2",IF(O85&lt;5,"3_4",IF(O85&lt;7,"5_6",IF(O85&lt;9,"7_8","9Plus"))))),IF(P85="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U85),IF(P85="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V85,CHAR(10),Parts!AP85,CHAR(10),"    enginePartUpgradeName = ",W85),IF(P85="Parachute","    parachuteUpgradeType = standard",IF(P85="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O85),IF(OR(P85="System",P85="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W85,IF(P85="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P85="Fuel Tank",IF(X85="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X85="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X85,CHAR(10),"    fuelTankSizeUpgrade = ",Y85),_xlfn.CONCAT("    fuelTankUpgradeType = ",X85))),"")))))))</f>
+        <f>IF(P85="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O85&lt;3,"0_2",IF(O85&lt;5,"3_4",IF(O85&lt;7,"5_6",IF(O85&lt;9,"7_8","9Plus"))))),IF(P85="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U85),IF(P85="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V85,CHAR(10),Parts!AP85,CHAR(10),"    enginePartUpgradeName = ",W85),IF(P85="Parachute","    parachuteUpgradeType = standard",IF(P85="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O85),IF(OR(P85="System",P85="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W85,IF(P85="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P85="Fuel Tank",IF(X85="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X85="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X85,CHAR(10),"    fuelTankSizeUpgrade = ",Y85),_xlfn.CONCAT("    fuelTankUpgradeType = ",X85))),IF(P85="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size82</v>
       </c>
@@ -23337,7 +23306,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>371</v>
       </c>
@@ -23436,7 +23405,7 @@
       </c>
       <c r="AL86" s="14"/>
       <c r="AM86" s="15" t="str">
-        <f>IF(P86="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O86&lt;3,"0_2",IF(O86&lt;5,"3_4",IF(O86&lt;7,"5_6",IF(O86&lt;9,"7_8","9Plus"))))),IF(P86="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U86),IF(P86="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V86,CHAR(10),Parts!AP86,CHAR(10),"    enginePartUpgradeName = ",W86),IF(P86="Parachute","    parachuteUpgradeType = standard",IF(P86="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O86),IF(OR(P86="System",P86="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W86,IF(P86="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P86="Fuel Tank",IF(X86="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X86="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X86,CHAR(10),"    fuelTankSizeUpgrade = ",Y86),_xlfn.CONCAT("    fuelTankUpgradeType = ",X86))),"")))))))</f>
+        <f>IF(P86="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O86&lt;3,"0_2",IF(O86&lt;5,"3_4",IF(O86&lt;7,"5_6",IF(O86&lt;9,"7_8","9Plus"))))),IF(P86="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U86),IF(P86="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V86,CHAR(10),Parts!AP86,CHAR(10),"    enginePartUpgradeName = ",W86),IF(P86="Parachute","    parachuteUpgradeType = standard",IF(P86="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O86),IF(OR(P86="System",P86="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W86,IF(P86="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P86="Fuel Tank",IF(X86="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X86="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X86,CHAR(10),"    fuelTankSizeUpgrade = ",Y86),_xlfn.CONCAT("    fuelTankUpgradeType = ",X86))),IF(P86="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size83</v>
       </c>
@@ -23460,7 +23429,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>371</v>
       </c>
@@ -23559,7 +23528,7 @@
       </c>
       <c r="AL87" s="14"/>
       <c r="AM87" s="15" t="str">
-        <f>IF(P87="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O87&lt;3,"0_2",IF(O87&lt;5,"3_4",IF(O87&lt;7,"5_6",IF(O87&lt;9,"7_8","9Plus"))))),IF(P87="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U87),IF(P87="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V87,CHAR(10),Parts!AP87,CHAR(10),"    enginePartUpgradeName = ",W87),IF(P87="Parachute","    parachuteUpgradeType = standard",IF(P87="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O87),IF(OR(P87="System",P87="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W87,IF(P87="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P87="Fuel Tank",IF(X87="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X87="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X87,CHAR(10),"    fuelTankSizeUpgrade = ",Y87),_xlfn.CONCAT("    fuelTankUpgradeType = ",X87))),"")))))))</f>
+        <f>IF(P87="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O87&lt;3,"0_2",IF(O87&lt;5,"3_4",IF(O87&lt;7,"5_6",IF(O87&lt;9,"7_8","9Plus"))))),IF(P87="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U87),IF(P87="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V87,CHAR(10),Parts!AP87,CHAR(10),"    enginePartUpgradeName = ",W87),IF(P87="Parachute","    parachuteUpgradeType = standard",IF(P87="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O87),IF(OR(P87="System",P87="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W87,IF(P87="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P87="Fuel Tank",IF(X87="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X87="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X87,CHAR(10),"    fuelTankSizeUpgrade = ",Y87),_xlfn.CONCAT("    fuelTankUpgradeType = ",X87))),IF(P87="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size84</v>
       </c>
@@ -23583,7 +23552,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>371</v>
       </c>
@@ -23682,7 +23651,7 @@
       </c>
       <c r="AL88" s="14"/>
       <c r="AM88" s="15" t="str">
-        <f>IF(P88="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O88&lt;3,"0_2",IF(O88&lt;5,"3_4",IF(O88&lt;7,"5_6",IF(O88&lt;9,"7_8","9Plus"))))),IF(P88="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U88),IF(P88="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V88,CHAR(10),Parts!AP88,CHAR(10),"    enginePartUpgradeName = ",W88),IF(P88="Parachute","    parachuteUpgradeType = standard",IF(P88="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O88),IF(OR(P88="System",P88="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W88,IF(P88="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P88="Fuel Tank",IF(X88="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X88="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X88,CHAR(10),"    fuelTankSizeUpgrade = ",Y88),_xlfn.CONCAT("    fuelTankUpgradeType = ",X88))),"")))))))</f>
+        <f>IF(P88="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O88&lt;3,"0_2",IF(O88&lt;5,"3_4",IF(O88&lt;7,"5_6",IF(O88&lt;9,"7_8","9Plus"))))),IF(P88="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U88),IF(P88="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V88,CHAR(10),Parts!AP88,CHAR(10),"    enginePartUpgradeName = ",W88),IF(P88="Parachute","    parachuteUpgradeType = standard",IF(P88="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O88),IF(OR(P88="System",P88="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W88,IF(P88="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P88="Fuel Tank",IF(X88="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X88="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X88,CHAR(10),"    fuelTankSizeUpgrade = ",Y88),_xlfn.CONCAT("    fuelTankUpgradeType = ",X88))),IF(P88="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size85</v>
       </c>
@@ -23706,7 +23675,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -23805,7 +23774,7 @@
       </c>
       <c r="AL89" s="14"/>
       <c r="AM89" s="15" t="str">
-        <f>IF(P89="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O89&lt;3,"0_2",IF(O89&lt;5,"3_4",IF(O89&lt;7,"5_6",IF(O89&lt;9,"7_8","9Plus"))))),IF(P89="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U89),IF(P89="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V89,CHAR(10),Parts!AP89,CHAR(10),"    enginePartUpgradeName = ",W89),IF(P89="Parachute","    parachuteUpgradeType = standard",IF(P89="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O89),IF(OR(P89="System",P89="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W89,IF(P89="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P89="Fuel Tank",IF(X89="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X89="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X89,CHAR(10),"    fuelTankSizeUpgrade = ",Y89),_xlfn.CONCAT("    fuelTankUpgradeType = ",X89))),"")))))))</f>
+        <f>IF(P89="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O89&lt;3,"0_2",IF(O89&lt;5,"3_4",IF(O89&lt;7,"5_6",IF(O89&lt;9,"7_8","9Plus"))))),IF(P89="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U89),IF(P89="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V89,CHAR(10),Parts!AP89,CHAR(10),"    enginePartUpgradeName = ",W89),IF(P89="Parachute","    parachuteUpgradeType = standard",IF(P89="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O89),IF(OR(P89="System",P89="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W89,IF(P89="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P89="Fuel Tank",IF(X89="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X89="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X89,CHAR(10),"    fuelTankSizeUpgrade = ",Y89),_xlfn.CONCAT("    fuelTankUpgradeType = ",X89))),IF(P89="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size86</v>
       </c>
@@ -23829,7 +23798,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>371</v>
       </c>
@@ -23928,7 +23897,7 @@
       </c>
       <c r="AL90" s="14"/>
       <c r="AM90" s="15" t="str">
-        <f>IF(P90="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O90&lt;3,"0_2",IF(O90&lt;5,"3_4",IF(O90&lt;7,"5_6",IF(O90&lt;9,"7_8","9Plus"))))),IF(P90="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U90),IF(P90="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V90,CHAR(10),Parts!AP90,CHAR(10),"    enginePartUpgradeName = ",W90),IF(P90="Parachute","    parachuteUpgradeType = standard",IF(P90="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O90),IF(OR(P90="System",P90="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W90,IF(P90="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P90="Fuel Tank",IF(X90="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X90="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X90,CHAR(10),"    fuelTankSizeUpgrade = ",Y90),_xlfn.CONCAT("    fuelTankUpgradeType = ",X90))),"")))))))</f>
+        <f>IF(P90="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O90&lt;3,"0_2",IF(O90&lt;5,"3_4",IF(O90&lt;7,"5_6",IF(O90&lt;9,"7_8","9Plus"))))),IF(P90="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U90),IF(P90="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V90,CHAR(10),Parts!AP90,CHAR(10),"    enginePartUpgradeName = ",W90),IF(P90="Parachute","    parachuteUpgradeType = standard",IF(P90="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O90),IF(OR(P90="System",P90="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W90,IF(P90="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P90="Fuel Tank",IF(X90="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X90="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X90,CHAR(10),"    fuelTankSizeUpgrade = ",Y90),_xlfn.CONCAT("    fuelTankUpgradeType = ",X90))),IF(P90="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size87</v>
       </c>
@@ -23952,7 +23921,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>371</v>
       </c>
@@ -24051,7 +24020,7 @@
       </c>
       <c r="AL91" s="14"/>
       <c r="AM91" s="15" t="str">
-        <f>IF(P91="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O91&lt;3,"0_2",IF(O91&lt;5,"3_4",IF(O91&lt;7,"5_6",IF(O91&lt;9,"7_8","9Plus"))))),IF(P91="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U91),IF(P91="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V91,CHAR(10),Parts!AP91,CHAR(10),"    enginePartUpgradeName = ",W91),IF(P91="Parachute","    parachuteUpgradeType = standard",IF(P91="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O91),IF(OR(P91="System",P91="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W91,IF(P91="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P91="Fuel Tank",IF(X91="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X91="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X91,CHAR(10),"    fuelTankSizeUpgrade = ",Y91),_xlfn.CONCAT("    fuelTankUpgradeType = ",X91))),"")))))))</f>
+        <f>IF(P91="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O91&lt;3,"0_2",IF(O91&lt;5,"3_4",IF(O91&lt;7,"5_6",IF(O91&lt;9,"7_8","9Plus"))))),IF(P91="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U91),IF(P91="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V91,CHAR(10),Parts!AP91,CHAR(10),"    enginePartUpgradeName = ",W91),IF(P91="Parachute","    parachuteUpgradeType = standard",IF(P91="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O91),IF(OR(P91="System",P91="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W91,IF(P91="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P91="Fuel Tank",IF(X91="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X91="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X91,CHAR(10),"    fuelTankSizeUpgrade = ",Y91),_xlfn.CONCAT("    fuelTankUpgradeType = ",X91))),IF(P91="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size88</v>
       </c>
@@ -24075,7 +24044,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>371</v>
       </c>
@@ -24174,7 +24143,7 @@
       </c>
       <c r="AL92" s="14"/>
       <c r="AM92" s="15" t="str">
-        <f>IF(P92="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O92&lt;3,"0_2",IF(O92&lt;5,"3_4",IF(O92&lt;7,"5_6",IF(O92&lt;9,"7_8","9Plus"))))),IF(P92="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U92),IF(P92="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V92,CHAR(10),Parts!AP92,CHAR(10),"    enginePartUpgradeName = ",W92),IF(P92="Parachute","    parachuteUpgradeType = standard",IF(P92="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O92),IF(OR(P92="System",P92="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W92,IF(P92="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P92="Fuel Tank",IF(X92="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X92="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X92,CHAR(10),"    fuelTankSizeUpgrade = ",Y92),_xlfn.CONCAT("    fuelTankUpgradeType = ",X92))),"")))))))</f>
+        <f>IF(P92="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O92&lt;3,"0_2",IF(O92&lt;5,"3_4",IF(O92&lt;7,"5_6",IF(O92&lt;9,"7_8","9Plus"))))),IF(P92="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U92),IF(P92="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V92,CHAR(10),Parts!AP92,CHAR(10),"    enginePartUpgradeName = ",W92),IF(P92="Parachute","    parachuteUpgradeType = standard",IF(P92="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O92),IF(OR(P92="System",P92="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W92,IF(P92="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P92="Fuel Tank",IF(X92="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X92="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X92,CHAR(10),"    fuelTankSizeUpgrade = ",Y92),_xlfn.CONCAT("    fuelTankUpgradeType = ",X92))),IF(P92="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size89</v>
       </c>
@@ -24198,7 +24167,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>371</v>
       </c>
@@ -24297,7 +24266,7 @@
       </c>
       <c r="AL93" s="14"/>
       <c r="AM93" s="15" t="str">
-        <f>IF(P93="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O93&lt;3,"0_2",IF(O93&lt;5,"3_4",IF(O93&lt;7,"5_6",IF(O93&lt;9,"7_8","9Plus"))))),IF(P93="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U93),IF(P93="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V93,CHAR(10),Parts!AP93,CHAR(10),"    enginePartUpgradeName = ",W93),IF(P93="Parachute","    parachuteUpgradeType = standard",IF(P93="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O93),IF(OR(P93="System",P93="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W93,IF(P93="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P93="Fuel Tank",IF(X93="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X93="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X93,CHAR(10),"    fuelTankSizeUpgrade = ",Y93),_xlfn.CONCAT("    fuelTankUpgradeType = ",X93))),"")))))))</f>
+        <f>IF(P93="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O93&lt;3,"0_2",IF(O93&lt;5,"3_4",IF(O93&lt;7,"5_6",IF(O93&lt;9,"7_8","9Plus"))))),IF(P93="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U93),IF(P93="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V93,CHAR(10),Parts!AP93,CHAR(10),"    enginePartUpgradeName = ",W93),IF(P93="Parachute","    parachuteUpgradeType = standard",IF(P93="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O93),IF(OR(P93="System",P93="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W93,IF(P93="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P93="Fuel Tank",IF(X93="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X93="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X93,CHAR(10),"    fuelTankSizeUpgrade = ",Y93),_xlfn.CONCAT("    fuelTankUpgradeType = ",X93))),IF(P93="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size90</v>
       </c>
@@ -24321,7 +24290,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>371</v>
       </c>
@@ -24420,7 +24389,7 @@
       </c>
       <c r="AL94" s="14"/>
       <c r="AM94" s="15" t="str">
-        <f>IF(P94="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O94&lt;3,"0_2",IF(O94&lt;5,"3_4",IF(O94&lt;7,"5_6",IF(O94&lt;9,"7_8","9Plus"))))),IF(P94="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U94),IF(P94="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V94,CHAR(10),Parts!AP94,CHAR(10),"    enginePartUpgradeName = ",W94),IF(P94="Parachute","    parachuteUpgradeType = standard",IF(P94="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O94),IF(OR(P94="System",P94="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W94,IF(P94="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P94="Fuel Tank",IF(X94="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X94="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X94,CHAR(10),"    fuelTankSizeUpgrade = ",Y94),_xlfn.CONCAT("    fuelTankUpgradeType = ",X94))),"")))))))</f>
+        <f>IF(P94="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O94&lt;3,"0_2",IF(O94&lt;5,"3_4",IF(O94&lt;7,"5_6",IF(O94&lt;9,"7_8","9Plus"))))),IF(P94="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U94),IF(P94="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V94,CHAR(10),Parts!AP94,CHAR(10),"    enginePartUpgradeName = ",W94),IF(P94="Parachute","    parachuteUpgradeType = standard",IF(P94="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O94),IF(OR(P94="System",P94="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W94,IF(P94="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P94="Fuel Tank",IF(X94="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X94="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X94,CHAR(10),"    fuelTankSizeUpgrade = ",Y94),_xlfn.CONCAT("    fuelTankUpgradeType = ",X94))),IF(P94="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size91</v>
       </c>
@@ -24444,7 +24413,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -24543,7 +24512,7 @@
       </c>
       <c r="AL95" s="14"/>
       <c r="AM95" s="15" t="str">
-        <f>IF(P95="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O95&lt;3,"0_2",IF(O95&lt;5,"3_4",IF(O95&lt;7,"5_6",IF(O95&lt;9,"7_8","9Plus"))))),IF(P95="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U95),IF(P95="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V95,CHAR(10),Parts!AP95,CHAR(10),"    enginePartUpgradeName = ",W95),IF(P95="Parachute","    parachuteUpgradeType = standard",IF(P95="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O95),IF(OR(P95="System",P95="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W95,IF(P95="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P95="Fuel Tank",IF(X95="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X95="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X95,CHAR(10),"    fuelTankSizeUpgrade = ",Y95),_xlfn.CONCAT("    fuelTankUpgradeType = ",X95))),"")))))))</f>
+        <f>IF(P95="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O95&lt;3,"0_2",IF(O95&lt;5,"3_4",IF(O95&lt;7,"5_6",IF(O95&lt;9,"7_8","9Plus"))))),IF(P95="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U95),IF(P95="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V95,CHAR(10),Parts!AP95,CHAR(10),"    enginePartUpgradeName = ",W95),IF(P95="Parachute","    parachuteUpgradeType = standard",IF(P95="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O95),IF(OR(P95="System",P95="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W95,IF(P95="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P95="Fuel Tank",IF(X95="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X95="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X95,CHAR(10),"    fuelTankSizeUpgrade = ",Y95),_xlfn.CONCAT("    fuelTankUpgradeType = ",X95))),IF(P95="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size92</v>
       </c>
@@ -24567,7 +24536,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>371</v>
       </c>
@@ -24666,7 +24635,7 @@
       </c>
       <c r="AL96" s="14"/>
       <c r="AM96" s="15" t="str">
-        <f>IF(P96="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O96&lt;3,"0_2",IF(O96&lt;5,"3_4",IF(O96&lt;7,"5_6",IF(O96&lt;9,"7_8","9Plus"))))),IF(P96="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U96),IF(P96="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V96,CHAR(10),Parts!AP96,CHAR(10),"    enginePartUpgradeName = ",W96),IF(P96="Parachute","    parachuteUpgradeType = standard",IF(P96="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O96),IF(OR(P96="System",P96="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W96,IF(P96="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P96="Fuel Tank",IF(X96="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X96="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X96,CHAR(10),"    fuelTankSizeUpgrade = ",Y96),_xlfn.CONCAT("    fuelTankUpgradeType = ",X96))),"")))))))</f>
+        <f>IF(P96="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O96&lt;3,"0_2",IF(O96&lt;5,"3_4",IF(O96&lt;7,"5_6",IF(O96&lt;9,"7_8","9Plus"))))),IF(P96="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U96),IF(P96="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V96,CHAR(10),Parts!AP96,CHAR(10),"    enginePartUpgradeName = ",W96),IF(P96="Parachute","    parachuteUpgradeType = standard",IF(P96="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O96),IF(OR(P96="System",P96="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W96,IF(P96="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P96="Fuel Tank",IF(X96="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X96="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X96,CHAR(10),"    fuelTankSizeUpgrade = ",Y96),_xlfn.CONCAT("    fuelTankUpgradeType = ",X96))),IF(P96="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size93</v>
       </c>
@@ -24690,7 +24659,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>371</v>
       </c>
@@ -24789,7 +24758,7 @@
       </c>
       <c r="AL97" s="14"/>
       <c r="AM97" s="15" t="str">
-        <f>IF(P97="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O97&lt;3,"0_2",IF(O97&lt;5,"3_4",IF(O97&lt;7,"5_6",IF(O97&lt;9,"7_8","9Plus"))))),IF(P97="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U97),IF(P97="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V97,CHAR(10),Parts!AP97,CHAR(10),"    enginePartUpgradeName = ",W97),IF(P97="Parachute","    parachuteUpgradeType = standard",IF(P97="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O97),IF(OR(P97="System",P97="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W97,IF(P97="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P97="Fuel Tank",IF(X97="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X97="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X97,CHAR(10),"    fuelTankSizeUpgrade = ",Y97),_xlfn.CONCAT("    fuelTankUpgradeType = ",X97))),"")))))))</f>
+        <f>IF(P97="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O97&lt;3,"0_2",IF(O97&lt;5,"3_4",IF(O97&lt;7,"5_6",IF(O97&lt;9,"7_8","9Plus"))))),IF(P97="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U97),IF(P97="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V97,CHAR(10),Parts!AP97,CHAR(10),"    enginePartUpgradeName = ",W97),IF(P97="Parachute","    parachuteUpgradeType = standard",IF(P97="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O97),IF(OR(P97="System",P97="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W97,IF(P97="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P97="Fuel Tank",IF(X97="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X97="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X97,CHAR(10),"    fuelTankSizeUpgrade = ",Y97),_xlfn.CONCAT("    fuelTankUpgradeType = ",X97))),IF(P97="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size94</v>
       </c>
@@ -24813,7 +24782,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>371</v>
       </c>
@@ -24912,7 +24881,7 @@
       </c>
       <c r="AL98" s="14"/>
       <c r="AM98" s="15" t="str">
-        <f>IF(P98="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O98&lt;3,"0_2",IF(O98&lt;5,"3_4",IF(O98&lt;7,"5_6",IF(O98&lt;9,"7_8","9Plus"))))),IF(P98="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U98),IF(P98="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V98,CHAR(10),Parts!AP98,CHAR(10),"    enginePartUpgradeName = ",W98),IF(P98="Parachute","    parachuteUpgradeType = standard",IF(P98="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O98),IF(OR(P98="System",P98="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W98,IF(P98="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P98="Fuel Tank",IF(X98="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X98="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X98,CHAR(10),"    fuelTankSizeUpgrade = ",Y98),_xlfn.CONCAT("    fuelTankUpgradeType = ",X98))),"")))))))</f>
+        <f>IF(P98="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O98&lt;3,"0_2",IF(O98&lt;5,"3_4",IF(O98&lt;7,"5_6",IF(O98&lt;9,"7_8","9Plus"))))),IF(P98="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U98),IF(P98="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V98,CHAR(10),Parts!AP98,CHAR(10),"    enginePartUpgradeName = ",W98),IF(P98="Parachute","    parachuteUpgradeType = standard",IF(P98="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O98),IF(OR(P98="System",P98="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W98,IF(P98="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P98="Fuel Tank",IF(X98="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X98="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X98,CHAR(10),"    fuelTankSizeUpgrade = ",Y98),_xlfn.CONCAT("    fuelTankUpgradeType = ",X98))),IF(P98="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size95</v>
       </c>
@@ -24936,7 +24905,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>371</v>
       </c>
@@ -25035,7 +25004,7 @@
       </c>
       <c r="AL99" s="14"/>
       <c r="AM99" s="15" t="str">
-        <f>IF(P99="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O99&lt;3,"0_2",IF(O99&lt;5,"3_4",IF(O99&lt;7,"5_6",IF(O99&lt;9,"7_8","9Plus"))))),IF(P99="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U99),IF(P99="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V99,CHAR(10),Parts!AP99,CHAR(10),"    enginePartUpgradeName = ",W99),IF(P99="Parachute","    parachuteUpgradeType = standard",IF(P99="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O99),IF(OR(P99="System",P99="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W99,IF(P99="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P99="Fuel Tank",IF(X99="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X99="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X99,CHAR(10),"    fuelTankSizeUpgrade = ",Y99),_xlfn.CONCAT("    fuelTankUpgradeType = ",X99))),"")))))))</f>
+        <f>IF(P99="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O99&lt;3,"0_2",IF(O99&lt;5,"3_4",IF(O99&lt;7,"5_6",IF(O99&lt;9,"7_8","9Plus"))))),IF(P99="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U99),IF(P99="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V99,CHAR(10),Parts!AP99,CHAR(10),"    enginePartUpgradeName = ",W99),IF(P99="Parachute","    parachuteUpgradeType = standard",IF(P99="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O99),IF(OR(P99="System",P99="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W99,IF(P99="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P99="Fuel Tank",IF(X99="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X99="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X99,CHAR(10),"    fuelTankSizeUpgrade = ",Y99),_xlfn.CONCAT("    fuelTankUpgradeType = ",X99))),IF(P99="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size96</v>
       </c>
@@ -25059,7 +25028,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>371</v>
       </c>
@@ -25158,7 +25127,7 @@
       </c>
       <c r="AL100" s="14"/>
       <c r="AM100" s="15" t="str">
-        <f>IF(P100="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O100&lt;3,"0_2",IF(O100&lt;5,"3_4",IF(O100&lt;7,"5_6",IF(O100&lt;9,"7_8","9Plus"))))),IF(P100="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U100),IF(P100="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V100,CHAR(10),Parts!AP100,CHAR(10),"    enginePartUpgradeName = ",W100),IF(P100="Parachute","    parachuteUpgradeType = standard",IF(P100="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O100),IF(OR(P100="System",P100="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W100,IF(P100="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P100="Fuel Tank",IF(X100="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X100="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X100,CHAR(10),"    fuelTankSizeUpgrade = ",Y100),_xlfn.CONCAT("    fuelTankUpgradeType = ",X100))),"")))))))</f>
+        <f>IF(P100="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O100&lt;3,"0_2",IF(O100&lt;5,"3_4",IF(O100&lt;7,"5_6",IF(O100&lt;9,"7_8","9Plus"))))),IF(P100="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U100),IF(P100="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V100,CHAR(10),Parts!AP100,CHAR(10),"    enginePartUpgradeName = ",W100),IF(P100="Parachute","    parachuteUpgradeType = standard",IF(P100="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O100),IF(OR(P100="System",P100="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W100,IF(P100="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P100="Fuel Tank",IF(X100="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X100="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X100,CHAR(10),"    fuelTankSizeUpgrade = ",Y100),_xlfn.CONCAT("    fuelTankUpgradeType = ",X100))),IF(P100="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size97</v>
       </c>
@@ -25182,7 +25151,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>371</v>
       </c>
@@ -25281,7 +25250,7 @@
       </c>
       <c r="AL101" s="14"/>
       <c r="AM101" s="15" t="str">
-        <f>IF(P101="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O101&lt;3,"0_2",IF(O101&lt;5,"3_4",IF(O101&lt;7,"5_6",IF(O101&lt;9,"7_8","9Plus"))))),IF(P101="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U101),IF(P101="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V101,CHAR(10),Parts!AP101,CHAR(10),"    enginePartUpgradeName = ",W101),IF(P101="Parachute","    parachuteUpgradeType = standard",IF(P101="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O101),IF(OR(P101="System",P101="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W101,IF(P101="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P101="Fuel Tank",IF(X101="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X101="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X101,CHAR(10),"    fuelTankSizeUpgrade = ",Y101),_xlfn.CONCAT("    fuelTankUpgradeType = ",X101))),"")))))))</f>
+        <f>IF(P101="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O101&lt;3,"0_2",IF(O101&lt;5,"3_4",IF(O101&lt;7,"5_6",IF(O101&lt;9,"7_8","9Plus"))))),IF(P101="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U101),IF(P101="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V101,CHAR(10),Parts!AP101,CHAR(10),"    enginePartUpgradeName = ",W101),IF(P101="Parachute","    parachuteUpgradeType = standard",IF(P101="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O101),IF(OR(P101="System",P101="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W101,IF(P101="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P101="Fuel Tank",IF(X101="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X101="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X101,CHAR(10),"    fuelTankSizeUpgrade = ",Y101),_xlfn.CONCAT("    fuelTankUpgradeType = ",X101))),IF(P101="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size98</v>
       </c>
@@ -25305,7 +25274,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>371</v>
       </c>
@@ -25404,7 +25373,7 @@
       </c>
       <c r="AL102" s="14"/>
       <c r="AM102" s="15" t="str">
-        <f>IF(P102="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O102&lt;3,"0_2",IF(O102&lt;5,"3_4",IF(O102&lt;7,"5_6",IF(O102&lt;9,"7_8","9Plus"))))),IF(P102="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U102),IF(P102="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V102,CHAR(10),Parts!AP102,CHAR(10),"    enginePartUpgradeName = ",W102),IF(P102="Parachute","    parachuteUpgradeType = standard",IF(P102="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O102),IF(OR(P102="System",P102="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W102,IF(P102="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P102="Fuel Tank",IF(X102="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X102="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X102,CHAR(10),"    fuelTankSizeUpgrade = ",Y102),_xlfn.CONCAT("    fuelTankUpgradeType = ",X102))),"")))))))</f>
+        <f>IF(P102="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O102&lt;3,"0_2",IF(O102&lt;5,"3_4",IF(O102&lt;7,"5_6",IF(O102&lt;9,"7_8","9Plus"))))),IF(P102="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U102),IF(P102="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V102,CHAR(10),Parts!AP102,CHAR(10),"    enginePartUpgradeName = ",W102),IF(P102="Parachute","    parachuteUpgradeType = standard",IF(P102="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O102),IF(OR(P102="System",P102="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W102,IF(P102="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P102="Fuel Tank",IF(X102="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X102="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X102,CHAR(10),"    fuelTankSizeUpgrade = ",Y102),_xlfn.CONCAT("    fuelTankUpgradeType = ",X102))),IF(P102="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size99</v>
       </c>
@@ -25428,7 +25397,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>371</v>
       </c>
@@ -25527,7 +25496,7 @@
       </c>
       <c r="AL103" s="14"/>
       <c r="AM103" s="15" t="str">
-        <f>IF(P103="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O103&lt;3,"0_2",IF(O103&lt;5,"3_4",IF(O103&lt;7,"5_6",IF(O103&lt;9,"7_8","9Plus"))))),IF(P103="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U103),IF(P103="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V103,CHAR(10),Parts!AP103,CHAR(10),"    enginePartUpgradeName = ",W103),IF(P103="Parachute","    parachuteUpgradeType = standard",IF(P103="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O103),IF(OR(P103="System",P103="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W103,IF(P103="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P103="Fuel Tank",IF(X103="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X103="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X103,CHAR(10),"    fuelTankSizeUpgrade = ",Y103),_xlfn.CONCAT("    fuelTankUpgradeType = ",X103))),"")))))))</f>
+        <f>IF(P103="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O103&lt;3,"0_2",IF(O103&lt;5,"3_4",IF(O103&lt;7,"5_6",IF(O103&lt;9,"7_8","9Plus"))))),IF(P103="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U103),IF(P103="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V103,CHAR(10),Parts!AP103,CHAR(10),"    enginePartUpgradeName = ",W103),IF(P103="Parachute","    parachuteUpgradeType = standard",IF(P103="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O103),IF(OR(P103="System",P103="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W103,IF(P103="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P103="Fuel Tank",IF(X103="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X103="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X103,CHAR(10),"    fuelTankSizeUpgrade = ",Y103),_xlfn.CONCAT("    fuelTankUpgradeType = ",X103))),IF(P103="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size100</v>
       </c>
@@ -25551,7 +25520,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>371</v>
       </c>
@@ -25650,7 +25619,7 @@
       </c>
       <c r="AL104" s="14"/>
       <c r="AM104" s="15" t="str">
-        <f>IF(P104="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O104&lt;3,"0_2",IF(O104&lt;5,"3_4",IF(O104&lt;7,"5_6",IF(O104&lt;9,"7_8","9Plus"))))),IF(P104="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U104),IF(P104="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V104,CHAR(10),Parts!AP104,CHAR(10),"    enginePartUpgradeName = ",W104),IF(P104="Parachute","    parachuteUpgradeType = standard",IF(P104="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O104),IF(OR(P104="System",P104="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W104,IF(P104="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P104="Fuel Tank",IF(X104="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X104="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X104,CHAR(10),"    fuelTankSizeUpgrade = ",Y104),_xlfn.CONCAT("    fuelTankUpgradeType = ",X104))),"")))))))</f>
+        <f>IF(P104="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O104&lt;3,"0_2",IF(O104&lt;5,"3_4",IF(O104&lt;7,"5_6",IF(O104&lt;9,"7_8","9Plus"))))),IF(P104="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U104),IF(P104="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V104,CHAR(10),Parts!AP104,CHAR(10),"    enginePartUpgradeName = ",W104),IF(P104="Parachute","    parachuteUpgradeType = standard",IF(P104="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O104),IF(OR(P104="System",P104="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W104,IF(P104="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P104="Fuel Tank",IF(X104="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X104="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X104,CHAR(10),"    fuelTankSizeUpgrade = ",Y104),_xlfn.CONCAT("    fuelTankUpgradeType = ",X104))),IF(P104="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size101</v>
       </c>
@@ -25674,7 +25643,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>371</v>
       </c>
@@ -25773,7 +25742,7 @@
       </c>
       <c r="AL105" s="14"/>
       <c r="AM105" s="15" t="str">
-        <f>IF(P105="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O105&lt;3,"0_2",IF(O105&lt;5,"3_4",IF(O105&lt;7,"5_6",IF(O105&lt;9,"7_8","9Plus"))))),IF(P105="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U105),IF(P105="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V105,CHAR(10),Parts!AP105,CHAR(10),"    enginePartUpgradeName = ",W105),IF(P105="Parachute","    parachuteUpgradeType = standard",IF(P105="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O105),IF(OR(P105="System",P105="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W105,IF(P105="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P105="Fuel Tank",IF(X105="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X105="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X105,CHAR(10),"    fuelTankSizeUpgrade = ",Y105),_xlfn.CONCAT("    fuelTankUpgradeType = ",X105))),"")))))))</f>
+        <f>IF(P105="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O105&lt;3,"0_2",IF(O105&lt;5,"3_4",IF(O105&lt;7,"5_6",IF(O105&lt;9,"7_8","9Plus"))))),IF(P105="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U105),IF(P105="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V105,CHAR(10),Parts!AP105,CHAR(10),"    enginePartUpgradeName = ",W105),IF(P105="Parachute","    parachuteUpgradeType = standard",IF(P105="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O105),IF(OR(P105="System",P105="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W105,IF(P105="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P105="Fuel Tank",IF(X105="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X105="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X105,CHAR(10),"    fuelTankSizeUpgrade = ",Y105),_xlfn.CONCAT("    fuelTankUpgradeType = ",X105))),IF(P105="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size102</v>
       </c>
@@ -25797,7 +25766,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>371</v>
       </c>
@@ -25896,7 +25865,7 @@
       </c>
       <c r="AL106" s="14"/>
       <c r="AM106" s="15" t="str">
-        <f>IF(P106="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O106&lt;3,"0_2",IF(O106&lt;5,"3_4",IF(O106&lt;7,"5_6",IF(O106&lt;9,"7_8","9Plus"))))),IF(P106="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U106),IF(P106="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V106,CHAR(10),Parts!AP106,CHAR(10),"    enginePartUpgradeName = ",W106),IF(P106="Parachute","    parachuteUpgradeType = standard",IF(P106="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O106),IF(OR(P106="System",P106="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W106,IF(P106="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P106="Fuel Tank",IF(X106="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X106="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X106,CHAR(10),"    fuelTankSizeUpgrade = ",Y106),_xlfn.CONCAT("    fuelTankUpgradeType = ",X106))),"")))))))</f>
+        <f>IF(P106="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O106&lt;3,"0_2",IF(O106&lt;5,"3_4",IF(O106&lt;7,"5_6",IF(O106&lt;9,"7_8","9Plus"))))),IF(P106="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U106),IF(P106="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V106,CHAR(10),Parts!AP106,CHAR(10),"    enginePartUpgradeName = ",W106),IF(P106="Parachute","    parachuteUpgradeType = standard",IF(P106="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O106),IF(OR(P106="System",P106="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W106,IF(P106="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P106="Fuel Tank",IF(X106="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X106="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X106,CHAR(10),"    fuelTankSizeUpgrade = ",Y106),_xlfn.CONCAT("    fuelTankUpgradeType = ",X106))),IF(P106="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size103</v>
       </c>
@@ -25920,7 +25889,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>371</v>
       </c>
@@ -26019,7 +25988,7 @@
       </c>
       <c r="AL107" s="14"/>
       <c r="AM107" s="15" t="str">
-        <f>IF(P107="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O107&lt;3,"0_2",IF(O107&lt;5,"3_4",IF(O107&lt;7,"5_6",IF(O107&lt;9,"7_8","9Plus"))))),IF(P107="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U107),IF(P107="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V107,CHAR(10),Parts!AP107,CHAR(10),"    enginePartUpgradeName = ",W107),IF(P107="Parachute","    parachuteUpgradeType = standard",IF(P107="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O107),IF(OR(P107="System",P107="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W107,IF(P107="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P107="Fuel Tank",IF(X107="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X107="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X107,CHAR(10),"    fuelTankSizeUpgrade = ",Y107),_xlfn.CONCAT("    fuelTankUpgradeType = ",X107))),"")))))))</f>
+        <f>IF(P107="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O107&lt;3,"0_2",IF(O107&lt;5,"3_4",IF(O107&lt;7,"5_6",IF(O107&lt;9,"7_8","9Plus"))))),IF(P107="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U107),IF(P107="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V107,CHAR(10),Parts!AP107,CHAR(10),"    enginePartUpgradeName = ",W107),IF(P107="Parachute","    parachuteUpgradeType = standard",IF(P107="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O107),IF(OR(P107="System",P107="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W107,IF(P107="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P107="Fuel Tank",IF(X107="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X107="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X107,CHAR(10),"    fuelTankSizeUpgrade = ",Y107),_xlfn.CONCAT("    fuelTankUpgradeType = ",X107))),IF(P107="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size104</v>
       </c>
@@ -26043,7 +26012,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>371</v>
       </c>
@@ -26142,7 +26111,7 @@
       </c>
       <c r="AL108" s="14"/>
       <c r="AM108" s="15" t="str">
-        <f>IF(P108="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O108&lt;3,"0_2",IF(O108&lt;5,"3_4",IF(O108&lt;7,"5_6",IF(O108&lt;9,"7_8","9Plus"))))),IF(P108="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U108),IF(P108="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V108,CHAR(10),Parts!AP108,CHAR(10),"    enginePartUpgradeName = ",W108),IF(P108="Parachute","    parachuteUpgradeType = standard",IF(P108="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O108),IF(OR(P108="System",P108="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W108,IF(P108="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P108="Fuel Tank",IF(X108="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X108="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X108,CHAR(10),"    fuelTankSizeUpgrade = ",Y108),_xlfn.CONCAT("    fuelTankUpgradeType = ",X108))),"")))))))</f>
+        <f>IF(P108="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O108&lt;3,"0_2",IF(O108&lt;5,"3_4",IF(O108&lt;7,"5_6",IF(O108&lt;9,"7_8","9Plus"))))),IF(P108="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U108),IF(P108="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V108,CHAR(10),Parts!AP108,CHAR(10),"    enginePartUpgradeName = ",W108),IF(P108="Parachute","    parachuteUpgradeType = standard",IF(P108="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O108),IF(OR(P108="System",P108="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W108,IF(P108="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P108="Fuel Tank",IF(X108="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X108="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X108,CHAR(10),"    fuelTankSizeUpgrade = ",Y108),_xlfn.CONCAT("    fuelTankUpgradeType = ",X108))),IF(P108="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size105</v>
       </c>
@@ -26166,7 +26135,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>371</v>
       </c>
@@ -26265,7 +26234,7 @@
       </c>
       <c r="AL109" s="14"/>
       <c r="AM109" s="15" t="str">
-        <f>IF(P109="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O109&lt;3,"0_2",IF(O109&lt;5,"3_4",IF(O109&lt;7,"5_6",IF(O109&lt;9,"7_8","9Plus"))))),IF(P109="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U109),IF(P109="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V109,CHAR(10),Parts!AP109,CHAR(10),"    enginePartUpgradeName = ",W109),IF(P109="Parachute","    parachuteUpgradeType = standard",IF(P109="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O109),IF(OR(P109="System",P109="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W109,IF(P109="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P109="Fuel Tank",IF(X109="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X109="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X109,CHAR(10),"    fuelTankSizeUpgrade = ",Y109),_xlfn.CONCAT("    fuelTankUpgradeType = ",X109))),"")))))))</f>
+        <f>IF(P109="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O109&lt;3,"0_2",IF(O109&lt;5,"3_4",IF(O109&lt;7,"5_6",IF(O109&lt;9,"7_8","9Plus"))))),IF(P109="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U109),IF(P109="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V109,CHAR(10),Parts!AP109,CHAR(10),"    enginePartUpgradeName = ",W109),IF(P109="Parachute","    parachuteUpgradeType = standard",IF(P109="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O109),IF(OR(P109="System",P109="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W109,IF(P109="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P109="Fuel Tank",IF(X109="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X109="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X109,CHAR(10),"    fuelTankSizeUpgrade = ",Y109),_xlfn.CONCAT("    fuelTankUpgradeType = ",X109))),IF(P109="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size106</v>
       </c>
@@ -26289,7 +26258,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>371</v>
       </c>
@@ -26388,7 +26357,7 @@
       </c>
       <c r="AL110" s="14"/>
       <c r="AM110" s="15" t="str">
-        <f>IF(P110="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O110&lt;3,"0_2",IF(O110&lt;5,"3_4",IF(O110&lt;7,"5_6",IF(O110&lt;9,"7_8","9Plus"))))),IF(P110="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U110),IF(P110="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V110,CHAR(10),Parts!AP110,CHAR(10),"    enginePartUpgradeName = ",W110),IF(P110="Parachute","    parachuteUpgradeType = standard",IF(P110="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O110),IF(OR(P110="System",P110="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W110,IF(P110="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P110="Fuel Tank",IF(X110="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X110="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X110,CHAR(10),"    fuelTankSizeUpgrade = ",Y110),_xlfn.CONCAT("    fuelTankUpgradeType = ",X110))),"")))))))</f>
+        <f>IF(P110="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O110&lt;3,"0_2",IF(O110&lt;5,"3_4",IF(O110&lt;7,"5_6",IF(O110&lt;9,"7_8","9Plus"))))),IF(P110="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U110),IF(P110="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V110,CHAR(10),Parts!AP110,CHAR(10),"    enginePartUpgradeName = ",W110),IF(P110="Parachute","    parachuteUpgradeType = standard",IF(P110="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O110),IF(OR(P110="System",P110="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W110,IF(P110="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P110="Fuel Tank",IF(X110="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X110="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X110,CHAR(10),"    fuelTankSizeUpgrade = ",Y110),_xlfn.CONCAT("    fuelTankUpgradeType = ",X110))),IF(P110="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size107</v>
       </c>
@@ -26412,7 +26381,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>371</v>
       </c>
@@ -26511,7 +26480,7 @@
       </c>
       <c r="AL111" s="14"/>
       <c r="AM111" s="15" t="str">
-        <f>IF(P111="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O111&lt;3,"0_2",IF(O111&lt;5,"3_4",IF(O111&lt;7,"5_6",IF(O111&lt;9,"7_8","9Plus"))))),IF(P111="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U111),IF(P111="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V111,CHAR(10),Parts!AP111,CHAR(10),"    enginePartUpgradeName = ",W111),IF(P111="Parachute","    parachuteUpgradeType = standard",IF(P111="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O111),IF(OR(P111="System",P111="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W111,IF(P111="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P111="Fuel Tank",IF(X111="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X111="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X111,CHAR(10),"    fuelTankSizeUpgrade = ",Y111),_xlfn.CONCAT("    fuelTankUpgradeType = ",X111))),"")))))))</f>
+        <f>IF(P111="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O111&lt;3,"0_2",IF(O111&lt;5,"3_4",IF(O111&lt;7,"5_6",IF(O111&lt;9,"7_8","9Plus"))))),IF(P111="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U111),IF(P111="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V111,CHAR(10),Parts!AP111,CHAR(10),"    enginePartUpgradeName = ",W111),IF(P111="Parachute","    parachuteUpgradeType = standard",IF(P111="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O111),IF(OR(P111="System",P111="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W111,IF(P111="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P111="Fuel Tank",IF(X111="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X111="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X111,CHAR(10),"    fuelTankSizeUpgrade = ",Y111),_xlfn.CONCAT("    fuelTankUpgradeType = ",X111))),IF(P111="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size108</v>
       </c>
@@ -26535,7 +26504,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>371</v>
       </c>
@@ -26634,7 +26603,7 @@
       </c>
       <c r="AL112" s="14"/>
       <c r="AM112" s="15" t="str">
-        <f>IF(P112="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O112&lt;3,"0_2",IF(O112&lt;5,"3_4",IF(O112&lt;7,"5_6",IF(O112&lt;9,"7_8","9Plus"))))),IF(P112="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U112),IF(P112="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V112,CHAR(10),Parts!AP112,CHAR(10),"    enginePartUpgradeName = ",W112),IF(P112="Parachute","    parachuteUpgradeType = standard",IF(P112="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O112),IF(OR(P112="System",P112="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W112,IF(P112="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P112="Fuel Tank",IF(X112="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X112="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X112,CHAR(10),"    fuelTankSizeUpgrade = ",Y112),_xlfn.CONCAT("    fuelTankUpgradeType = ",X112))),"")))))))</f>
+        <f>IF(P112="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O112&lt;3,"0_2",IF(O112&lt;5,"3_4",IF(O112&lt;7,"5_6",IF(O112&lt;9,"7_8","9Plus"))))),IF(P112="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U112),IF(P112="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V112,CHAR(10),Parts!AP112,CHAR(10),"    enginePartUpgradeName = ",W112),IF(P112="Parachute","    parachuteUpgradeType = standard",IF(P112="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O112),IF(OR(P112="System",P112="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W112,IF(P112="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P112="Fuel Tank",IF(X112="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X112="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X112,CHAR(10),"    fuelTankSizeUpgrade = ",Y112),_xlfn.CONCAT("    fuelTankUpgradeType = ",X112))),IF(P112="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size109</v>
       </c>
@@ -26658,7 +26627,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>371</v>
       </c>
@@ -26757,7 +26726,7 @@
       </c>
       <c r="AL113" s="14"/>
       <c r="AM113" s="15" t="str">
-        <f>IF(P113="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O113&lt;3,"0_2",IF(O113&lt;5,"3_4",IF(O113&lt;7,"5_6",IF(O113&lt;9,"7_8","9Plus"))))),IF(P113="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U113),IF(P113="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V113,CHAR(10),Parts!AP113,CHAR(10),"    enginePartUpgradeName = ",W113),IF(P113="Parachute","    parachuteUpgradeType = standard",IF(P113="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O113),IF(OR(P113="System",P113="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W113,IF(P113="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P113="Fuel Tank",IF(X113="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X113="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X113,CHAR(10),"    fuelTankSizeUpgrade = ",Y113),_xlfn.CONCAT("    fuelTankUpgradeType = ",X113))),"")))))))</f>
+        <f>IF(P113="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O113&lt;3,"0_2",IF(O113&lt;5,"3_4",IF(O113&lt;7,"5_6",IF(O113&lt;9,"7_8","9Plus"))))),IF(P113="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U113),IF(P113="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V113,CHAR(10),Parts!AP113,CHAR(10),"    enginePartUpgradeName = ",W113),IF(P113="Parachute","    parachuteUpgradeType = standard",IF(P113="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O113),IF(OR(P113="System",P113="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W113,IF(P113="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P113="Fuel Tank",IF(X113="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X113="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X113,CHAR(10),"    fuelTankSizeUpgrade = ",Y113),_xlfn.CONCAT("    fuelTankUpgradeType = ",X113))),IF(P113="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size110</v>
       </c>
@@ -26781,7 +26750,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>371</v>
       </c>
@@ -26880,7 +26849,7 @@
       </c>
       <c r="AL114" s="14"/>
       <c r="AM114" s="15" t="str">
-        <f>IF(P114="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O114&lt;3,"0_2",IF(O114&lt;5,"3_4",IF(O114&lt;7,"5_6",IF(O114&lt;9,"7_8","9Plus"))))),IF(P114="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U114),IF(P114="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V114,CHAR(10),Parts!AP114,CHAR(10),"    enginePartUpgradeName = ",W114),IF(P114="Parachute","    parachuteUpgradeType = standard",IF(P114="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O114),IF(OR(P114="System",P114="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W114,IF(P114="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P114="Fuel Tank",IF(X114="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X114="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X114,CHAR(10),"    fuelTankSizeUpgrade = ",Y114),_xlfn.CONCAT("    fuelTankUpgradeType = ",X114))),"")))))))</f>
+        <f>IF(P114="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O114&lt;3,"0_2",IF(O114&lt;5,"3_4",IF(O114&lt;7,"5_6",IF(O114&lt;9,"7_8","9Plus"))))),IF(P114="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U114),IF(P114="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V114,CHAR(10),Parts!AP114,CHAR(10),"    enginePartUpgradeName = ",W114),IF(P114="Parachute","    parachuteUpgradeType = standard",IF(P114="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O114),IF(OR(P114="System",P114="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W114,IF(P114="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P114="Fuel Tank",IF(X114="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X114="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X114,CHAR(10),"    fuelTankSizeUpgrade = ",Y114),_xlfn.CONCAT("    fuelTankUpgradeType = ",X114))),IF(P114="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size111</v>
       </c>
@@ -26904,7 +26873,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>371</v>
       </c>
@@ -27003,7 +26972,7 @@
       </c>
       <c r="AL115" s="14"/>
       <c r="AM115" s="15" t="str">
-        <f>IF(P115="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O115&lt;3,"0_2",IF(O115&lt;5,"3_4",IF(O115&lt;7,"5_6",IF(O115&lt;9,"7_8","9Plus"))))),IF(P115="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U115),IF(P115="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V115,CHAR(10),Parts!AP115,CHAR(10),"    enginePartUpgradeName = ",W115),IF(P115="Parachute","    parachuteUpgradeType = standard",IF(P115="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O115),IF(OR(P115="System",P115="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W115,IF(P115="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P115="Fuel Tank",IF(X115="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X115="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X115,CHAR(10),"    fuelTankSizeUpgrade = ",Y115),_xlfn.CONCAT("    fuelTankUpgradeType = ",X115))),"")))))))</f>
+        <f>IF(P115="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O115&lt;3,"0_2",IF(O115&lt;5,"3_4",IF(O115&lt;7,"5_6",IF(O115&lt;9,"7_8","9Plus"))))),IF(P115="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U115),IF(P115="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V115,CHAR(10),Parts!AP115,CHAR(10),"    enginePartUpgradeName = ",W115),IF(P115="Parachute","    parachuteUpgradeType = standard",IF(P115="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O115),IF(OR(P115="System",P115="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W115,IF(P115="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P115="Fuel Tank",IF(X115="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X115="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X115,CHAR(10),"    fuelTankSizeUpgrade = ",Y115),_xlfn.CONCAT("    fuelTankUpgradeType = ",X115))),IF(P115="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size112</v>
       </c>
@@ -27027,7 +26996,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>371</v>
       </c>
@@ -27126,7 +27095,7 @@
       </c>
       <c r="AL116" s="14"/>
       <c r="AM116" s="15" t="str">
-        <f>IF(P116="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O116&lt;3,"0_2",IF(O116&lt;5,"3_4",IF(O116&lt;7,"5_6",IF(O116&lt;9,"7_8","9Plus"))))),IF(P116="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U116),IF(P116="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V116,CHAR(10),Parts!AP116,CHAR(10),"    enginePartUpgradeName = ",W116),IF(P116="Parachute","    parachuteUpgradeType = standard",IF(P116="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O116),IF(OR(P116="System",P116="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W116,IF(P116="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P116="Fuel Tank",IF(X116="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X116="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X116,CHAR(10),"    fuelTankSizeUpgrade = ",Y116),_xlfn.CONCAT("    fuelTankUpgradeType = ",X116))),"")))))))</f>
+        <f>IF(P116="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O116&lt;3,"0_2",IF(O116&lt;5,"3_4",IF(O116&lt;7,"5_6",IF(O116&lt;9,"7_8","9Plus"))))),IF(P116="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U116),IF(P116="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V116,CHAR(10),Parts!AP116,CHAR(10),"    enginePartUpgradeName = ",W116),IF(P116="Parachute","    parachuteUpgradeType = standard",IF(P116="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O116),IF(OR(P116="System",P116="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W116,IF(P116="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P116="Fuel Tank",IF(X116="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X116="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X116,CHAR(10),"    fuelTankSizeUpgrade = ",Y116),_xlfn.CONCAT("    fuelTankUpgradeType = ",X116))),IF(P116="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size113</v>
       </c>
@@ -27150,7 +27119,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>371</v>
       </c>
@@ -27249,7 +27218,7 @@
       </c>
       <c r="AL117" s="14"/>
       <c r="AM117" s="15" t="str">
-        <f>IF(P117="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O117&lt;3,"0_2",IF(O117&lt;5,"3_4",IF(O117&lt;7,"5_6",IF(O117&lt;9,"7_8","9Plus"))))),IF(P117="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U117),IF(P117="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V117,CHAR(10),Parts!AP117,CHAR(10),"    enginePartUpgradeName = ",W117),IF(P117="Parachute","    parachuteUpgradeType = standard",IF(P117="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O117),IF(OR(P117="System",P117="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W117,IF(P117="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P117="Fuel Tank",IF(X117="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X117="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X117,CHAR(10),"    fuelTankSizeUpgrade = ",Y117),_xlfn.CONCAT("    fuelTankUpgradeType = ",X117))),"")))))))</f>
+        <f>IF(P117="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O117&lt;3,"0_2",IF(O117&lt;5,"3_4",IF(O117&lt;7,"5_6",IF(O117&lt;9,"7_8","9Plus"))))),IF(P117="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U117),IF(P117="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V117,CHAR(10),Parts!AP117,CHAR(10),"    enginePartUpgradeName = ",W117),IF(P117="Parachute","    parachuteUpgradeType = standard",IF(P117="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O117),IF(OR(P117="System",P117="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W117,IF(P117="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P117="Fuel Tank",IF(X117="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X117="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X117,CHAR(10),"    fuelTankSizeUpgrade = ",Y117),_xlfn.CONCAT("    fuelTankUpgradeType = ",X117))),IF(P117="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size114</v>
       </c>
@@ -27273,7 +27242,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>371</v>
       </c>
@@ -27372,7 +27341,7 @@
       </c>
       <c r="AL118" s="14"/>
       <c r="AM118" s="15" t="str">
-        <f>IF(P118="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O118&lt;3,"0_2",IF(O118&lt;5,"3_4",IF(O118&lt;7,"5_6",IF(O118&lt;9,"7_8","9Plus"))))),IF(P118="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U118),IF(P118="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V118,CHAR(10),Parts!AP118,CHAR(10),"    enginePartUpgradeName = ",W118),IF(P118="Parachute","    parachuteUpgradeType = standard",IF(P118="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O118),IF(OR(P118="System",P118="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W118,IF(P118="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P118="Fuel Tank",IF(X118="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X118="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X118,CHAR(10),"    fuelTankSizeUpgrade = ",Y118),_xlfn.CONCAT("    fuelTankUpgradeType = ",X118))),"")))))))</f>
+        <f>IF(P118="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O118&lt;3,"0_2",IF(O118&lt;5,"3_4",IF(O118&lt;7,"5_6",IF(O118&lt;9,"7_8","9Plus"))))),IF(P118="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U118),IF(P118="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V118,CHAR(10),Parts!AP118,CHAR(10),"    enginePartUpgradeName = ",W118),IF(P118="Parachute","    parachuteUpgradeType = standard",IF(P118="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O118),IF(OR(P118="System",P118="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W118,IF(P118="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P118="Fuel Tank",IF(X118="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X118="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X118,CHAR(10),"    fuelTankSizeUpgrade = ",Y118),_xlfn.CONCAT("    fuelTankUpgradeType = ",X118))),IF(P118="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size115</v>
       </c>
@@ -27396,7 +27365,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -27492,7 +27461,7 @@
       </c>
       <c r="AL119" s="14"/>
       <c r="AM119" s="15" t="str">
-        <f>IF(P119="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O119&lt;3,"0_2",IF(O119&lt;5,"3_4",IF(O119&lt;7,"5_6",IF(O119&lt;9,"7_8","9Plus"))))),IF(P119="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U119),IF(P119="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V119,CHAR(10),Parts!AP119,CHAR(10),"    enginePartUpgradeName = ",W119),IF(P119="Parachute","    parachuteUpgradeType = standard",IF(P119="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O119),IF(OR(P119="System",P119="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W119,IF(P119="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P119="Fuel Tank",IF(X119="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X119="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X119,CHAR(10),"    fuelTankSizeUpgrade = ",Y119),_xlfn.CONCAT("    fuelTankUpgradeType = ",X119))),"")))))))</f>
+        <f>IF(P119="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O119&lt;3,"0_2",IF(O119&lt;5,"3_4",IF(O119&lt;7,"5_6",IF(O119&lt;9,"7_8","9Plus"))))),IF(P119="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U119),IF(P119="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V119,CHAR(10),Parts!AP119,CHAR(10),"    enginePartUpgradeName = ",W119),IF(P119="Parachute","    parachuteUpgradeType = standard",IF(P119="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O119),IF(OR(P119="System",P119="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W119,IF(P119="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P119="Fuel Tank",IF(X119="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X119="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X119,CHAR(10),"    fuelTankSizeUpgrade = ",Y119),_xlfn.CONCAT("    fuelTankUpgradeType = ",X119))),IF(P119="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size116</v>
       </c>
@@ -27516,7 +27485,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>371</v>
       </c>
@@ -27612,7 +27581,7 @@
       </c>
       <c r="AL120" s="14"/>
       <c r="AM120" s="15" t="str">
-        <f>IF(P120="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O120&lt;3,"0_2",IF(O120&lt;5,"3_4",IF(O120&lt;7,"5_6",IF(O120&lt;9,"7_8","9Plus"))))),IF(P120="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U120),IF(P120="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V120,CHAR(10),Parts!AP120,CHAR(10),"    enginePartUpgradeName = ",W120),IF(P120="Parachute","    parachuteUpgradeType = standard",IF(P120="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O120),IF(OR(P120="System",P120="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W120,IF(P120="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P120="Fuel Tank",IF(X120="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X120="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X120,CHAR(10),"    fuelTankSizeUpgrade = ",Y120),_xlfn.CONCAT("    fuelTankUpgradeType = ",X120))),"")))))))</f>
+        <f>IF(P120="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O120&lt;3,"0_2",IF(O120&lt;5,"3_4",IF(O120&lt;7,"5_6",IF(O120&lt;9,"7_8","9Plus"))))),IF(P120="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U120),IF(P120="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V120,CHAR(10),Parts!AP120,CHAR(10),"    enginePartUpgradeName = ",W120),IF(P120="Parachute","    parachuteUpgradeType = standard",IF(P120="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O120),IF(OR(P120="System",P120="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W120,IF(P120="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P120="Fuel Tank",IF(X120="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X120="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X120,CHAR(10),"    fuelTankSizeUpgrade = ",Y120),_xlfn.CONCAT("    fuelTankUpgradeType = ",X120))),IF(P120="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size117</v>
       </c>
@@ -27636,7 +27605,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>371</v>
       </c>
@@ -27732,7 +27701,7 @@
       </c>
       <c r="AL121" s="14"/>
       <c r="AM121" s="15" t="str">
-        <f>IF(P121="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O121&lt;3,"0_2",IF(O121&lt;5,"3_4",IF(O121&lt;7,"5_6",IF(O121&lt;9,"7_8","9Plus"))))),IF(P121="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U121),IF(P121="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V121,CHAR(10),Parts!AP121,CHAR(10),"    enginePartUpgradeName = ",W121),IF(P121="Parachute","    parachuteUpgradeType = standard",IF(P121="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O121),IF(OR(P121="System",P121="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W121,IF(P121="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P121="Fuel Tank",IF(X121="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X121="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X121,CHAR(10),"    fuelTankSizeUpgrade = ",Y121),_xlfn.CONCAT("    fuelTankUpgradeType = ",X121))),"")))))))</f>
+        <f>IF(P121="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O121&lt;3,"0_2",IF(O121&lt;5,"3_4",IF(O121&lt;7,"5_6",IF(O121&lt;9,"7_8","9Plus"))))),IF(P121="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U121),IF(P121="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V121,CHAR(10),Parts!AP121,CHAR(10),"    enginePartUpgradeName = ",W121),IF(P121="Parachute","    parachuteUpgradeType = standard",IF(P121="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O121),IF(OR(P121="System",P121="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W121,IF(P121="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P121="Fuel Tank",IF(X121="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X121="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X121,CHAR(10),"    fuelTankSizeUpgrade = ",Y121),_xlfn.CONCAT("    fuelTankUpgradeType = ",X121))),IF(P121="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size118</v>
       </c>
@@ -27756,7 +27725,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>371</v>
       </c>
@@ -27855,7 +27824,7 @@
       </c>
       <c r="AL122" s="14"/>
       <c r="AM122" s="15" t="str">
-        <f>IF(P122="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O122&lt;3,"0_2",IF(O122&lt;5,"3_4",IF(O122&lt;7,"5_6",IF(O122&lt;9,"7_8","9Plus"))))),IF(P122="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U122),IF(P122="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V122,CHAR(10),Parts!AP122,CHAR(10),"    enginePartUpgradeName = ",W122),IF(P122="Parachute","    parachuteUpgradeType = standard",IF(P122="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O122),IF(OR(P122="System",P122="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W122,IF(P122="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P122="Fuel Tank",IF(X122="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X122="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X122,CHAR(10),"    fuelTankSizeUpgrade = ",Y122),_xlfn.CONCAT("    fuelTankUpgradeType = ",X122))),"")))))))</f>
+        <f>IF(P122="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O122&lt;3,"0_2",IF(O122&lt;5,"3_4",IF(O122&lt;7,"5_6",IF(O122&lt;9,"7_8","9Plus"))))),IF(P122="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U122),IF(P122="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V122,CHAR(10),Parts!AP122,CHAR(10),"    enginePartUpgradeName = ",W122),IF(P122="Parachute","    parachuteUpgradeType = standard",IF(P122="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O122),IF(OR(P122="System",P122="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W122,IF(P122="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P122="Fuel Tank",IF(X122="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X122="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X122,CHAR(10),"    fuelTankSizeUpgrade = ",Y122),_xlfn.CONCAT("    fuelTankUpgradeType = ",X122))),IF(P122="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size119</v>
       </c>
@@ -27879,7 +27848,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>371</v>
       </c>
@@ -27975,7 +27944,7 @@
       </c>
       <c r="AL123" s="14"/>
       <c r="AM123" s="15" t="str">
-        <f>IF(P123="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O123&lt;3,"0_2",IF(O123&lt;5,"3_4",IF(O123&lt;7,"5_6",IF(O123&lt;9,"7_8","9Plus"))))),IF(P123="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U123),IF(P123="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V123,CHAR(10),Parts!AP123,CHAR(10),"    enginePartUpgradeName = ",W123),IF(P123="Parachute","    parachuteUpgradeType = standard",IF(P123="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O123),IF(OR(P123="System",P123="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W123,IF(P123="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P123="Fuel Tank",IF(X123="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X123="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X123,CHAR(10),"    fuelTankSizeUpgrade = ",Y123),_xlfn.CONCAT("    fuelTankUpgradeType = ",X123))),"")))))))</f>
+        <f>IF(P123="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O123&lt;3,"0_2",IF(O123&lt;5,"3_4",IF(O123&lt;7,"5_6",IF(O123&lt;9,"7_8","9Plus"))))),IF(P123="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U123),IF(P123="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V123,CHAR(10),Parts!AP123,CHAR(10),"    enginePartUpgradeName = ",W123),IF(P123="Parachute","    parachuteUpgradeType = standard",IF(P123="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O123),IF(OR(P123="System",P123="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W123,IF(P123="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P123="Fuel Tank",IF(X123="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X123="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X123,CHAR(10),"    fuelTankSizeUpgrade = ",Y123),_xlfn.CONCAT("    fuelTankUpgradeType = ",X123))),IF(P123="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size120</v>
       </c>
@@ -27999,7 +27968,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>371</v>
       </c>
@@ -28095,7 +28064,7 @@
       </c>
       <c r="AL124" s="14"/>
       <c r="AM124" s="15" t="str">
-        <f>IF(P124="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O124&lt;3,"0_2",IF(O124&lt;5,"3_4",IF(O124&lt;7,"5_6",IF(O124&lt;9,"7_8","9Plus"))))),IF(P124="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U124),IF(P124="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V124,CHAR(10),Parts!AP124,CHAR(10),"    enginePartUpgradeName = ",W124),IF(P124="Parachute","    parachuteUpgradeType = standard",IF(P124="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O124),IF(OR(P124="System",P124="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W124,IF(P124="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P124="Fuel Tank",IF(X124="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X124="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X124,CHAR(10),"    fuelTankSizeUpgrade = ",Y124),_xlfn.CONCAT("    fuelTankUpgradeType = ",X124))),"")))))))</f>
+        <f>IF(P124="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O124&lt;3,"0_2",IF(O124&lt;5,"3_4",IF(O124&lt;7,"5_6",IF(O124&lt;9,"7_8","9Plus"))))),IF(P124="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U124),IF(P124="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V124,CHAR(10),Parts!AP124,CHAR(10),"    enginePartUpgradeName = ",W124),IF(P124="Parachute","    parachuteUpgradeType = standard",IF(P124="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O124),IF(OR(P124="System",P124="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W124,IF(P124="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P124="Fuel Tank",IF(X124="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X124="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X124,CHAR(10),"    fuelTankSizeUpgrade = ",Y124),_xlfn.CONCAT("    fuelTankUpgradeType = ",X124))),IF(P124="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size121</v>
       </c>
@@ -28119,7 +28088,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>371</v>
       </c>
@@ -28218,7 +28187,7 @@
       </c>
       <c r="AL125" s="14"/>
       <c r="AM125" s="15" t="str">
-        <f>IF(P125="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O125&lt;3,"0_2",IF(O125&lt;5,"3_4",IF(O125&lt;7,"5_6",IF(O125&lt;9,"7_8","9Plus"))))),IF(P125="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U125),IF(P125="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V125,CHAR(10),Parts!AP125,CHAR(10),"    enginePartUpgradeName = ",W125),IF(P125="Parachute","    parachuteUpgradeType = standard",IF(P125="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O125),IF(OR(P125="System",P125="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W125,IF(P125="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P125="Fuel Tank",IF(X125="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X125="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X125,CHAR(10),"    fuelTankSizeUpgrade = ",Y125),_xlfn.CONCAT("    fuelTankUpgradeType = ",X125))),"")))))))</f>
+        <f>IF(P125="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O125&lt;3,"0_2",IF(O125&lt;5,"3_4",IF(O125&lt;7,"5_6",IF(O125&lt;9,"7_8","9Plus"))))),IF(P125="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U125),IF(P125="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V125,CHAR(10),Parts!AP125,CHAR(10),"    enginePartUpgradeName = ",W125),IF(P125="Parachute","    parachuteUpgradeType = standard",IF(P125="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O125),IF(OR(P125="System",P125="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W125,IF(P125="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P125="Fuel Tank",IF(X125="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X125="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X125,CHAR(10),"    fuelTankSizeUpgrade = ",Y125),_xlfn.CONCAT("    fuelTankUpgradeType = ",X125))),IF(P125="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size122</v>
       </c>
@@ -28242,7 +28211,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -28338,7 +28307,7 @@
       </c>
       <c r="AL126" s="14"/>
       <c r="AM126" s="15" t="str">
-        <f>IF(P126="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O126&lt;3,"0_2",IF(O126&lt;5,"3_4",IF(O126&lt;7,"5_6",IF(O126&lt;9,"7_8","9Plus"))))),IF(P126="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U126),IF(P126="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V126,CHAR(10),Parts!AP126,CHAR(10),"    enginePartUpgradeName = ",W126),IF(P126="Parachute","    parachuteUpgradeType = standard",IF(P126="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O126),IF(OR(P126="System",P126="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W126,IF(P126="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P126="Fuel Tank",IF(X126="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X126="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X126,CHAR(10),"    fuelTankSizeUpgrade = ",Y126),_xlfn.CONCAT("    fuelTankUpgradeType = ",X126))),"")))))))</f>
+        <f>IF(P126="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O126&lt;3,"0_2",IF(O126&lt;5,"3_4",IF(O126&lt;7,"5_6",IF(O126&lt;9,"7_8","9Plus"))))),IF(P126="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U126),IF(P126="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V126,CHAR(10),Parts!AP126,CHAR(10),"    enginePartUpgradeName = ",W126),IF(P126="Parachute","    parachuteUpgradeType = standard",IF(P126="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O126),IF(OR(P126="System",P126="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W126,IF(P126="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P126="Fuel Tank",IF(X126="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X126="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X126,CHAR(10),"    fuelTankSizeUpgrade = ",Y126),_xlfn.CONCAT("    fuelTankUpgradeType = ",X126))),IF(P126="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size123</v>
       </c>
@@ -28362,7 +28331,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>371</v>
       </c>
@@ -28461,7 +28430,7 @@
       </c>
       <c r="AL127" s="14"/>
       <c r="AM127" s="15" t="str">
-        <f>IF(P127="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O127&lt;3,"0_2",IF(O127&lt;5,"3_4",IF(O127&lt;7,"5_6",IF(O127&lt;9,"7_8","9Plus"))))),IF(P127="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U127),IF(P127="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V127,CHAR(10),Parts!AP127,CHAR(10),"    enginePartUpgradeName = ",W127),IF(P127="Parachute","    parachuteUpgradeType = standard",IF(P127="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O127),IF(OR(P127="System",P127="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W127,IF(P127="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P127="Fuel Tank",IF(X127="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X127="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X127,CHAR(10),"    fuelTankSizeUpgrade = ",Y127),_xlfn.CONCAT("    fuelTankUpgradeType = ",X127))),"")))))))</f>
+        <f>IF(P127="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O127&lt;3,"0_2",IF(O127&lt;5,"3_4",IF(O127&lt;7,"5_6",IF(O127&lt;9,"7_8","9Plus"))))),IF(P127="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U127),IF(P127="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V127,CHAR(10),Parts!AP127,CHAR(10),"    enginePartUpgradeName = ",W127),IF(P127="Parachute","    parachuteUpgradeType = standard",IF(P127="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O127),IF(OR(P127="System",P127="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W127,IF(P127="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P127="Fuel Tank",IF(X127="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X127="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X127,CHAR(10),"    fuelTankSizeUpgrade = ",Y127),_xlfn.CONCAT("    fuelTankUpgradeType = ",X127))),IF(P127="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size124</v>
       </c>
@@ -28485,7 +28454,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -28584,7 +28553,7 @@
       </c>
       <c r="AL128" s="14"/>
       <c r="AM128" s="15" t="str">
-        <f>IF(P128="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O128&lt;3,"0_2",IF(O128&lt;5,"3_4",IF(O128&lt;7,"5_6",IF(O128&lt;9,"7_8","9Plus"))))),IF(P128="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U128),IF(P128="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V128,CHAR(10),Parts!AP128,CHAR(10),"    enginePartUpgradeName = ",W128),IF(P128="Parachute","    parachuteUpgradeType = standard",IF(P128="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O128),IF(OR(P128="System",P128="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W128,IF(P128="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P128="Fuel Tank",IF(X128="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X128="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X128,CHAR(10),"    fuelTankSizeUpgrade = ",Y128),_xlfn.CONCAT("    fuelTankUpgradeType = ",X128))),"")))))))</f>
+        <f>IF(P128="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O128&lt;3,"0_2",IF(O128&lt;5,"3_4",IF(O128&lt;7,"5_6",IF(O128&lt;9,"7_8","9Plus"))))),IF(P128="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U128),IF(P128="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V128,CHAR(10),Parts!AP128,CHAR(10),"    enginePartUpgradeName = ",W128),IF(P128="Parachute","    parachuteUpgradeType = standard",IF(P128="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O128),IF(OR(P128="System",P128="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W128,IF(P128="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P128="Fuel Tank",IF(X128="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X128="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X128,CHAR(10),"    fuelTankSizeUpgrade = ",Y128),_xlfn.CONCAT("    fuelTankUpgradeType = ",X128))),IF(P128="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size125</v>
       </c>
@@ -28608,7 +28577,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>371</v>
       </c>
@@ -28707,7 +28676,7 @@
       </c>
       <c r="AL129" s="14"/>
       <c r="AM129" s="15" t="str">
-        <f>IF(P129="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O129&lt;3,"0_2",IF(O129&lt;5,"3_4",IF(O129&lt;7,"5_6",IF(O129&lt;9,"7_8","9Plus"))))),IF(P129="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U129),IF(P129="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V129,CHAR(10),Parts!AP129,CHAR(10),"    enginePartUpgradeName = ",W129),IF(P129="Parachute","    parachuteUpgradeType = standard",IF(P129="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O129),IF(OR(P129="System",P129="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W129,IF(P129="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P129="Fuel Tank",IF(X129="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X129="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X129,CHAR(10),"    fuelTankSizeUpgrade = ",Y129),_xlfn.CONCAT("    fuelTankUpgradeType = ",X129))),"")))))))</f>
+        <f>IF(P129="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O129&lt;3,"0_2",IF(O129&lt;5,"3_4",IF(O129&lt;7,"5_6",IF(O129&lt;9,"7_8","9Plus"))))),IF(P129="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U129),IF(P129="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V129,CHAR(10),Parts!AP129,CHAR(10),"    enginePartUpgradeName = ",W129),IF(P129="Parachute","    parachuteUpgradeType = standard",IF(P129="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O129),IF(OR(P129="System",P129="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W129,IF(P129="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P129="Fuel Tank",IF(X129="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X129="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X129,CHAR(10),"    fuelTankSizeUpgrade = ",Y129),_xlfn.CONCAT("    fuelTankUpgradeType = ",X129))),IF(P129="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size126</v>
       </c>
@@ -28731,7 +28700,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>371</v>
       </c>
@@ -28827,7 +28796,7 @@
       </c>
       <c r="AL130" s="14"/>
       <c r="AM130" s="15" t="str">
-        <f>IF(P130="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O130&lt;3,"0_2",IF(O130&lt;5,"3_4",IF(O130&lt;7,"5_6",IF(O130&lt;9,"7_8","9Plus"))))),IF(P130="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U130),IF(P130="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V130,CHAR(10),Parts!AP130,CHAR(10),"    enginePartUpgradeName = ",W130),IF(P130="Parachute","    parachuteUpgradeType = standard",IF(P130="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O130),IF(OR(P130="System",P130="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W130,IF(P130="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P130="Fuel Tank",IF(X130="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X130="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X130,CHAR(10),"    fuelTankSizeUpgrade = ",Y130),_xlfn.CONCAT("    fuelTankUpgradeType = ",X130))),"")))))))</f>
+        <f>IF(P130="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O130&lt;3,"0_2",IF(O130&lt;5,"3_4",IF(O130&lt;7,"5_6",IF(O130&lt;9,"7_8","9Plus"))))),IF(P130="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U130),IF(P130="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V130,CHAR(10),Parts!AP130,CHAR(10),"    enginePartUpgradeName = ",W130),IF(P130="Parachute","    parachuteUpgradeType = standard",IF(P130="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O130),IF(OR(P130="System",P130="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W130,IF(P130="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P130="Fuel Tank",IF(X130="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X130="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X130,CHAR(10),"    fuelTankSizeUpgrade = ",Y130),_xlfn.CONCAT("    fuelTankUpgradeType = ",X130))),IF(P130="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size127</v>
       </c>
@@ -28851,7 +28820,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>371</v>
       </c>
@@ -28947,7 +28916,7 @@
       </c>
       <c r="AL131" s="14"/>
       <c r="AM131" s="15" t="str">
-        <f>IF(P131="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O131&lt;3,"0_2",IF(O131&lt;5,"3_4",IF(O131&lt;7,"5_6",IF(O131&lt;9,"7_8","9Plus"))))),IF(P131="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U131),IF(P131="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V131,CHAR(10),Parts!AP131,CHAR(10),"    enginePartUpgradeName = ",W131),IF(P131="Parachute","    parachuteUpgradeType = standard",IF(P131="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O131),IF(OR(P131="System",P131="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W131,IF(P131="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P131="Fuel Tank",IF(X131="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X131="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X131,CHAR(10),"    fuelTankSizeUpgrade = ",Y131),_xlfn.CONCAT("    fuelTankUpgradeType = ",X131))),"")))))))</f>
+        <f>IF(P131="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O131&lt;3,"0_2",IF(O131&lt;5,"3_4",IF(O131&lt;7,"5_6",IF(O131&lt;9,"7_8","9Plus"))))),IF(P131="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U131),IF(P131="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V131,CHAR(10),Parts!AP131,CHAR(10),"    enginePartUpgradeName = ",W131),IF(P131="Parachute","    parachuteUpgradeType = standard",IF(P131="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O131),IF(OR(P131="System",P131="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W131,IF(P131="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P131="Fuel Tank",IF(X131="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X131="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X131,CHAR(10),"    fuelTankSizeUpgrade = ",Y131),_xlfn.CONCAT("    fuelTankUpgradeType = ",X131))),IF(P131="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size128</v>
       </c>
@@ -28971,7 +28940,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>371</v>
       </c>
@@ -29070,7 +29039,7 @@
       </c>
       <c r="AL132" s="14"/>
       <c r="AM132" s="15" t="str">
-        <f>IF(P132="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O132&lt;3,"0_2",IF(O132&lt;5,"3_4",IF(O132&lt;7,"5_6",IF(O132&lt;9,"7_8","9Plus"))))),IF(P132="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U132),IF(P132="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V132,CHAR(10),Parts!AP132,CHAR(10),"    enginePartUpgradeName = ",W132),IF(P132="Parachute","    parachuteUpgradeType = standard",IF(P132="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O132),IF(OR(P132="System",P132="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W132,IF(P132="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P132="Fuel Tank",IF(X132="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X132="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X132,CHAR(10),"    fuelTankSizeUpgrade = ",Y132),_xlfn.CONCAT("    fuelTankUpgradeType = ",X132))),"")))))))</f>
+        <f>IF(P132="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O132&lt;3,"0_2",IF(O132&lt;5,"3_4",IF(O132&lt;7,"5_6",IF(O132&lt;9,"7_8","9Plus"))))),IF(P132="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U132),IF(P132="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V132,CHAR(10),Parts!AP132,CHAR(10),"    enginePartUpgradeName = ",W132),IF(P132="Parachute","    parachuteUpgradeType = standard",IF(P132="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O132),IF(OR(P132="System",P132="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W132,IF(P132="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P132="Fuel Tank",IF(X132="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X132="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X132,CHAR(10),"    fuelTankSizeUpgrade = ",Y132),_xlfn.CONCAT("    fuelTankUpgradeType = ",X132))),IF(P132="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size129</v>
       </c>
@@ -29094,7 +29063,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>371</v>
       </c>
@@ -29193,7 +29162,7 @@
       </c>
       <c r="AL133" s="14"/>
       <c r="AM133" s="15" t="str">
-        <f>IF(P133="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O133&lt;3,"0_2",IF(O133&lt;5,"3_4",IF(O133&lt;7,"5_6",IF(O133&lt;9,"7_8","9Plus"))))),IF(P133="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U133),IF(P133="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V133,CHAR(10),Parts!AP133,CHAR(10),"    enginePartUpgradeName = ",W133),IF(P133="Parachute","    parachuteUpgradeType = standard",IF(P133="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O133),IF(OR(P133="System",P133="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W133,IF(P133="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P133="Fuel Tank",IF(X133="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X133="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X133,CHAR(10),"    fuelTankSizeUpgrade = ",Y133),_xlfn.CONCAT("    fuelTankUpgradeType = ",X133))),"")))))))</f>
+        <f>IF(P133="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O133&lt;3,"0_2",IF(O133&lt;5,"3_4",IF(O133&lt;7,"5_6",IF(O133&lt;9,"7_8","9Plus"))))),IF(P133="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U133),IF(P133="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V133,CHAR(10),Parts!AP133,CHAR(10),"    enginePartUpgradeName = ",W133),IF(P133="Parachute","    parachuteUpgradeType = standard",IF(P133="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O133),IF(OR(P133="System",P133="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W133,IF(P133="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P133="Fuel Tank",IF(X133="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X133="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X133,CHAR(10),"    fuelTankSizeUpgrade = ",Y133),_xlfn.CONCAT("    fuelTankUpgradeType = ",X133))),IF(P133="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size130</v>
       </c>
@@ -29217,7 +29186,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>371</v>
       </c>
@@ -29316,7 +29285,7 @@
       </c>
       <c r="AL134" s="14"/>
       <c r="AM134" s="15" t="str">
-        <f>IF(P134="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O134&lt;3,"0_2",IF(O134&lt;5,"3_4",IF(O134&lt;7,"5_6",IF(O134&lt;9,"7_8","9Plus"))))),IF(P134="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U134),IF(P134="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V134,CHAR(10),Parts!AP134,CHAR(10),"    enginePartUpgradeName = ",W134),IF(P134="Parachute","    parachuteUpgradeType = standard",IF(P134="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O134),IF(OR(P134="System",P134="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W134,IF(P134="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P134="Fuel Tank",IF(X134="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X134="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X134,CHAR(10),"    fuelTankSizeUpgrade = ",Y134),_xlfn.CONCAT("    fuelTankUpgradeType = ",X134))),"")))))))</f>
+        <f>IF(P134="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O134&lt;3,"0_2",IF(O134&lt;5,"3_4",IF(O134&lt;7,"5_6",IF(O134&lt;9,"7_8","9Plus"))))),IF(P134="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U134),IF(P134="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V134,CHAR(10),Parts!AP134,CHAR(10),"    enginePartUpgradeName = ",W134),IF(P134="Parachute","    parachuteUpgradeType = standard",IF(P134="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O134),IF(OR(P134="System",P134="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W134,IF(P134="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P134="Fuel Tank",IF(X134="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X134="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X134,CHAR(10),"    fuelTankSizeUpgrade = ",Y134),_xlfn.CONCAT("    fuelTankUpgradeType = ",X134))),IF(P134="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size131</v>
       </c>
@@ -29340,7 +29309,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>371</v>
       </c>
@@ -29439,7 +29408,7 @@
       </c>
       <c r="AL135" s="14"/>
       <c r="AM135" s="15" t="str">
-        <f>IF(P135="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O135&lt;3,"0_2",IF(O135&lt;5,"3_4",IF(O135&lt;7,"5_6",IF(O135&lt;9,"7_8","9Plus"))))),IF(P135="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U135),IF(P135="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V135,CHAR(10),Parts!AP135,CHAR(10),"    enginePartUpgradeName = ",W135),IF(P135="Parachute","    parachuteUpgradeType = standard",IF(P135="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O135),IF(OR(P135="System",P135="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W135,IF(P135="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P135="Fuel Tank",IF(X135="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X135="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X135,CHAR(10),"    fuelTankSizeUpgrade = ",Y135),_xlfn.CONCAT("    fuelTankUpgradeType = ",X135))),"")))))))</f>
+        <f>IF(P135="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O135&lt;3,"0_2",IF(O135&lt;5,"3_4",IF(O135&lt;7,"5_6",IF(O135&lt;9,"7_8","9Plus"))))),IF(P135="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U135),IF(P135="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V135,CHAR(10),Parts!AP135,CHAR(10),"    enginePartUpgradeName = ",W135),IF(P135="Parachute","    parachuteUpgradeType = standard",IF(P135="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O135),IF(OR(P135="System",P135="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W135,IF(P135="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P135="Fuel Tank",IF(X135="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X135="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X135,CHAR(10),"    fuelTankSizeUpgrade = ",Y135),_xlfn.CONCAT("    fuelTankUpgradeType = ",X135))),IF(P135="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size132</v>
       </c>
@@ -29463,7 +29432,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>371</v>
       </c>
@@ -29562,7 +29531,7 @@
       </c>
       <c r="AL136" s="14"/>
       <c r="AM136" s="15" t="str">
-        <f>IF(P136="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O136&lt;3,"0_2",IF(O136&lt;5,"3_4",IF(O136&lt;7,"5_6",IF(O136&lt;9,"7_8","9Plus"))))),IF(P136="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U136),IF(P136="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V136,CHAR(10),Parts!AP136,CHAR(10),"    enginePartUpgradeName = ",W136),IF(P136="Parachute","    parachuteUpgradeType = standard",IF(P136="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O136),IF(OR(P136="System",P136="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W136,IF(P136="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P136="Fuel Tank",IF(X136="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X136="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X136,CHAR(10),"    fuelTankSizeUpgrade = ",Y136),_xlfn.CONCAT("    fuelTankUpgradeType = ",X136))),"")))))))</f>
+        <f>IF(P136="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O136&lt;3,"0_2",IF(O136&lt;5,"3_4",IF(O136&lt;7,"5_6",IF(O136&lt;9,"7_8","9Plus"))))),IF(P136="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U136),IF(P136="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V136,CHAR(10),Parts!AP136,CHAR(10),"    enginePartUpgradeName = ",W136),IF(P136="Parachute","    parachuteUpgradeType = standard",IF(P136="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O136),IF(OR(P136="System",P136="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W136,IF(P136="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P136="Fuel Tank",IF(X136="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X136="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X136,CHAR(10),"    fuelTankSizeUpgrade = ",Y136),_xlfn.CONCAT("    fuelTankUpgradeType = ",X136))),IF(P136="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size133</v>
       </c>
@@ -29586,7 +29555,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>371</v>
       </c>
@@ -29685,7 +29654,7 @@
       </c>
       <c r="AL137" s="14"/>
       <c r="AM137" s="15" t="str">
-        <f>IF(P137="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O137&lt;3,"0_2",IF(O137&lt;5,"3_4",IF(O137&lt;7,"5_6",IF(O137&lt;9,"7_8","9Plus"))))),IF(P137="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U137),IF(P137="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V137,CHAR(10),Parts!AP137,CHAR(10),"    enginePartUpgradeName = ",W137),IF(P137="Parachute","    parachuteUpgradeType = standard",IF(P137="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O137),IF(OR(P137="System",P137="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W137,IF(P137="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P137="Fuel Tank",IF(X137="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X137="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X137,CHAR(10),"    fuelTankSizeUpgrade = ",Y137),_xlfn.CONCAT("    fuelTankUpgradeType = ",X137))),"")))))))</f>
+        <f>IF(P137="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O137&lt;3,"0_2",IF(O137&lt;5,"3_4",IF(O137&lt;7,"5_6",IF(O137&lt;9,"7_8","9Plus"))))),IF(P137="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U137),IF(P137="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V137,CHAR(10),Parts!AP137,CHAR(10),"    enginePartUpgradeName = ",W137),IF(P137="Parachute","    parachuteUpgradeType = standard",IF(P137="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O137),IF(OR(P137="System",P137="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W137,IF(P137="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P137="Fuel Tank",IF(X137="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X137="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X137,CHAR(10),"    fuelTankSizeUpgrade = ",Y137),_xlfn.CONCAT("    fuelTankUpgradeType = ",X137))),IF(P137="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size134</v>
       </c>
@@ -29709,7 +29678,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>371</v>
       </c>
@@ -29808,7 +29777,7 @@
       </c>
       <c r="AL138" s="14"/>
       <c r="AM138" s="15" t="str">
-        <f>IF(P138="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O138&lt;3,"0_2",IF(O138&lt;5,"3_4",IF(O138&lt;7,"5_6",IF(O138&lt;9,"7_8","9Plus"))))),IF(P138="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U138),IF(P138="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V138,CHAR(10),Parts!AP138,CHAR(10),"    enginePartUpgradeName = ",W138),IF(P138="Parachute","    parachuteUpgradeType = standard",IF(P138="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O138),IF(OR(P138="System",P138="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W138,IF(P138="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P138="Fuel Tank",IF(X138="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X138="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X138,CHAR(10),"    fuelTankSizeUpgrade = ",Y138),_xlfn.CONCAT("    fuelTankUpgradeType = ",X138))),"")))))))</f>
+        <f>IF(P138="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O138&lt;3,"0_2",IF(O138&lt;5,"3_4",IF(O138&lt;7,"5_6",IF(O138&lt;9,"7_8","9Plus"))))),IF(P138="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U138),IF(P138="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V138,CHAR(10),Parts!AP138,CHAR(10),"    enginePartUpgradeName = ",W138),IF(P138="Parachute","    parachuteUpgradeType = standard",IF(P138="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O138),IF(OR(P138="System",P138="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W138,IF(P138="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P138="Fuel Tank",IF(X138="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X138="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X138,CHAR(10),"    fuelTankSizeUpgrade = ",Y138),_xlfn.CONCAT("    fuelTankUpgradeType = ",X138))),IF(P138="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size135</v>
       </c>
@@ -29832,7 +29801,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>371</v>
       </c>
@@ -29931,7 +29900,7 @@
       </c>
       <c r="AL139" s="14"/>
       <c r="AM139" s="15" t="str">
-        <f>IF(P139="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O139&lt;3,"0_2",IF(O139&lt;5,"3_4",IF(O139&lt;7,"5_6",IF(O139&lt;9,"7_8","9Plus"))))),IF(P139="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U139),IF(P139="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V139,CHAR(10),Parts!AP139,CHAR(10),"    enginePartUpgradeName = ",W139),IF(P139="Parachute","    parachuteUpgradeType = standard",IF(P139="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O139),IF(OR(P139="System",P139="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W139,IF(P139="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P139="Fuel Tank",IF(X139="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X139="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X139,CHAR(10),"    fuelTankSizeUpgrade = ",Y139),_xlfn.CONCAT("    fuelTankUpgradeType = ",X139))),"")))))))</f>
+        <f>IF(P139="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O139&lt;3,"0_2",IF(O139&lt;5,"3_4",IF(O139&lt;7,"5_6",IF(O139&lt;9,"7_8","9Plus"))))),IF(P139="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U139),IF(P139="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V139,CHAR(10),Parts!AP139,CHAR(10),"    enginePartUpgradeName = ",W139),IF(P139="Parachute","    parachuteUpgradeType = standard",IF(P139="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O139),IF(OR(P139="System",P139="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W139,IF(P139="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P139="Fuel Tank",IF(X139="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X139="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X139,CHAR(10),"    fuelTankSizeUpgrade = ",Y139),_xlfn.CONCAT("    fuelTankUpgradeType = ",X139))),IF(P139="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size136</v>
       </c>
@@ -29955,7 +29924,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>371</v>
       </c>
@@ -30054,7 +30023,7 @@
       </c>
       <c r="AL140" s="14"/>
       <c r="AM140" s="15" t="str">
-        <f>IF(P140="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O140&lt;3,"0_2",IF(O140&lt;5,"3_4",IF(O140&lt;7,"5_6",IF(O140&lt;9,"7_8","9Plus"))))),IF(P140="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U140),IF(P140="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V140,CHAR(10),Parts!AP140,CHAR(10),"    enginePartUpgradeName = ",W140),IF(P140="Parachute","    parachuteUpgradeType = standard",IF(P140="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O140),IF(OR(P140="System",P140="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W140,IF(P140="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P140="Fuel Tank",IF(X140="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X140="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X140,CHAR(10),"    fuelTankSizeUpgrade = ",Y140),_xlfn.CONCAT("    fuelTankUpgradeType = ",X140))),"")))))))</f>
+        <f>IF(P140="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O140&lt;3,"0_2",IF(O140&lt;5,"3_4",IF(O140&lt;7,"5_6",IF(O140&lt;9,"7_8","9Plus"))))),IF(P140="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U140),IF(P140="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V140,CHAR(10),Parts!AP140,CHAR(10),"    enginePartUpgradeName = ",W140),IF(P140="Parachute","    parachuteUpgradeType = standard",IF(P140="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O140),IF(OR(P140="System",P140="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W140,IF(P140="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P140="Fuel Tank",IF(X140="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X140="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X140,CHAR(10),"    fuelTankSizeUpgrade = ",Y140),_xlfn.CONCAT("    fuelTankUpgradeType = ",X140))),IF(P140="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size137</v>
       </c>
@@ -30078,7 +30047,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>371</v>
       </c>
@@ -30177,7 +30146,7 @@
       </c>
       <c r="AL141" s="14"/>
       <c r="AM141" s="15" t="str">
-        <f>IF(P141="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O141&lt;3,"0_2",IF(O141&lt;5,"3_4",IF(O141&lt;7,"5_6",IF(O141&lt;9,"7_8","9Plus"))))),IF(P141="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U141),IF(P141="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V141,CHAR(10),Parts!AP141,CHAR(10),"    enginePartUpgradeName = ",W141),IF(P141="Parachute","    parachuteUpgradeType = standard",IF(P141="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O141),IF(OR(P141="System",P141="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W141,IF(P141="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P141="Fuel Tank",IF(X141="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X141="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X141,CHAR(10),"    fuelTankSizeUpgrade = ",Y141),_xlfn.CONCAT("    fuelTankUpgradeType = ",X141))),"")))))))</f>
+        <f>IF(P141="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O141&lt;3,"0_2",IF(O141&lt;5,"3_4",IF(O141&lt;7,"5_6",IF(O141&lt;9,"7_8","9Plus"))))),IF(P141="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U141),IF(P141="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V141,CHAR(10),Parts!AP141,CHAR(10),"    enginePartUpgradeName = ",W141),IF(P141="Parachute","    parachuteUpgradeType = standard",IF(P141="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O141),IF(OR(P141="System",P141="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W141,IF(P141="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P141="Fuel Tank",IF(X141="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X141="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X141,CHAR(10),"    fuelTankSizeUpgrade = ",Y141),_xlfn.CONCAT("    fuelTankUpgradeType = ",X141))),IF(P141="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size138</v>
       </c>
@@ -30201,7 +30170,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>371</v>
       </c>
@@ -30300,7 +30269,7 @@
       </c>
       <c r="AL142" s="14"/>
       <c r="AM142" s="15" t="str">
-        <f>IF(P142="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O142&lt;3,"0_2",IF(O142&lt;5,"3_4",IF(O142&lt;7,"5_6",IF(O142&lt;9,"7_8","9Plus"))))),IF(P142="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U142),IF(P142="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V142,CHAR(10),Parts!AP142,CHAR(10),"    enginePartUpgradeName = ",W142),IF(P142="Parachute","    parachuteUpgradeType = standard",IF(P142="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O142),IF(OR(P142="System",P142="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W142,IF(P142="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P142="Fuel Tank",IF(X142="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X142="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X142,CHAR(10),"    fuelTankSizeUpgrade = ",Y142),_xlfn.CONCAT("    fuelTankUpgradeType = ",X142))),"")))))))</f>
+        <f>IF(P142="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O142&lt;3,"0_2",IF(O142&lt;5,"3_4",IF(O142&lt;7,"5_6",IF(O142&lt;9,"7_8","9Plus"))))),IF(P142="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U142),IF(P142="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V142,CHAR(10),Parts!AP142,CHAR(10),"    enginePartUpgradeName = ",W142),IF(P142="Parachute","    parachuteUpgradeType = standard",IF(P142="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O142),IF(OR(P142="System",P142="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W142,IF(P142="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P142="Fuel Tank",IF(X142="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X142="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X142,CHAR(10),"    fuelTankSizeUpgrade = ",Y142),_xlfn.CONCAT("    fuelTankUpgradeType = ",X142))),IF(P142="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size139</v>
       </c>
@@ -30324,7 +30293,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>371</v>
       </c>
@@ -30423,7 +30392,7 @@
       </c>
       <c r="AL143" s="14"/>
       <c r="AM143" s="15" t="str">
-        <f>IF(P143="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O143&lt;3,"0_2",IF(O143&lt;5,"3_4",IF(O143&lt;7,"5_6",IF(O143&lt;9,"7_8","9Plus"))))),IF(P143="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U143),IF(P143="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V143,CHAR(10),Parts!AP143,CHAR(10),"    enginePartUpgradeName = ",W143),IF(P143="Parachute","    parachuteUpgradeType = standard",IF(P143="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O143),IF(OR(P143="System",P143="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W143,IF(P143="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P143="Fuel Tank",IF(X143="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X143="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X143,CHAR(10),"    fuelTankSizeUpgrade = ",Y143),_xlfn.CONCAT("    fuelTankUpgradeType = ",X143))),"")))))))</f>
+        <f>IF(P143="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O143&lt;3,"0_2",IF(O143&lt;5,"3_4",IF(O143&lt;7,"5_6",IF(O143&lt;9,"7_8","9Plus"))))),IF(P143="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U143),IF(P143="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V143,CHAR(10),Parts!AP143,CHAR(10),"    enginePartUpgradeName = ",W143),IF(P143="Parachute","    parachuteUpgradeType = standard",IF(P143="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O143),IF(OR(P143="System",P143="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W143,IF(P143="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P143="Fuel Tank",IF(X143="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X143="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X143,CHAR(10),"    fuelTankSizeUpgrade = ",Y143),_xlfn.CONCAT("    fuelTankUpgradeType = ",X143))),IF(P143="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size140</v>
       </c>
@@ -30447,7 +30416,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>371</v>
       </c>
@@ -30546,7 +30515,7 @@
       </c>
       <c r="AL144" s="14"/>
       <c r="AM144" s="15" t="str">
-        <f>IF(P144="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O144&lt;3,"0_2",IF(O144&lt;5,"3_4",IF(O144&lt;7,"5_6",IF(O144&lt;9,"7_8","9Plus"))))),IF(P144="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U144),IF(P144="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V144,CHAR(10),Parts!AP144,CHAR(10),"    enginePartUpgradeName = ",W144),IF(P144="Parachute","    parachuteUpgradeType = standard",IF(P144="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O144),IF(OR(P144="System",P144="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W144,IF(P144="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P144="Fuel Tank",IF(X144="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X144="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X144,CHAR(10),"    fuelTankSizeUpgrade = ",Y144),_xlfn.CONCAT("    fuelTankUpgradeType = ",X144))),"")))))))</f>
+        <f>IF(P144="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O144&lt;3,"0_2",IF(O144&lt;5,"3_4",IF(O144&lt;7,"5_6",IF(O144&lt;9,"7_8","9Plus"))))),IF(P144="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U144),IF(P144="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V144,CHAR(10),Parts!AP144,CHAR(10),"    enginePartUpgradeName = ",W144),IF(P144="Parachute","    parachuteUpgradeType = standard",IF(P144="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O144),IF(OR(P144="System",P144="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W144,IF(P144="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P144="Fuel Tank",IF(X144="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X144="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X144,CHAR(10),"    fuelTankSizeUpgrade = ",Y144),_xlfn.CONCAT("    fuelTankUpgradeType = ",X144))),IF(P144="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size141</v>
       </c>
@@ -30570,7 +30539,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>371</v>
       </c>
@@ -30669,7 +30638,7 @@
       </c>
       <c r="AL145" s="14"/>
       <c r="AM145" s="15" t="str">
-        <f>IF(P145="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O145&lt;3,"0_2",IF(O145&lt;5,"3_4",IF(O145&lt;7,"5_6",IF(O145&lt;9,"7_8","9Plus"))))),IF(P145="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U145),IF(P145="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V145,CHAR(10),Parts!AP145,CHAR(10),"    enginePartUpgradeName = ",W145),IF(P145="Parachute","    parachuteUpgradeType = standard",IF(P145="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O145),IF(OR(P145="System",P145="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W145,IF(P145="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P145="Fuel Tank",IF(X145="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X145="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X145,CHAR(10),"    fuelTankSizeUpgrade = ",Y145),_xlfn.CONCAT("    fuelTankUpgradeType = ",X145))),"")))))))</f>
+        <f>IF(P145="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O145&lt;3,"0_2",IF(O145&lt;5,"3_4",IF(O145&lt;7,"5_6",IF(O145&lt;9,"7_8","9Plus"))))),IF(P145="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U145),IF(P145="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V145,CHAR(10),Parts!AP145,CHAR(10),"    enginePartUpgradeName = ",W145),IF(P145="Parachute","    parachuteUpgradeType = standard",IF(P145="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O145),IF(OR(P145="System",P145="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W145,IF(P145="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P145="Fuel Tank",IF(X145="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X145="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X145,CHAR(10),"    fuelTankSizeUpgrade = ",Y145),_xlfn.CONCAT("    fuelTankUpgradeType = ",X145))),IF(P145="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size142</v>
       </c>
@@ -30693,7 +30662,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>371</v>
       </c>
@@ -30792,7 +30761,7 @@
       </c>
       <c r="AL146" s="14"/>
       <c r="AM146" s="15" t="str">
-        <f>IF(P146="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O146&lt;3,"0_2",IF(O146&lt;5,"3_4",IF(O146&lt;7,"5_6",IF(O146&lt;9,"7_8","9Plus"))))),IF(P146="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U146),IF(P146="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V146,CHAR(10),Parts!AP146,CHAR(10),"    enginePartUpgradeName = ",W146),IF(P146="Parachute","    parachuteUpgradeType = standard",IF(P146="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O146),IF(OR(P146="System",P146="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W146,IF(P146="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P146="Fuel Tank",IF(X146="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X146="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X146,CHAR(10),"    fuelTankSizeUpgrade = ",Y146),_xlfn.CONCAT("    fuelTankUpgradeType = ",X146))),"")))))))</f>
+        <f>IF(P146="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O146&lt;3,"0_2",IF(O146&lt;5,"3_4",IF(O146&lt;7,"5_6",IF(O146&lt;9,"7_8","9Plus"))))),IF(P146="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U146),IF(P146="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V146,CHAR(10),Parts!AP146,CHAR(10),"    enginePartUpgradeName = ",W146),IF(P146="Parachute","    parachuteUpgradeType = standard",IF(P146="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O146),IF(OR(P146="System",P146="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W146,IF(P146="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P146="Fuel Tank",IF(X146="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X146="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X146,CHAR(10),"    fuelTankSizeUpgrade = ",Y146),_xlfn.CONCAT("    fuelTankUpgradeType = ",X146))),IF(P146="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size143</v>
       </c>
@@ -30816,7 +30785,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -30915,7 +30884,7 @@
       </c>
       <c r="AL147" s="14"/>
       <c r="AM147" s="15" t="str">
-        <f>IF(P147="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O147&lt;3,"0_2",IF(O147&lt;5,"3_4",IF(O147&lt;7,"5_6",IF(O147&lt;9,"7_8","9Plus"))))),IF(P147="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U147),IF(P147="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V147,CHAR(10),Parts!AP147,CHAR(10),"    enginePartUpgradeName = ",W147),IF(P147="Parachute","    parachuteUpgradeType = standard",IF(P147="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O147),IF(OR(P147="System",P147="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W147,IF(P147="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P147="Fuel Tank",IF(X147="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X147="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X147,CHAR(10),"    fuelTankSizeUpgrade = ",Y147),_xlfn.CONCAT("    fuelTankUpgradeType = ",X147))),"")))))))</f>
+        <f>IF(P147="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O147&lt;3,"0_2",IF(O147&lt;5,"3_4",IF(O147&lt;7,"5_6",IF(O147&lt;9,"7_8","9Plus"))))),IF(P147="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U147),IF(P147="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V147,CHAR(10),Parts!AP147,CHAR(10),"    enginePartUpgradeName = ",W147),IF(P147="Parachute","    parachuteUpgradeType = standard",IF(P147="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O147),IF(OR(P147="System",P147="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W147,IF(P147="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P147="Fuel Tank",IF(X147="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X147="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X147,CHAR(10),"    fuelTankSizeUpgrade = ",Y147),_xlfn.CONCAT("    fuelTankUpgradeType = ",X147))),IF(P147="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size144</v>
       </c>
@@ -30939,7 +30908,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>371</v>
       </c>
@@ -31038,7 +31007,7 @@
       </c>
       <c r="AL148" s="14"/>
       <c r="AM148" s="15" t="str">
-        <f>IF(P148="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O148&lt;3,"0_2",IF(O148&lt;5,"3_4",IF(O148&lt;7,"5_6",IF(O148&lt;9,"7_8","9Plus"))))),IF(P148="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U148),IF(P148="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V148,CHAR(10),Parts!AP148,CHAR(10),"    enginePartUpgradeName = ",W148),IF(P148="Parachute","    parachuteUpgradeType = standard",IF(P148="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O148),IF(OR(P148="System",P148="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W148,IF(P148="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P148="Fuel Tank",IF(X148="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X148="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X148,CHAR(10),"    fuelTankSizeUpgrade = ",Y148),_xlfn.CONCAT("    fuelTankUpgradeType = ",X148))),"")))))))</f>
+        <f>IF(P148="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O148&lt;3,"0_2",IF(O148&lt;5,"3_4",IF(O148&lt;7,"5_6",IF(O148&lt;9,"7_8","9Plus"))))),IF(P148="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U148),IF(P148="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V148,CHAR(10),Parts!AP148,CHAR(10),"    enginePartUpgradeName = ",W148),IF(P148="Parachute","    parachuteUpgradeType = standard",IF(P148="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O148),IF(OR(P148="System",P148="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W148,IF(P148="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P148="Fuel Tank",IF(X148="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X148="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X148,CHAR(10),"    fuelTankSizeUpgrade = ",Y148),_xlfn.CONCAT("    fuelTankUpgradeType = ",X148))),IF(P148="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size145</v>
       </c>
@@ -31062,7 +31031,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>371</v>
       </c>
@@ -31161,7 +31130,7 @@
       </c>
       <c r="AL149" s="14"/>
       <c r="AM149" s="15" t="str">
-        <f>IF(P149="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O149&lt;3,"0_2",IF(O149&lt;5,"3_4",IF(O149&lt;7,"5_6",IF(O149&lt;9,"7_8","9Plus"))))),IF(P149="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U149),IF(P149="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V149,CHAR(10),Parts!AP149,CHAR(10),"    enginePartUpgradeName = ",W149),IF(P149="Parachute","    parachuteUpgradeType = standard",IF(P149="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O149),IF(OR(P149="System",P149="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W149,IF(P149="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P149="Fuel Tank",IF(X149="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X149="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X149,CHAR(10),"    fuelTankSizeUpgrade = ",Y149),_xlfn.CONCAT("    fuelTankUpgradeType = ",X149))),"")))))))</f>
+        <f>IF(P149="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O149&lt;3,"0_2",IF(O149&lt;5,"3_4",IF(O149&lt;7,"5_6",IF(O149&lt;9,"7_8","9Plus"))))),IF(P149="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U149),IF(P149="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V149,CHAR(10),Parts!AP149,CHAR(10),"    enginePartUpgradeName = ",W149),IF(P149="Parachute","    parachuteUpgradeType = standard",IF(P149="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O149),IF(OR(P149="System",P149="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W149,IF(P149="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P149="Fuel Tank",IF(X149="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X149="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X149,CHAR(10),"    fuelTankSizeUpgrade = ",Y149),_xlfn.CONCAT("    fuelTankUpgradeType = ",X149))),IF(P149="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size146</v>
       </c>
@@ -31185,7 +31154,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>371</v>
       </c>
@@ -31284,7 +31253,7 @@
       </c>
       <c r="AL150" s="14"/>
       <c r="AM150" s="15" t="str">
-        <f>IF(P150="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O150&lt;3,"0_2",IF(O150&lt;5,"3_4",IF(O150&lt;7,"5_6",IF(O150&lt;9,"7_8","9Plus"))))),IF(P150="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U150),IF(P150="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V150,CHAR(10),Parts!AP150,CHAR(10),"    enginePartUpgradeName = ",W150),IF(P150="Parachute","    parachuteUpgradeType = standard",IF(P150="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O150),IF(OR(P150="System",P150="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W150,IF(P150="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P150="Fuel Tank",IF(X150="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X150="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X150,CHAR(10),"    fuelTankSizeUpgrade = ",Y150),_xlfn.CONCAT("    fuelTankUpgradeType = ",X150))),"")))))))</f>
+        <f>IF(P150="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O150&lt;3,"0_2",IF(O150&lt;5,"3_4",IF(O150&lt;7,"5_6",IF(O150&lt;9,"7_8","9Plus"))))),IF(P150="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U150),IF(P150="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V150,CHAR(10),Parts!AP150,CHAR(10),"    enginePartUpgradeName = ",W150),IF(P150="Parachute","    parachuteUpgradeType = standard",IF(P150="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O150),IF(OR(P150="System",P150="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W150,IF(P150="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P150="Fuel Tank",IF(X150="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X150="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X150,CHAR(10),"    fuelTankSizeUpgrade = ",Y150),_xlfn.CONCAT("    fuelTankUpgradeType = ",X150))),IF(P150="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size147</v>
       </c>
@@ -31308,7 +31277,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>371</v>
       </c>
@@ -31407,7 +31376,7 @@
       </c>
       <c r="AL151" s="14"/>
       <c r="AM151" s="15" t="str">
-        <f>IF(P151="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O151&lt;3,"0_2",IF(O151&lt;5,"3_4",IF(O151&lt;7,"5_6",IF(O151&lt;9,"7_8","9Plus"))))),IF(P151="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U151),IF(P151="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V151,CHAR(10),Parts!AP151,CHAR(10),"    enginePartUpgradeName = ",W151),IF(P151="Parachute","    parachuteUpgradeType = standard",IF(P151="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O151),IF(OR(P151="System",P151="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W151,IF(P151="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P151="Fuel Tank",IF(X151="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X151="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X151,CHAR(10),"    fuelTankSizeUpgrade = ",Y151),_xlfn.CONCAT("    fuelTankUpgradeType = ",X151))),"")))))))</f>
+        <f>IF(P151="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O151&lt;3,"0_2",IF(O151&lt;5,"3_4",IF(O151&lt;7,"5_6",IF(O151&lt;9,"7_8","9Plus"))))),IF(P151="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U151),IF(P151="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V151,CHAR(10),Parts!AP151,CHAR(10),"    enginePartUpgradeName = ",W151),IF(P151="Parachute","    parachuteUpgradeType = standard",IF(P151="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O151),IF(OR(P151="System",P151="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W151,IF(P151="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P151="Fuel Tank",IF(X151="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X151="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X151,CHAR(10),"    fuelTankSizeUpgrade = ",Y151),_xlfn.CONCAT("    fuelTankUpgradeType = ",X151))),IF(P151="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size148</v>
       </c>
@@ -31431,7 +31400,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>371</v>
       </c>
@@ -31530,7 +31499,7 @@
       </c>
       <c r="AL152" s="14"/>
       <c r="AM152" s="15" t="str">
-        <f>IF(P152="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O152&lt;3,"0_2",IF(O152&lt;5,"3_4",IF(O152&lt;7,"5_6",IF(O152&lt;9,"7_8","9Plus"))))),IF(P152="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U152),IF(P152="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V152,CHAR(10),Parts!AP152,CHAR(10),"    enginePartUpgradeName = ",W152),IF(P152="Parachute","    parachuteUpgradeType = standard",IF(P152="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O152),IF(OR(P152="System",P152="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W152,IF(P152="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P152="Fuel Tank",IF(X152="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X152="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X152,CHAR(10),"    fuelTankSizeUpgrade = ",Y152),_xlfn.CONCAT("    fuelTankUpgradeType = ",X152))),"")))))))</f>
+        <f>IF(P152="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O152&lt;3,"0_2",IF(O152&lt;5,"3_4",IF(O152&lt;7,"5_6",IF(O152&lt;9,"7_8","9Plus"))))),IF(P152="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U152),IF(P152="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V152,CHAR(10),Parts!AP152,CHAR(10),"    enginePartUpgradeName = ",W152),IF(P152="Parachute","    parachuteUpgradeType = standard",IF(P152="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O152),IF(OR(P152="System",P152="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W152,IF(P152="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P152="Fuel Tank",IF(X152="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X152="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X152,CHAR(10),"    fuelTankSizeUpgrade = ",Y152),_xlfn.CONCAT("    fuelTankUpgradeType = ",X152))),IF(P152="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size149</v>
       </c>
@@ -31554,7 +31523,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>371</v>
       </c>
@@ -31653,7 +31622,7 @@
       </c>
       <c r="AL153" s="14"/>
       <c r="AM153" s="15" t="str">
-        <f>IF(P153="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O153&lt;3,"0_2",IF(O153&lt;5,"3_4",IF(O153&lt;7,"5_6",IF(O153&lt;9,"7_8","9Plus"))))),IF(P153="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U153),IF(P153="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V153,CHAR(10),Parts!AP153,CHAR(10),"    enginePartUpgradeName = ",W153),IF(P153="Parachute","    parachuteUpgradeType = standard",IF(P153="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O153),IF(OR(P153="System",P153="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W153,IF(P153="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P153="Fuel Tank",IF(X153="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X153="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X153,CHAR(10),"    fuelTankSizeUpgrade = ",Y153),_xlfn.CONCAT("    fuelTankUpgradeType = ",X153))),"")))))))</f>
+        <f>IF(P153="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O153&lt;3,"0_2",IF(O153&lt;5,"3_4",IF(O153&lt;7,"5_6",IF(O153&lt;9,"7_8","9Plus"))))),IF(P153="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U153),IF(P153="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V153,CHAR(10),Parts!AP153,CHAR(10),"    enginePartUpgradeName = ",W153),IF(P153="Parachute","    parachuteUpgradeType = standard",IF(P153="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O153),IF(OR(P153="System",P153="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W153,IF(P153="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P153="Fuel Tank",IF(X153="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X153="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X153,CHAR(10),"    fuelTankSizeUpgrade = ",Y153),_xlfn.CONCAT("    fuelTankUpgradeType = ",X153))),IF(P153="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size150</v>
       </c>
@@ -31677,7 +31646,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>371</v>
       </c>
@@ -31776,7 +31745,7 @@
       </c>
       <c r="AL154" s="14"/>
       <c r="AM154" s="15" t="str">
-        <f>IF(P154="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O154&lt;3,"0_2",IF(O154&lt;5,"3_4",IF(O154&lt;7,"5_6",IF(O154&lt;9,"7_8","9Plus"))))),IF(P154="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U154),IF(P154="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V154,CHAR(10),Parts!AP154,CHAR(10),"    enginePartUpgradeName = ",W154),IF(P154="Parachute","    parachuteUpgradeType = standard",IF(P154="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O154),IF(OR(P154="System",P154="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W154,IF(P154="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P154="Fuel Tank",IF(X154="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X154="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X154,CHAR(10),"    fuelTankSizeUpgrade = ",Y154),_xlfn.CONCAT("    fuelTankUpgradeType = ",X154))),"")))))))</f>
+        <f>IF(P154="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O154&lt;3,"0_2",IF(O154&lt;5,"3_4",IF(O154&lt;7,"5_6",IF(O154&lt;9,"7_8","9Plus"))))),IF(P154="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U154),IF(P154="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V154,CHAR(10),Parts!AP154,CHAR(10),"    enginePartUpgradeName = ",W154),IF(P154="Parachute","    parachuteUpgradeType = standard",IF(P154="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O154),IF(OR(P154="System",P154="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W154,IF(P154="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P154="Fuel Tank",IF(X154="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X154="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X154,CHAR(10),"    fuelTankSizeUpgrade = ",Y154),_xlfn.CONCAT("    fuelTankUpgradeType = ",X154))),IF(P154="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size151</v>
       </c>
@@ -31800,7 +31769,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>371</v>
       </c>
@@ -31899,7 +31868,7 @@
       </c>
       <c r="AL155" s="14"/>
       <c r="AM155" s="15" t="str">
-        <f>IF(P155="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O155&lt;3,"0_2",IF(O155&lt;5,"3_4",IF(O155&lt;7,"5_6",IF(O155&lt;9,"7_8","9Plus"))))),IF(P155="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U155),IF(P155="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V155,CHAR(10),Parts!AP155,CHAR(10),"    enginePartUpgradeName = ",W155),IF(P155="Parachute","    parachuteUpgradeType = standard",IF(P155="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O155),IF(OR(P155="System",P155="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W155,IF(P155="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P155="Fuel Tank",IF(X155="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X155="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X155,CHAR(10),"    fuelTankSizeUpgrade = ",Y155),_xlfn.CONCAT("    fuelTankUpgradeType = ",X155))),"")))))))</f>
+        <f>IF(P155="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O155&lt;3,"0_2",IF(O155&lt;5,"3_4",IF(O155&lt;7,"5_6",IF(O155&lt;9,"7_8","9Plus"))))),IF(P155="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U155),IF(P155="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V155,CHAR(10),Parts!AP155,CHAR(10),"    enginePartUpgradeName = ",W155),IF(P155="Parachute","    parachuteUpgradeType = standard",IF(P155="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O155),IF(OR(P155="System",P155="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W155,IF(P155="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P155="Fuel Tank",IF(X155="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X155="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X155,CHAR(10),"    fuelTankSizeUpgrade = ",Y155),_xlfn.CONCAT("    fuelTankUpgradeType = ",X155))),IF(P155="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size152</v>
       </c>
@@ -31923,7 +31892,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>371</v>
       </c>
@@ -32022,7 +31991,7 @@
       </c>
       <c r="AL156" s="14"/>
       <c r="AM156" s="15" t="str">
-        <f>IF(P156="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O156&lt;3,"0_2",IF(O156&lt;5,"3_4",IF(O156&lt;7,"5_6",IF(O156&lt;9,"7_8","9Plus"))))),IF(P156="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U156),IF(P156="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V156,CHAR(10),Parts!AP156,CHAR(10),"    enginePartUpgradeName = ",W156),IF(P156="Parachute","    parachuteUpgradeType = standard",IF(P156="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O156),IF(OR(P156="System",P156="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W156,IF(P156="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P156="Fuel Tank",IF(X156="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X156="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X156,CHAR(10),"    fuelTankSizeUpgrade = ",Y156),_xlfn.CONCAT("    fuelTankUpgradeType = ",X156))),"")))))))</f>
+        <f>IF(P156="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O156&lt;3,"0_2",IF(O156&lt;5,"3_4",IF(O156&lt;7,"5_6",IF(O156&lt;9,"7_8","9Plus"))))),IF(P156="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U156),IF(P156="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V156,CHAR(10),Parts!AP156,CHAR(10),"    enginePartUpgradeName = ",W156),IF(P156="Parachute","    parachuteUpgradeType = standard",IF(P156="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O156),IF(OR(P156="System",P156="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W156,IF(P156="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P156="Fuel Tank",IF(X156="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X156="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X156,CHAR(10),"    fuelTankSizeUpgrade = ",Y156),_xlfn.CONCAT("    fuelTankUpgradeType = ",X156))),IF(P156="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size153</v>
       </c>
@@ -32046,7 +32015,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>371</v>
       </c>
@@ -32145,7 +32114,7 @@
       </c>
       <c r="AL157" s="14"/>
       <c r="AM157" s="15" t="str">
-        <f>IF(P157="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O157&lt;3,"0_2",IF(O157&lt;5,"3_4",IF(O157&lt;7,"5_6",IF(O157&lt;9,"7_8","9Plus"))))),IF(P157="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U157),IF(P157="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V157,CHAR(10),Parts!AP157,CHAR(10),"    enginePartUpgradeName = ",W157),IF(P157="Parachute","    parachuteUpgradeType = standard",IF(P157="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O157),IF(OR(P157="System",P157="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W157,IF(P157="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P157="Fuel Tank",IF(X157="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X157="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X157,CHAR(10),"    fuelTankSizeUpgrade = ",Y157),_xlfn.CONCAT("    fuelTankUpgradeType = ",X157))),"")))))))</f>
+        <f>IF(P157="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O157&lt;3,"0_2",IF(O157&lt;5,"3_4",IF(O157&lt;7,"5_6",IF(O157&lt;9,"7_8","9Plus"))))),IF(P157="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U157),IF(P157="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V157,CHAR(10),Parts!AP157,CHAR(10),"    enginePartUpgradeName = ",W157),IF(P157="Parachute","    parachuteUpgradeType = standard",IF(P157="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O157),IF(OR(P157="System",P157="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W157,IF(P157="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P157="Fuel Tank",IF(X157="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X157="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X157,CHAR(10),"    fuelTankSizeUpgrade = ",Y157),_xlfn.CONCAT("    fuelTankUpgradeType = ",X157))),IF(P157="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size154</v>
       </c>
@@ -32169,7 +32138,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -32268,7 +32237,7 @@
       </c>
       <c r="AL158" s="14"/>
       <c r="AM158" s="15" t="str">
-        <f>IF(P158="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O158&lt;3,"0_2",IF(O158&lt;5,"3_4",IF(O158&lt;7,"5_6",IF(O158&lt;9,"7_8","9Plus"))))),IF(P158="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U158),IF(P158="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V158,CHAR(10),Parts!AP158,CHAR(10),"    enginePartUpgradeName = ",W158),IF(P158="Parachute","    parachuteUpgradeType = standard",IF(P158="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O158),IF(OR(P158="System",P158="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W158,IF(P158="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P158="Fuel Tank",IF(X158="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X158="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X158,CHAR(10),"    fuelTankSizeUpgrade = ",Y158),_xlfn.CONCAT("    fuelTankUpgradeType = ",X158))),"")))))))</f>
+        <f>IF(P158="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O158&lt;3,"0_2",IF(O158&lt;5,"3_4",IF(O158&lt;7,"5_6",IF(O158&lt;9,"7_8","9Plus"))))),IF(P158="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U158),IF(P158="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V158,CHAR(10),Parts!AP158,CHAR(10),"    enginePartUpgradeName = ",W158),IF(P158="Parachute","    parachuteUpgradeType = standard",IF(P158="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O158),IF(OR(P158="System",P158="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W158,IF(P158="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P158="Fuel Tank",IF(X158="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X158="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X158,CHAR(10),"    fuelTankSizeUpgrade = ",Y158),_xlfn.CONCAT("    fuelTankUpgradeType = ",X158))),IF(P158="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size155</v>
       </c>
@@ -32292,7 +32261,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>371</v>
       </c>
@@ -32391,7 +32360,7 @@
       </c>
       <c r="AL159" s="14"/>
       <c r="AM159" s="15" t="str">
-        <f>IF(P159="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O159&lt;3,"0_2",IF(O159&lt;5,"3_4",IF(O159&lt;7,"5_6",IF(O159&lt;9,"7_8","9Plus"))))),IF(P159="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U159),IF(P159="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V159,CHAR(10),Parts!AP159,CHAR(10),"    enginePartUpgradeName = ",W159),IF(P159="Parachute","    parachuteUpgradeType = standard",IF(P159="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O159),IF(OR(P159="System",P159="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W159,IF(P159="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P159="Fuel Tank",IF(X159="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X159="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X159,CHAR(10),"    fuelTankSizeUpgrade = ",Y159),_xlfn.CONCAT("    fuelTankUpgradeType = ",X159))),"")))))))</f>
+        <f>IF(P159="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O159&lt;3,"0_2",IF(O159&lt;5,"3_4",IF(O159&lt;7,"5_6",IF(O159&lt;9,"7_8","9Plus"))))),IF(P159="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U159),IF(P159="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V159,CHAR(10),Parts!AP159,CHAR(10),"    enginePartUpgradeName = ",W159),IF(P159="Parachute","    parachuteUpgradeType = standard",IF(P159="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O159),IF(OR(P159="System",P159="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W159,IF(P159="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P159="Fuel Tank",IF(X159="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X159="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X159,CHAR(10),"    fuelTankSizeUpgrade = ",Y159),_xlfn.CONCAT("    fuelTankUpgradeType = ",X159))),IF(P159="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size156</v>
       </c>
@@ -32415,7 +32384,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>371</v>
       </c>
@@ -32514,7 +32483,7 @@
       </c>
       <c r="AL160" s="14"/>
       <c r="AM160" s="15" t="str">
-        <f>IF(P160="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O160&lt;3,"0_2",IF(O160&lt;5,"3_4",IF(O160&lt;7,"5_6",IF(O160&lt;9,"7_8","9Plus"))))),IF(P160="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U160),IF(P160="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V160,CHAR(10),Parts!AP160,CHAR(10),"    enginePartUpgradeName = ",W160),IF(P160="Parachute","    parachuteUpgradeType = standard",IF(P160="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O160),IF(OR(P160="System",P160="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W160,IF(P160="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P160="Fuel Tank",IF(X160="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X160="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X160,CHAR(10),"    fuelTankSizeUpgrade = ",Y160),_xlfn.CONCAT("    fuelTankUpgradeType = ",X160))),"")))))))</f>
+        <f>IF(P160="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O160&lt;3,"0_2",IF(O160&lt;5,"3_4",IF(O160&lt;7,"5_6",IF(O160&lt;9,"7_8","9Plus"))))),IF(P160="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U160),IF(P160="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V160,CHAR(10),Parts!AP160,CHAR(10),"    enginePartUpgradeName = ",W160),IF(P160="Parachute","    parachuteUpgradeType = standard",IF(P160="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O160),IF(OR(P160="System",P160="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W160,IF(P160="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P160="Fuel Tank",IF(X160="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X160="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X160,CHAR(10),"    fuelTankSizeUpgrade = ",Y160),_xlfn.CONCAT("    fuelTankUpgradeType = ",X160))),IF(P160="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size157</v>
       </c>
@@ -32538,7 +32507,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -32637,7 +32606,7 @@
       </c>
       <c r="AL161" s="14"/>
       <c r="AM161" s="15" t="str">
-        <f>IF(P161="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O161&lt;3,"0_2",IF(O161&lt;5,"3_4",IF(O161&lt;7,"5_6",IF(O161&lt;9,"7_8","9Plus"))))),IF(P161="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U161),IF(P161="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V161,CHAR(10),Parts!AP161,CHAR(10),"    enginePartUpgradeName = ",W161),IF(P161="Parachute","    parachuteUpgradeType = standard",IF(P161="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O161),IF(OR(P161="System",P161="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W161,IF(P161="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P161="Fuel Tank",IF(X161="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X161="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X161,CHAR(10),"    fuelTankSizeUpgrade = ",Y161),_xlfn.CONCAT("    fuelTankUpgradeType = ",X161))),"")))))))</f>
+        <f>IF(P161="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O161&lt;3,"0_2",IF(O161&lt;5,"3_4",IF(O161&lt;7,"5_6",IF(O161&lt;9,"7_8","9Plus"))))),IF(P161="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U161),IF(P161="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V161,CHAR(10),Parts!AP161,CHAR(10),"    enginePartUpgradeName = ",W161),IF(P161="Parachute","    parachuteUpgradeType = standard",IF(P161="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O161),IF(OR(P161="System",P161="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W161,IF(P161="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P161="Fuel Tank",IF(X161="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X161="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X161,CHAR(10),"    fuelTankSizeUpgrade = ",Y161),_xlfn.CONCAT("    fuelTankUpgradeType = ",X161))),IF(P161="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size158</v>
       </c>
@@ -32661,7 +32630,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -32760,7 +32729,7 @@
       </c>
       <c r="AL162" s="14"/>
       <c r="AM162" s="15" t="str">
-        <f>IF(P162="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O162&lt;3,"0_2",IF(O162&lt;5,"3_4",IF(O162&lt;7,"5_6",IF(O162&lt;9,"7_8","9Plus"))))),IF(P162="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U162),IF(P162="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V162,CHAR(10),Parts!AP162,CHAR(10),"    enginePartUpgradeName = ",W162),IF(P162="Parachute","    parachuteUpgradeType = standard",IF(P162="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O162),IF(OR(P162="System",P162="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W162,IF(P162="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P162="Fuel Tank",IF(X162="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X162="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X162,CHAR(10),"    fuelTankSizeUpgrade = ",Y162),_xlfn.CONCAT("    fuelTankUpgradeType = ",X162))),"")))))))</f>
+        <f>IF(P162="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O162&lt;3,"0_2",IF(O162&lt;5,"3_4",IF(O162&lt;7,"5_6",IF(O162&lt;9,"7_8","9Plus"))))),IF(P162="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U162),IF(P162="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V162,CHAR(10),Parts!AP162,CHAR(10),"    enginePartUpgradeName = ",W162),IF(P162="Parachute","    parachuteUpgradeType = standard",IF(P162="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O162),IF(OR(P162="System",P162="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W162,IF(P162="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P162="Fuel Tank",IF(X162="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X162="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X162,CHAR(10),"    fuelTankSizeUpgrade = ",Y162),_xlfn.CONCAT("    fuelTankUpgradeType = ",X162))),IF(P162="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size159</v>
       </c>
@@ -32784,7 +32753,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>371</v>
       </c>
@@ -32883,7 +32852,7 @@
       </c>
       <c r="AL163" s="14"/>
       <c r="AM163" s="15" t="str">
-        <f>IF(P163="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O163&lt;3,"0_2",IF(O163&lt;5,"3_4",IF(O163&lt;7,"5_6",IF(O163&lt;9,"7_8","9Plus"))))),IF(P163="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U163),IF(P163="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V163,CHAR(10),Parts!AP163,CHAR(10),"    enginePartUpgradeName = ",W163),IF(P163="Parachute","    parachuteUpgradeType = standard",IF(P163="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O163),IF(OR(P163="System",P163="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W163,IF(P163="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P163="Fuel Tank",IF(X163="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X163="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X163,CHAR(10),"    fuelTankSizeUpgrade = ",Y163),_xlfn.CONCAT("    fuelTankUpgradeType = ",X163))),"")))))))</f>
+        <f>IF(P163="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O163&lt;3,"0_2",IF(O163&lt;5,"3_4",IF(O163&lt;7,"5_6",IF(O163&lt;9,"7_8","9Plus"))))),IF(P163="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U163),IF(P163="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V163,CHAR(10),Parts!AP163,CHAR(10),"    enginePartUpgradeName = ",W163),IF(P163="Parachute","    parachuteUpgradeType = standard",IF(P163="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O163),IF(OR(P163="System",P163="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W163,IF(P163="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P163="Fuel Tank",IF(X163="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X163="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X163,CHAR(10),"    fuelTankSizeUpgrade = ",Y163),_xlfn.CONCAT("    fuelTankUpgradeType = ",X163))),IF(P163="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size160</v>
       </c>
@@ -32907,7 +32876,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>371</v>
       </c>
@@ -33006,7 +32975,7 @@
       </c>
       <c r="AL164" s="14"/>
       <c r="AM164" s="15" t="str">
-        <f>IF(P164="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O164&lt;3,"0_2",IF(O164&lt;5,"3_4",IF(O164&lt;7,"5_6",IF(O164&lt;9,"7_8","9Plus"))))),IF(P164="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U164),IF(P164="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V164,CHAR(10),Parts!AP164,CHAR(10),"    enginePartUpgradeName = ",W164),IF(P164="Parachute","    parachuteUpgradeType = standard",IF(P164="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O164),IF(OR(P164="System",P164="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W164,IF(P164="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P164="Fuel Tank",IF(X164="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X164="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X164,CHAR(10),"    fuelTankSizeUpgrade = ",Y164),_xlfn.CONCAT("    fuelTankUpgradeType = ",X164))),"")))))))</f>
+        <f>IF(P164="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O164&lt;3,"0_2",IF(O164&lt;5,"3_4",IF(O164&lt;7,"5_6",IF(O164&lt;9,"7_8","9Plus"))))),IF(P164="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U164),IF(P164="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V164,CHAR(10),Parts!AP164,CHAR(10),"    enginePartUpgradeName = ",W164),IF(P164="Parachute","    parachuteUpgradeType = standard",IF(P164="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O164),IF(OR(P164="System",P164="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W164,IF(P164="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P164="Fuel Tank",IF(X164="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X164="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X164,CHAR(10),"    fuelTankSizeUpgrade = ",Y164),_xlfn.CONCAT("    fuelTankUpgradeType = ",X164))),IF(P164="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size161</v>
       </c>
@@ -33030,7 +32999,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>371</v>
       </c>
@@ -33129,7 +33098,7 @@
       </c>
       <c r="AL165" s="14"/>
       <c r="AM165" s="15" t="str">
-        <f>IF(P165="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O165&lt;3,"0_2",IF(O165&lt;5,"3_4",IF(O165&lt;7,"5_6",IF(O165&lt;9,"7_8","9Plus"))))),IF(P165="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U165),IF(P165="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V165,CHAR(10),Parts!AP165,CHAR(10),"    enginePartUpgradeName = ",W165),IF(P165="Parachute","    parachuteUpgradeType = standard",IF(P165="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O165),IF(OR(P165="System",P165="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W165,IF(P165="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P165="Fuel Tank",IF(X165="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X165="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X165,CHAR(10),"    fuelTankSizeUpgrade = ",Y165),_xlfn.CONCAT("    fuelTankUpgradeType = ",X165))),"")))))))</f>
+        <f>IF(P165="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O165&lt;3,"0_2",IF(O165&lt;5,"3_4",IF(O165&lt;7,"5_6",IF(O165&lt;9,"7_8","9Plus"))))),IF(P165="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U165),IF(P165="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V165,CHAR(10),Parts!AP165,CHAR(10),"    enginePartUpgradeName = ",W165),IF(P165="Parachute","    parachuteUpgradeType = standard",IF(P165="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O165),IF(OR(P165="System",P165="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W165,IF(P165="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P165="Fuel Tank",IF(X165="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X165="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X165,CHAR(10),"    fuelTankSizeUpgrade = ",Y165),_xlfn.CONCAT("    fuelTankUpgradeType = ",X165))),IF(P165="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size162</v>
       </c>
@@ -33153,7 +33122,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>371</v>
       </c>
@@ -33252,7 +33221,7 @@
       </c>
       <c r="AL166" s="14"/>
       <c r="AM166" s="15" t="str">
-        <f>IF(P166="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O166&lt;3,"0_2",IF(O166&lt;5,"3_4",IF(O166&lt;7,"5_6",IF(O166&lt;9,"7_8","9Plus"))))),IF(P166="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U166),IF(P166="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V166,CHAR(10),Parts!AP166,CHAR(10),"    enginePartUpgradeName = ",W166),IF(P166="Parachute","    parachuteUpgradeType = standard",IF(P166="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O166),IF(OR(P166="System",P166="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W166,IF(P166="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P166="Fuel Tank",IF(X166="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X166="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X166,CHAR(10),"    fuelTankSizeUpgrade = ",Y166),_xlfn.CONCAT("    fuelTankUpgradeType = ",X166))),"")))))))</f>
+        <f>IF(P166="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O166&lt;3,"0_2",IF(O166&lt;5,"3_4",IF(O166&lt;7,"5_6",IF(O166&lt;9,"7_8","9Plus"))))),IF(P166="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U166),IF(P166="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V166,CHAR(10),Parts!AP166,CHAR(10),"    enginePartUpgradeName = ",W166),IF(P166="Parachute","    parachuteUpgradeType = standard",IF(P166="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O166),IF(OR(P166="System",P166="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W166,IF(P166="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P166="Fuel Tank",IF(X166="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X166="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X166,CHAR(10),"    fuelTankSizeUpgrade = ",Y166),_xlfn.CONCAT("    fuelTankUpgradeType = ",X166))),IF(P166="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size163</v>
       </c>
@@ -33276,7 +33245,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>371</v>
       </c>
@@ -33375,7 +33344,7 @@
       </c>
       <c r="AL167" s="14"/>
       <c r="AM167" s="15" t="str">
-        <f>IF(P167="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O167&lt;3,"0_2",IF(O167&lt;5,"3_4",IF(O167&lt;7,"5_6",IF(O167&lt;9,"7_8","9Plus"))))),IF(P167="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U167),IF(P167="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V167,CHAR(10),Parts!AP167,CHAR(10),"    enginePartUpgradeName = ",W167),IF(P167="Parachute","    parachuteUpgradeType = standard",IF(P167="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O167),IF(OR(P167="System",P167="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W167,IF(P167="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P167="Fuel Tank",IF(X167="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X167="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X167,CHAR(10),"    fuelTankSizeUpgrade = ",Y167),_xlfn.CONCAT("    fuelTankUpgradeType = ",X167))),"")))))))</f>
+        <f>IF(P167="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O167&lt;3,"0_2",IF(O167&lt;5,"3_4",IF(O167&lt;7,"5_6",IF(O167&lt;9,"7_8","9Plus"))))),IF(P167="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U167),IF(P167="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V167,CHAR(10),Parts!AP167,CHAR(10),"    enginePartUpgradeName = ",W167),IF(P167="Parachute","    parachuteUpgradeType = standard",IF(P167="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O167),IF(OR(P167="System",P167="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W167,IF(P167="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P167="Fuel Tank",IF(X167="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X167="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X167,CHAR(10),"    fuelTankSizeUpgrade = ",Y167),_xlfn.CONCAT("    fuelTankUpgradeType = ",X167))),IF(P167="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size164</v>
       </c>
@@ -33399,7 +33368,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>371</v>
       </c>
@@ -33498,7 +33467,7 @@
       </c>
       <c r="AL168" s="14"/>
       <c r="AM168" s="15" t="str">
-        <f>IF(P168="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O168&lt;3,"0_2",IF(O168&lt;5,"3_4",IF(O168&lt;7,"5_6",IF(O168&lt;9,"7_8","9Plus"))))),IF(P168="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U168),IF(P168="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V168,CHAR(10),Parts!AP168,CHAR(10),"    enginePartUpgradeName = ",W168),IF(P168="Parachute","    parachuteUpgradeType = standard",IF(P168="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O168),IF(OR(P168="System",P168="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W168,IF(P168="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P168="Fuel Tank",IF(X168="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X168="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X168,CHAR(10),"    fuelTankSizeUpgrade = ",Y168),_xlfn.CONCAT("    fuelTankUpgradeType = ",X168))),"")))))))</f>
+        <f>IF(P168="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O168&lt;3,"0_2",IF(O168&lt;5,"3_4",IF(O168&lt;7,"5_6",IF(O168&lt;9,"7_8","9Plus"))))),IF(P168="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U168),IF(P168="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V168,CHAR(10),Parts!AP168,CHAR(10),"    enginePartUpgradeName = ",W168),IF(P168="Parachute","    parachuteUpgradeType = standard",IF(P168="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O168),IF(OR(P168="System",P168="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W168,IF(P168="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P168="Fuel Tank",IF(X168="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X168="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X168,CHAR(10),"    fuelTankSizeUpgrade = ",Y168),_xlfn.CONCAT("    fuelTankUpgradeType = ",X168))),IF(P168="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size165</v>
       </c>
@@ -33522,7 +33491,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>371</v>
       </c>
@@ -33621,7 +33590,7 @@
       </c>
       <c r="AL169" s="14"/>
       <c r="AM169" s="15" t="str">
-        <f>IF(P169="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O169&lt;3,"0_2",IF(O169&lt;5,"3_4",IF(O169&lt;7,"5_6",IF(O169&lt;9,"7_8","9Plus"))))),IF(P169="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U169),IF(P169="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V169,CHAR(10),Parts!AP169,CHAR(10),"    enginePartUpgradeName = ",W169),IF(P169="Parachute","    parachuteUpgradeType = standard",IF(P169="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O169),IF(OR(P169="System",P169="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W169,IF(P169="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P169="Fuel Tank",IF(X169="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X169="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X169,CHAR(10),"    fuelTankSizeUpgrade = ",Y169),_xlfn.CONCAT("    fuelTankUpgradeType = ",X169))),"")))))))</f>
+        <f>IF(P169="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O169&lt;3,"0_2",IF(O169&lt;5,"3_4",IF(O169&lt;7,"5_6",IF(O169&lt;9,"7_8","9Plus"))))),IF(P169="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U169),IF(P169="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V169,CHAR(10),Parts!AP169,CHAR(10),"    enginePartUpgradeName = ",W169),IF(P169="Parachute","    parachuteUpgradeType = standard",IF(P169="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O169),IF(OR(P169="System",P169="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W169,IF(P169="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P169="Fuel Tank",IF(X169="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X169="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X169,CHAR(10),"    fuelTankSizeUpgrade = ",Y169),_xlfn.CONCAT("    fuelTankUpgradeType = ",X169))),IF(P169="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size166</v>
       </c>
@@ -33645,7 +33614,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -33744,7 +33713,7 @@
       </c>
       <c r="AL170" s="14"/>
       <c r="AM170" s="15" t="str">
-        <f>IF(P170="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O170&lt;3,"0_2",IF(O170&lt;5,"3_4",IF(O170&lt;7,"5_6",IF(O170&lt;9,"7_8","9Plus"))))),IF(P170="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U170),IF(P170="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V170,CHAR(10),Parts!AP170,CHAR(10),"    enginePartUpgradeName = ",W170),IF(P170="Parachute","    parachuteUpgradeType = standard",IF(P170="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O170),IF(OR(P170="System",P170="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W170,IF(P170="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P170="Fuel Tank",IF(X170="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X170="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X170,CHAR(10),"    fuelTankSizeUpgrade = ",Y170),_xlfn.CONCAT("    fuelTankUpgradeType = ",X170))),"")))))))</f>
+        <f>IF(P170="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O170&lt;3,"0_2",IF(O170&lt;5,"3_4",IF(O170&lt;7,"5_6",IF(O170&lt;9,"7_8","9Plus"))))),IF(P170="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U170),IF(P170="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V170,CHAR(10),Parts!AP170,CHAR(10),"    enginePartUpgradeName = ",W170),IF(P170="Parachute","    parachuteUpgradeType = standard",IF(P170="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O170),IF(OR(P170="System",P170="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W170,IF(P170="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P170="Fuel Tank",IF(X170="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X170="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X170,CHAR(10),"    fuelTankSizeUpgrade = ",Y170),_xlfn.CONCAT("    fuelTankUpgradeType = ",X170))),IF(P170="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size167</v>
       </c>
@@ -33768,7 +33737,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>371</v>
       </c>
@@ -33867,7 +33836,7 @@
       </c>
       <c r="AL171" s="14"/>
       <c r="AM171" s="15" t="str">
-        <f>IF(P171="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O171&lt;3,"0_2",IF(O171&lt;5,"3_4",IF(O171&lt;7,"5_6",IF(O171&lt;9,"7_8","9Plus"))))),IF(P171="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U171),IF(P171="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V171,CHAR(10),Parts!AP171,CHAR(10),"    enginePartUpgradeName = ",W171),IF(P171="Parachute","    parachuteUpgradeType = standard",IF(P171="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O171),IF(OR(P171="System",P171="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W171,IF(P171="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P171="Fuel Tank",IF(X171="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X171="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X171,CHAR(10),"    fuelTankSizeUpgrade = ",Y171),_xlfn.CONCAT("    fuelTankUpgradeType = ",X171))),"")))))))</f>
+        <f>IF(P171="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O171&lt;3,"0_2",IF(O171&lt;5,"3_4",IF(O171&lt;7,"5_6",IF(O171&lt;9,"7_8","9Plus"))))),IF(P171="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U171),IF(P171="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V171,CHAR(10),Parts!AP171,CHAR(10),"    enginePartUpgradeName = ",W171),IF(P171="Parachute","    parachuteUpgradeType = standard",IF(P171="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O171),IF(OR(P171="System",P171="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W171,IF(P171="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P171="Fuel Tank",IF(X171="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X171="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X171,CHAR(10),"    fuelTankSizeUpgrade = ",Y171),_xlfn.CONCAT("    fuelTankUpgradeType = ",X171))),IF(P171="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size168</v>
       </c>
@@ -33891,7 +33860,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>371</v>
       </c>
@@ -33990,7 +33959,7 @@
       </c>
       <c r="AL172" s="14"/>
       <c r="AM172" s="15" t="str">
-        <f>IF(P172="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O172&lt;3,"0_2",IF(O172&lt;5,"3_4",IF(O172&lt;7,"5_6",IF(O172&lt;9,"7_8","9Plus"))))),IF(P172="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U172),IF(P172="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V172,CHAR(10),Parts!AP172,CHAR(10),"    enginePartUpgradeName = ",W172),IF(P172="Parachute","    parachuteUpgradeType = standard",IF(P172="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O172),IF(OR(P172="System",P172="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W172,IF(P172="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P172="Fuel Tank",IF(X172="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X172="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X172,CHAR(10),"    fuelTankSizeUpgrade = ",Y172),_xlfn.CONCAT("    fuelTankUpgradeType = ",X172))),"")))))))</f>
+        <f>IF(P172="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O172&lt;3,"0_2",IF(O172&lt;5,"3_4",IF(O172&lt;7,"5_6",IF(O172&lt;9,"7_8","9Plus"))))),IF(P172="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U172),IF(P172="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V172,CHAR(10),Parts!AP172,CHAR(10),"    enginePartUpgradeName = ",W172),IF(P172="Parachute","    parachuteUpgradeType = standard",IF(P172="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O172),IF(OR(P172="System",P172="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W172,IF(P172="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P172="Fuel Tank",IF(X172="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X172="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X172,CHAR(10),"    fuelTankSizeUpgrade = ",Y172),_xlfn.CONCAT("    fuelTankUpgradeType = ",X172))),IF(P172="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size169</v>
       </c>
@@ -34014,7 +33983,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>371</v>
       </c>
@@ -34113,7 +34082,7 @@
       </c>
       <c r="AL173" s="14"/>
       <c r="AM173" s="15" t="str">
-        <f>IF(P173="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O173&lt;3,"0_2",IF(O173&lt;5,"3_4",IF(O173&lt;7,"5_6",IF(O173&lt;9,"7_8","9Plus"))))),IF(P173="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U173),IF(P173="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V173,CHAR(10),Parts!AP173,CHAR(10),"    enginePartUpgradeName = ",W173),IF(P173="Parachute","    parachuteUpgradeType = standard",IF(P173="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O173),IF(OR(P173="System",P173="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W173,IF(P173="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P173="Fuel Tank",IF(X173="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X173="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X173,CHAR(10),"    fuelTankSizeUpgrade = ",Y173),_xlfn.CONCAT("    fuelTankUpgradeType = ",X173))),"")))))))</f>
+        <f>IF(P173="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O173&lt;3,"0_2",IF(O173&lt;5,"3_4",IF(O173&lt;7,"5_6",IF(O173&lt;9,"7_8","9Plus"))))),IF(P173="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U173),IF(P173="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V173,CHAR(10),Parts!AP173,CHAR(10),"    enginePartUpgradeName = ",W173),IF(P173="Parachute","    parachuteUpgradeType = standard",IF(P173="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O173),IF(OR(P173="System",P173="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W173,IF(P173="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P173="Fuel Tank",IF(X173="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X173="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X173,CHAR(10),"    fuelTankSizeUpgrade = ",Y173),_xlfn.CONCAT("    fuelTankUpgradeType = ",X173))),IF(P173="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size170</v>
       </c>
@@ -34137,7 +34106,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>371</v>
       </c>
@@ -34236,7 +34205,7 @@
       </c>
       <c r="AL174" s="14"/>
       <c r="AM174" s="15" t="str">
-        <f>IF(P174="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O174&lt;3,"0_2",IF(O174&lt;5,"3_4",IF(O174&lt;7,"5_6",IF(O174&lt;9,"7_8","9Plus"))))),IF(P174="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U174),IF(P174="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V174,CHAR(10),Parts!AP174,CHAR(10),"    enginePartUpgradeName = ",W174),IF(P174="Parachute","    parachuteUpgradeType = standard",IF(P174="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O174),IF(OR(P174="System",P174="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W174,IF(P174="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P174="Fuel Tank",IF(X174="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X174="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X174,CHAR(10),"    fuelTankSizeUpgrade = ",Y174),_xlfn.CONCAT("    fuelTankUpgradeType = ",X174))),"")))))))</f>
+        <f>IF(P174="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O174&lt;3,"0_2",IF(O174&lt;5,"3_4",IF(O174&lt;7,"5_6",IF(O174&lt;9,"7_8","9Plus"))))),IF(P174="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U174),IF(P174="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V174,CHAR(10),Parts!AP174,CHAR(10),"    enginePartUpgradeName = ",W174),IF(P174="Parachute","    parachuteUpgradeType = standard",IF(P174="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O174),IF(OR(P174="System",P174="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W174,IF(P174="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P174="Fuel Tank",IF(X174="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X174="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X174,CHAR(10),"    fuelTankSizeUpgrade = ",Y174),_xlfn.CONCAT("    fuelTankUpgradeType = ",X174))),IF(P174="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size171</v>
       </c>
@@ -34260,7 +34229,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>371</v>
       </c>
@@ -34359,7 +34328,7 @@
       </c>
       <c r="AL175" s="14"/>
       <c r="AM175" s="15" t="str">
-        <f>IF(P175="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O175&lt;3,"0_2",IF(O175&lt;5,"3_4",IF(O175&lt;7,"5_6",IF(O175&lt;9,"7_8","9Plus"))))),IF(P175="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U175),IF(P175="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V175,CHAR(10),Parts!AP175,CHAR(10),"    enginePartUpgradeName = ",W175),IF(P175="Parachute","    parachuteUpgradeType = standard",IF(P175="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O175),IF(OR(P175="System",P175="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W175,IF(P175="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P175="Fuel Tank",IF(X175="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X175="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X175,CHAR(10),"    fuelTankSizeUpgrade = ",Y175),_xlfn.CONCAT("    fuelTankUpgradeType = ",X175))),"")))))))</f>
+        <f>IF(P175="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O175&lt;3,"0_2",IF(O175&lt;5,"3_4",IF(O175&lt;7,"5_6",IF(O175&lt;9,"7_8","9Plus"))))),IF(P175="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U175),IF(P175="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V175,CHAR(10),Parts!AP175,CHAR(10),"    enginePartUpgradeName = ",W175),IF(P175="Parachute","    parachuteUpgradeType = standard",IF(P175="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O175),IF(OR(P175="System",P175="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W175,IF(P175="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P175="Fuel Tank",IF(X175="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X175="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X175,CHAR(10),"    fuelTankSizeUpgrade = ",Y175),_xlfn.CONCAT("    fuelTankUpgradeType = ",X175))),IF(P175="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size172</v>
       </c>
@@ -34383,7 +34352,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>371</v>
       </c>
@@ -34482,7 +34451,7 @@
       </c>
       <c r="AL176" s="14"/>
       <c r="AM176" s="15" t="str">
-        <f>IF(P176="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O176&lt;3,"0_2",IF(O176&lt;5,"3_4",IF(O176&lt;7,"5_6",IF(O176&lt;9,"7_8","9Plus"))))),IF(P176="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U176),IF(P176="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V176,CHAR(10),Parts!AP176,CHAR(10),"    enginePartUpgradeName = ",W176),IF(P176="Parachute","    parachuteUpgradeType = standard",IF(P176="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O176),IF(OR(P176="System",P176="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W176,IF(P176="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P176="Fuel Tank",IF(X176="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X176="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X176,CHAR(10),"    fuelTankSizeUpgrade = ",Y176),_xlfn.CONCAT("    fuelTankUpgradeType = ",X176))),"")))))))</f>
+        <f>IF(P176="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O176&lt;3,"0_2",IF(O176&lt;5,"3_4",IF(O176&lt;7,"5_6",IF(O176&lt;9,"7_8","9Plus"))))),IF(P176="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U176),IF(P176="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V176,CHAR(10),Parts!AP176,CHAR(10),"    enginePartUpgradeName = ",W176),IF(P176="Parachute","    parachuteUpgradeType = standard",IF(P176="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O176),IF(OR(P176="System",P176="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W176,IF(P176="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P176="Fuel Tank",IF(X176="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X176="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X176,CHAR(10),"    fuelTankSizeUpgrade = ",Y176),_xlfn.CONCAT("    fuelTankUpgradeType = ",X176))),IF(P176="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size173</v>
       </c>
@@ -34506,7 +34475,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>371</v>
       </c>
@@ -34605,7 +34574,7 @@
       </c>
       <c r="AL177" s="14"/>
       <c r="AM177" s="15" t="str">
-        <f>IF(P177="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O177&lt;3,"0_2",IF(O177&lt;5,"3_4",IF(O177&lt;7,"5_6",IF(O177&lt;9,"7_8","9Plus"))))),IF(P177="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U177),IF(P177="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V177,CHAR(10),Parts!AP177,CHAR(10),"    enginePartUpgradeName = ",W177),IF(P177="Parachute","    parachuteUpgradeType = standard",IF(P177="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O177),IF(OR(P177="System",P177="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W177,IF(P177="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P177="Fuel Tank",IF(X177="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X177="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X177,CHAR(10),"    fuelTankSizeUpgrade = ",Y177),_xlfn.CONCAT("    fuelTankUpgradeType = ",X177))),"")))))))</f>
+        <f>IF(P177="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O177&lt;3,"0_2",IF(O177&lt;5,"3_4",IF(O177&lt;7,"5_6",IF(O177&lt;9,"7_8","9Plus"))))),IF(P177="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U177),IF(P177="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V177,CHAR(10),Parts!AP177,CHAR(10),"    enginePartUpgradeName = ",W177),IF(P177="Parachute","    parachuteUpgradeType = standard",IF(P177="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O177),IF(OR(P177="System",P177="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W177,IF(P177="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P177="Fuel Tank",IF(X177="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X177="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X177,CHAR(10),"    fuelTankSizeUpgrade = ",Y177),_xlfn.CONCAT("    fuelTankUpgradeType = ",X177))),IF(P177="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size174</v>
       </c>
@@ -34629,7 +34598,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -34728,7 +34697,7 @@
       </c>
       <c r="AL178" s="14"/>
       <c r="AM178" s="15" t="str">
-        <f>IF(P178="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O178&lt;3,"0_2",IF(O178&lt;5,"3_4",IF(O178&lt;7,"5_6",IF(O178&lt;9,"7_8","9Plus"))))),IF(P178="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U178),IF(P178="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V178,CHAR(10),Parts!AP178,CHAR(10),"    enginePartUpgradeName = ",W178),IF(P178="Parachute","    parachuteUpgradeType = standard",IF(P178="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O178),IF(OR(P178="System",P178="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W178,IF(P178="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P178="Fuel Tank",IF(X178="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X178="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X178,CHAR(10),"    fuelTankSizeUpgrade = ",Y178),_xlfn.CONCAT("    fuelTankUpgradeType = ",X178))),"")))))))</f>
+        <f>IF(P178="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O178&lt;3,"0_2",IF(O178&lt;5,"3_4",IF(O178&lt;7,"5_6",IF(O178&lt;9,"7_8","9Plus"))))),IF(P178="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U178),IF(P178="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V178,CHAR(10),Parts!AP178,CHAR(10),"    enginePartUpgradeName = ",W178),IF(P178="Parachute","    parachuteUpgradeType = standard",IF(P178="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O178),IF(OR(P178="System",P178="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W178,IF(P178="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P178="Fuel Tank",IF(X178="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X178="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X178,CHAR(10),"    fuelTankSizeUpgrade = ",Y178),_xlfn.CONCAT("    fuelTankUpgradeType = ",X178))),IF(P178="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size175</v>
       </c>
@@ -34752,7 +34721,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>371</v>
       </c>
@@ -34851,7 +34820,7 @@
       </c>
       <c r="AL179" s="14"/>
       <c r="AM179" s="15" t="str">
-        <f>IF(P179="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O179&lt;3,"0_2",IF(O179&lt;5,"3_4",IF(O179&lt;7,"5_6",IF(O179&lt;9,"7_8","9Plus"))))),IF(P179="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U179),IF(P179="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V179,CHAR(10),Parts!AP179,CHAR(10),"    enginePartUpgradeName = ",W179),IF(P179="Parachute","    parachuteUpgradeType = standard",IF(P179="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O179),IF(OR(P179="System",P179="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W179,IF(P179="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P179="Fuel Tank",IF(X179="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X179="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X179,CHAR(10),"    fuelTankSizeUpgrade = ",Y179),_xlfn.CONCAT("    fuelTankUpgradeType = ",X179))),"")))))))</f>
+        <f>IF(P179="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O179&lt;3,"0_2",IF(O179&lt;5,"3_4",IF(O179&lt;7,"5_6",IF(O179&lt;9,"7_8","9Plus"))))),IF(P179="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U179),IF(P179="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V179,CHAR(10),Parts!AP179,CHAR(10),"    enginePartUpgradeName = ",W179),IF(P179="Parachute","    parachuteUpgradeType = standard",IF(P179="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O179),IF(OR(P179="System",P179="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W179,IF(P179="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P179="Fuel Tank",IF(X179="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X179="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X179,CHAR(10),"    fuelTankSizeUpgrade = ",Y179),_xlfn.CONCAT("    fuelTankUpgradeType = ",X179))),IF(P179="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size176</v>
       </c>
@@ -34875,7 +34844,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -34974,7 +34943,7 @@
       </c>
       <c r="AL180" s="14"/>
       <c r="AM180" s="15" t="str">
-        <f>IF(P180="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O180&lt;3,"0_2",IF(O180&lt;5,"3_4",IF(O180&lt;7,"5_6",IF(O180&lt;9,"7_8","9Plus"))))),IF(P180="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U180),IF(P180="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V180,CHAR(10),Parts!AP180,CHAR(10),"    enginePartUpgradeName = ",W180),IF(P180="Parachute","    parachuteUpgradeType = standard",IF(P180="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O180),IF(OR(P180="System",P180="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W180,IF(P180="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P180="Fuel Tank",IF(X180="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X180="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X180,CHAR(10),"    fuelTankSizeUpgrade = ",Y180),_xlfn.CONCAT("    fuelTankUpgradeType = ",X180))),"")))))))</f>
+        <f>IF(P180="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O180&lt;3,"0_2",IF(O180&lt;5,"3_4",IF(O180&lt;7,"5_6",IF(O180&lt;9,"7_8","9Plus"))))),IF(P180="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U180),IF(P180="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V180,CHAR(10),Parts!AP180,CHAR(10),"    enginePartUpgradeName = ",W180),IF(P180="Parachute","    parachuteUpgradeType = standard",IF(P180="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O180),IF(OR(P180="System",P180="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W180,IF(P180="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P180="Fuel Tank",IF(X180="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X180="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X180,CHAR(10),"    fuelTankSizeUpgrade = ",Y180),_xlfn.CONCAT("    fuelTankUpgradeType = ",X180))),IF(P180="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size177</v>
       </c>
@@ -34998,7 +34967,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>371</v>
       </c>
@@ -35097,7 +35066,7 @@
       </c>
       <c r="AL181" s="14"/>
       <c r="AM181" s="15" t="str">
-        <f>IF(P181="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O181&lt;3,"0_2",IF(O181&lt;5,"3_4",IF(O181&lt;7,"5_6",IF(O181&lt;9,"7_8","9Plus"))))),IF(P181="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U181),IF(P181="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V181,CHAR(10),Parts!AP181,CHAR(10),"    enginePartUpgradeName = ",W181),IF(P181="Parachute","    parachuteUpgradeType = standard",IF(P181="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O181),IF(OR(P181="System",P181="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W181,IF(P181="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P181="Fuel Tank",IF(X181="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X181="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X181,CHAR(10),"    fuelTankSizeUpgrade = ",Y181),_xlfn.CONCAT("    fuelTankUpgradeType = ",X181))),"")))))))</f>
+        <f>IF(P181="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O181&lt;3,"0_2",IF(O181&lt;5,"3_4",IF(O181&lt;7,"5_6",IF(O181&lt;9,"7_8","9Plus"))))),IF(P181="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U181),IF(P181="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V181,CHAR(10),Parts!AP181,CHAR(10),"    enginePartUpgradeName = ",W181),IF(P181="Parachute","    parachuteUpgradeType = standard",IF(P181="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O181),IF(OR(P181="System",P181="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W181,IF(P181="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P181="Fuel Tank",IF(X181="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X181="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X181,CHAR(10),"    fuelTankSizeUpgrade = ",Y181),_xlfn.CONCAT("    fuelTankUpgradeType = ",X181))),IF(P181="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size178</v>
       </c>
@@ -35121,7 +35090,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>371</v>
       </c>
@@ -35220,7 +35189,7 @@
       </c>
       <c r="AL182" s="14"/>
       <c r="AM182" s="15" t="str">
-        <f>IF(P182="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O182&lt;3,"0_2",IF(O182&lt;5,"3_4",IF(O182&lt;7,"5_6",IF(O182&lt;9,"7_8","9Plus"))))),IF(P182="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U182),IF(P182="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V182,CHAR(10),Parts!AP182,CHAR(10),"    enginePartUpgradeName = ",W182),IF(P182="Parachute","    parachuteUpgradeType = standard",IF(P182="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O182),IF(OR(P182="System",P182="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W182,IF(P182="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P182="Fuel Tank",IF(X182="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X182="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X182,CHAR(10),"    fuelTankSizeUpgrade = ",Y182),_xlfn.CONCAT("    fuelTankUpgradeType = ",X182))),"")))))))</f>
+        <f>IF(P182="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O182&lt;3,"0_2",IF(O182&lt;5,"3_4",IF(O182&lt;7,"5_6",IF(O182&lt;9,"7_8","9Plus"))))),IF(P182="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U182),IF(P182="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V182,CHAR(10),Parts!AP182,CHAR(10),"    enginePartUpgradeName = ",W182),IF(P182="Parachute","    parachuteUpgradeType = standard",IF(P182="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O182),IF(OR(P182="System",P182="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W182,IF(P182="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P182="Fuel Tank",IF(X182="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X182="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X182,CHAR(10),"    fuelTankSizeUpgrade = ",Y182),_xlfn.CONCAT("    fuelTankUpgradeType = ",X182))),IF(P182="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size179</v>
       </c>
@@ -35244,7 +35213,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>371</v>
       </c>
@@ -35343,7 +35312,7 @@
       </c>
       <c r="AL183" s="14"/>
       <c r="AM183" s="15" t="str">
-        <f>IF(P183="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O183&lt;3,"0_2",IF(O183&lt;5,"3_4",IF(O183&lt;7,"5_6",IF(O183&lt;9,"7_8","9Plus"))))),IF(P183="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U183),IF(P183="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V183,CHAR(10),Parts!AP183,CHAR(10),"    enginePartUpgradeName = ",W183),IF(P183="Parachute","    parachuteUpgradeType = standard",IF(P183="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O183),IF(OR(P183="System",P183="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W183,IF(P183="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P183="Fuel Tank",IF(X183="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X183="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X183,CHAR(10),"    fuelTankSizeUpgrade = ",Y183),_xlfn.CONCAT("    fuelTankUpgradeType = ",X183))),"")))))))</f>
+        <f>IF(P183="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O183&lt;3,"0_2",IF(O183&lt;5,"3_4",IF(O183&lt;7,"5_6",IF(O183&lt;9,"7_8","9Plus"))))),IF(P183="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U183),IF(P183="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V183,CHAR(10),Parts!AP183,CHAR(10),"    enginePartUpgradeName = ",W183),IF(P183="Parachute","    parachuteUpgradeType = standard",IF(P183="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O183),IF(OR(P183="System",P183="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W183,IF(P183="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P183="Fuel Tank",IF(X183="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X183="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X183,CHAR(10),"    fuelTankSizeUpgrade = ",Y183),_xlfn.CONCAT("    fuelTankUpgradeType = ",X183))),IF(P183="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size180</v>
       </c>
@@ -35367,7 +35336,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>371</v>
       </c>
@@ -35466,7 +35435,7 @@
       </c>
       <c r="AL184" s="14"/>
       <c r="AM184" s="15" t="str">
-        <f>IF(P184="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O184&lt;3,"0_2",IF(O184&lt;5,"3_4",IF(O184&lt;7,"5_6",IF(O184&lt;9,"7_8","9Plus"))))),IF(P184="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U184),IF(P184="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V184,CHAR(10),Parts!AP184,CHAR(10),"    enginePartUpgradeName = ",W184),IF(P184="Parachute","    parachuteUpgradeType = standard",IF(P184="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O184),IF(OR(P184="System",P184="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W184,IF(P184="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P184="Fuel Tank",IF(X184="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X184="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X184,CHAR(10),"    fuelTankSizeUpgrade = ",Y184),_xlfn.CONCAT("    fuelTankUpgradeType = ",X184))),"")))))))</f>
+        <f>IF(P184="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O184&lt;3,"0_2",IF(O184&lt;5,"3_4",IF(O184&lt;7,"5_6",IF(O184&lt;9,"7_8","9Plus"))))),IF(P184="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U184),IF(P184="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V184,CHAR(10),Parts!AP184,CHAR(10),"    enginePartUpgradeName = ",W184),IF(P184="Parachute","    parachuteUpgradeType = standard",IF(P184="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O184),IF(OR(P184="System",P184="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W184,IF(P184="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P184="Fuel Tank",IF(X184="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X184="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X184,CHAR(10),"    fuelTankSizeUpgrade = ",Y184),_xlfn.CONCAT("    fuelTankUpgradeType = ",X184))),IF(P184="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size181</v>
       </c>
@@ -35490,7 +35459,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>371</v>
       </c>
@@ -35589,7 +35558,7 @@
       </c>
       <c r="AL185" s="14"/>
       <c r="AM185" s="15" t="str">
-        <f>IF(P185="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O185&lt;3,"0_2",IF(O185&lt;5,"3_4",IF(O185&lt;7,"5_6",IF(O185&lt;9,"7_8","9Plus"))))),IF(P185="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U185),IF(P185="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V185,CHAR(10),Parts!AP185,CHAR(10),"    enginePartUpgradeName = ",W185),IF(P185="Parachute","    parachuteUpgradeType = standard",IF(P185="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O185),IF(OR(P185="System",P185="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W185,IF(P185="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P185="Fuel Tank",IF(X185="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X185="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X185,CHAR(10),"    fuelTankSizeUpgrade = ",Y185),_xlfn.CONCAT("    fuelTankUpgradeType = ",X185))),"")))))))</f>
+        <f>IF(P185="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O185&lt;3,"0_2",IF(O185&lt;5,"3_4",IF(O185&lt;7,"5_6",IF(O185&lt;9,"7_8","9Plus"))))),IF(P185="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U185),IF(P185="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V185,CHAR(10),Parts!AP185,CHAR(10),"    enginePartUpgradeName = ",W185),IF(P185="Parachute","    parachuteUpgradeType = standard",IF(P185="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O185),IF(OR(P185="System",P185="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W185,IF(P185="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P185="Fuel Tank",IF(X185="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X185="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X185,CHAR(10),"    fuelTankSizeUpgrade = ",Y185),_xlfn.CONCAT("    fuelTankUpgradeType = ",X185))),IF(P185="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size182</v>
       </c>
@@ -35613,7 +35582,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -35712,7 +35681,7 @@
       </c>
       <c r="AL186" s="14"/>
       <c r="AM186" s="15" t="str">
-        <f>IF(P186="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O186&lt;3,"0_2",IF(O186&lt;5,"3_4",IF(O186&lt;7,"5_6",IF(O186&lt;9,"7_8","9Plus"))))),IF(P186="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U186),IF(P186="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V186,CHAR(10),Parts!AP186,CHAR(10),"    enginePartUpgradeName = ",W186),IF(P186="Parachute","    parachuteUpgradeType = standard",IF(P186="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O186),IF(OR(P186="System",P186="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W186,IF(P186="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P186="Fuel Tank",IF(X186="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X186="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X186,CHAR(10),"    fuelTankSizeUpgrade = ",Y186),_xlfn.CONCAT("    fuelTankUpgradeType = ",X186))),"")))))))</f>
+        <f>IF(P186="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O186&lt;3,"0_2",IF(O186&lt;5,"3_4",IF(O186&lt;7,"5_6",IF(O186&lt;9,"7_8","9Plus"))))),IF(P186="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U186),IF(P186="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V186,CHAR(10),Parts!AP186,CHAR(10),"    enginePartUpgradeName = ",W186),IF(P186="Parachute","    parachuteUpgradeType = standard",IF(P186="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O186),IF(OR(P186="System",P186="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W186,IF(P186="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P186="Fuel Tank",IF(X186="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X186="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X186,CHAR(10),"    fuelTankSizeUpgrade = ",Y186),_xlfn.CONCAT("    fuelTankUpgradeType = ",X186))),IF(P186="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size183</v>
       </c>
@@ -35736,7 +35705,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -35835,7 +35804,7 @@
       </c>
       <c r="AL187" s="14"/>
       <c r="AM187" s="15" t="str">
-        <f>IF(P187="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O187&lt;3,"0_2",IF(O187&lt;5,"3_4",IF(O187&lt;7,"5_6",IF(O187&lt;9,"7_8","9Plus"))))),IF(P187="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U187),IF(P187="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V187,CHAR(10),Parts!AP187,CHAR(10),"    enginePartUpgradeName = ",W187),IF(P187="Parachute","    parachuteUpgradeType = standard",IF(P187="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O187),IF(OR(P187="System",P187="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W187,IF(P187="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P187="Fuel Tank",IF(X187="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X187="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X187,CHAR(10),"    fuelTankSizeUpgrade = ",Y187),_xlfn.CONCAT("    fuelTankUpgradeType = ",X187))),"")))))))</f>
+        <f>IF(P187="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O187&lt;3,"0_2",IF(O187&lt;5,"3_4",IF(O187&lt;7,"5_6",IF(O187&lt;9,"7_8","9Plus"))))),IF(P187="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U187),IF(P187="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V187,CHAR(10),Parts!AP187,CHAR(10),"    enginePartUpgradeName = ",W187),IF(P187="Parachute","    parachuteUpgradeType = standard",IF(P187="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O187),IF(OR(P187="System",P187="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W187,IF(P187="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P187="Fuel Tank",IF(X187="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X187="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X187,CHAR(10),"    fuelTankSizeUpgrade = ",Y187),_xlfn.CONCAT("    fuelTankUpgradeType = ",X187))),IF(P187="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size184</v>
       </c>
@@ -35859,7 +35828,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>371</v>
       </c>
@@ -35958,7 +35927,7 @@
       </c>
       <c r="AL188" s="14"/>
       <c r="AM188" s="15" t="str">
-        <f>IF(P188="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O188&lt;3,"0_2",IF(O188&lt;5,"3_4",IF(O188&lt;7,"5_6",IF(O188&lt;9,"7_8","9Plus"))))),IF(P188="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U188),IF(P188="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V188,CHAR(10),Parts!AP188,CHAR(10),"    enginePartUpgradeName = ",W188),IF(P188="Parachute","    parachuteUpgradeType = standard",IF(P188="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O188),IF(OR(P188="System",P188="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W188,IF(P188="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P188="Fuel Tank",IF(X188="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X188="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X188,CHAR(10),"    fuelTankSizeUpgrade = ",Y188),_xlfn.CONCAT("    fuelTankUpgradeType = ",X188))),"")))))))</f>
+        <f>IF(P188="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O188&lt;3,"0_2",IF(O188&lt;5,"3_4",IF(O188&lt;7,"5_6",IF(O188&lt;9,"7_8","9Plus"))))),IF(P188="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U188),IF(P188="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V188,CHAR(10),Parts!AP188,CHAR(10),"    enginePartUpgradeName = ",W188),IF(P188="Parachute","    parachuteUpgradeType = standard",IF(P188="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O188),IF(OR(P188="System",P188="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W188,IF(P188="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P188="Fuel Tank",IF(X188="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X188="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X188,CHAR(10),"    fuelTankSizeUpgrade = ",Y188),_xlfn.CONCAT("    fuelTankUpgradeType = ",X188))),IF(P188="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size185</v>
       </c>
@@ -35982,7 +35951,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>371</v>
       </c>
@@ -36081,7 +36050,7 @@
       </c>
       <c r="AL189" s="14"/>
       <c r="AM189" s="15" t="str">
-        <f>IF(P189="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O189&lt;3,"0_2",IF(O189&lt;5,"3_4",IF(O189&lt;7,"5_6",IF(O189&lt;9,"7_8","9Plus"))))),IF(P189="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U189),IF(P189="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V189,CHAR(10),Parts!AP189,CHAR(10),"    enginePartUpgradeName = ",W189),IF(P189="Parachute","    parachuteUpgradeType = standard",IF(P189="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O189),IF(OR(P189="System",P189="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W189,IF(P189="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P189="Fuel Tank",IF(X189="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X189="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X189,CHAR(10),"    fuelTankSizeUpgrade = ",Y189),_xlfn.CONCAT("    fuelTankUpgradeType = ",X189))),"")))))))</f>
+        <f>IF(P189="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O189&lt;3,"0_2",IF(O189&lt;5,"3_4",IF(O189&lt;7,"5_6",IF(O189&lt;9,"7_8","9Plus"))))),IF(P189="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U189),IF(P189="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V189,CHAR(10),Parts!AP189,CHAR(10),"    enginePartUpgradeName = ",W189),IF(P189="Parachute","    parachuteUpgradeType = standard",IF(P189="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O189),IF(OR(P189="System",P189="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W189,IF(P189="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P189="Fuel Tank",IF(X189="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X189="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X189,CHAR(10),"    fuelTankSizeUpgrade = ",Y189),_xlfn.CONCAT("    fuelTankUpgradeType = ",X189))),IF(P189="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size186</v>
       </c>
@@ -36105,7 +36074,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>371</v>
       </c>
@@ -36204,7 +36173,7 @@
       </c>
       <c r="AL190" s="14"/>
       <c r="AM190" s="15" t="str">
-        <f>IF(P190="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O190&lt;3,"0_2",IF(O190&lt;5,"3_4",IF(O190&lt;7,"5_6",IF(O190&lt;9,"7_8","9Plus"))))),IF(P190="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U190),IF(P190="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V190,CHAR(10),Parts!AP190,CHAR(10),"    enginePartUpgradeName = ",W190),IF(P190="Parachute","    parachuteUpgradeType = standard",IF(P190="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O190),IF(OR(P190="System",P190="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W190,IF(P190="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P190="Fuel Tank",IF(X190="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X190="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X190,CHAR(10),"    fuelTankSizeUpgrade = ",Y190),_xlfn.CONCAT("    fuelTankUpgradeType = ",X190))),"")))))))</f>
+        <f>IF(P190="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O190&lt;3,"0_2",IF(O190&lt;5,"3_4",IF(O190&lt;7,"5_6",IF(O190&lt;9,"7_8","9Plus"))))),IF(P190="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U190),IF(P190="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V190,CHAR(10),Parts!AP190,CHAR(10),"    enginePartUpgradeName = ",W190),IF(P190="Parachute","    parachuteUpgradeType = standard",IF(P190="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O190),IF(OR(P190="System",P190="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W190,IF(P190="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P190="Fuel Tank",IF(X190="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X190="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X190,CHAR(10),"    fuelTankSizeUpgrade = ",Y190),_xlfn.CONCAT("    fuelTankUpgradeType = ",X190))),IF(P190="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size187</v>
       </c>
@@ -36228,7 +36197,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>371</v>
       </c>
@@ -36327,7 +36296,7 @@
       </c>
       <c r="AL191" s="14"/>
       <c r="AM191" s="15" t="str">
-        <f>IF(P191="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O191&lt;3,"0_2",IF(O191&lt;5,"3_4",IF(O191&lt;7,"5_6",IF(O191&lt;9,"7_8","9Plus"))))),IF(P191="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U191),IF(P191="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V191,CHAR(10),Parts!AP191,CHAR(10),"    enginePartUpgradeName = ",W191),IF(P191="Parachute","    parachuteUpgradeType = standard",IF(P191="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O191),IF(OR(P191="System",P191="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W191,IF(P191="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P191="Fuel Tank",IF(X191="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X191="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X191,CHAR(10),"    fuelTankSizeUpgrade = ",Y191),_xlfn.CONCAT("    fuelTankUpgradeType = ",X191))),"")))))))</f>
+        <f>IF(P191="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O191&lt;3,"0_2",IF(O191&lt;5,"3_4",IF(O191&lt;7,"5_6",IF(O191&lt;9,"7_8","9Plus"))))),IF(P191="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U191),IF(P191="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V191,CHAR(10),Parts!AP191,CHAR(10),"    enginePartUpgradeName = ",W191),IF(P191="Parachute","    parachuteUpgradeType = standard",IF(P191="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O191),IF(OR(P191="System",P191="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W191,IF(P191="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P191="Fuel Tank",IF(X191="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X191="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X191,CHAR(10),"    fuelTankSizeUpgrade = ",Y191),_xlfn.CONCAT("    fuelTankUpgradeType = ",X191))),IF(P191="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size188</v>
       </c>
@@ -36351,7 +36320,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>371</v>
       </c>
@@ -36450,7 +36419,7 @@
       </c>
       <c r="AL192" s="14"/>
       <c r="AM192" s="15" t="str">
-        <f>IF(P192="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O192&lt;3,"0_2",IF(O192&lt;5,"3_4",IF(O192&lt;7,"5_6",IF(O192&lt;9,"7_8","9Plus"))))),IF(P192="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U192),IF(P192="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V192,CHAR(10),Parts!AP192,CHAR(10),"    enginePartUpgradeName = ",W192),IF(P192="Parachute","    parachuteUpgradeType = standard",IF(P192="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O192),IF(OR(P192="System",P192="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W192,IF(P192="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P192="Fuel Tank",IF(X192="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X192="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X192,CHAR(10),"    fuelTankSizeUpgrade = ",Y192),_xlfn.CONCAT("    fuelTankUpgradeType = ",X192))),"")))))))</f>
+        <f>IF(P192="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O192&lt;3,"0_2",IF(O192&lt;5,"3_4",IF(O192&lt;7,"5_6",IF(O192&lt;9,"7_8","9Plus"))))),IF(P192="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U192),IF(P192="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V192,CHAR(10),Parts!AP192,CHAR(10),"    enginePartUpgradeName = ",W192),IF(P192="Parachute","    parachuteUpgradeType = standard",IF(P192="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O192),IF(OR(P192="System",P192="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W192,IF(P192="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P192="Fuel Tank",IF(X192="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X192="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X192,CHAR(10),"    fuelTankSizeUpgrade = ",Y192),_xlfn.CONCAT("    fuelTankUpgradeType = ",X192))),IF(P192="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size189</v>
       </c>
@@ -36474,7 +36443,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>371</v>
       </c>
@@ -36573,7 +36542,7 @@
       </c>
       <c r="AL193" s="14"/>
       <c r="AM193" s="15" t="str">
-        <f>IF(P193="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O193&lt;3,"0_2",IF(O193&lt;5,"3_4",IF(O193&lt;7,"5_6",IF(O193&lt;9,"7_8","9Plus"))))),IF(P193="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U193),IF(P193="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V193,CHAR(10),Parts!AP193,CHAR(10),"    enginePartUpgradeName = ",W193),IF(P193="Parachute","    parachuteUpgradeType = standard",IF(P193="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O193),IF(OR(P193="System",P193="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W193,IF(P193="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P193="Fuel Tank",IF(X193="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X193="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X193,CHAR(10),"    fuelTankSizeUpgrade = ",Y193),_xlfn.CONCAT("    fuelTankUpgradeType = ",X193))),"")))))))</f>
+        <f>IF(P193="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O193&lt;3,"0_2",IF(O193&lt;5,"3_4",IF(O193&lt;7,"5_6",IF(O193&lt;9,"7_8","9Plus"))))),IF(P193="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U193),IF(P193="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V193,CHAR(10),Parts!AP193,CHAR(10),"    enginePartUpgradeName = ",W193),IF(P193="Parachute","    parachuteUpgradeType = standard",IF(P193="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O193),IF(OR(P193="System",P193="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W193,IF(P193="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P193="Fuel Tank",IF(X193="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X193="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X193,CHAR(10),"    fuelTankSizeUpgrade = ",Y193),_xlfn.CONCAT("    fuelTankUpgradeType = ",X193))),IF(P193="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size190</v>
       </c>
@@ -36597,7 +36566,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>371</v>
       </c>
@@ -36696,7 +36665,7 @@
       </c>
       <c r="AL194" s="14"/>
       <c r="AM194" s="15" t="str">
-        <f>IF(P194="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O194&lt;3,"0_2",IF(O194&lt;5,"3_4",IF(O194&lt;7,"5_6",IF(O194&lt;9,"7_8","9Plus"))))),IF(P194="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U194),IF(P194="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V194,CHAR(10),Parts!AP194,CHAR(10),"    enginePartUpgradeName = ",W194),IF(P194="Parachute","    parachuteUpgradeType = standard",IF(P194="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O194),IF(OR(P194="System",P194="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W194,IF(P194="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P194="Fuel Tank",IF(X194="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X194="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X194,CHAR(10),"    fuelTankSizeUpgrade = ",Y194),_xlfn.CONCAT("    fuelTankUpgradeType = ",X194))),"")))))))</f>
+        <f>IF(P194="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O194&lt;3,"0_2",IF(O194&lt;5,"3_4",IF(O194&lt;7,"5_6",IF(O194&lt;9,"7_8","9Plus"))))),IF(P194="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U194),IF(P194="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V194,CHAR(10),Parts!AP194,CHAR(10),"    enginePartUpgradeName = ",W194),IF(P194="Parachute","    parachuteUpgradeType = standard",IF(P194="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O194),IF(OR(P194="System",P194="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W194,IF(P194="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P194="Fuel Tank",IF(X194="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X194="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X194,CHAR(10),"    fuelTankSizeUpgrade = ",Y194),_xlfn.CONCAT("    fuelTankUpgradeType = ",X194))),IF(P194="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size191</v>
       </c>
@@ -36720,7 +36689,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>371</v>
       </c>
@@ -36819,7 +36788,7 @@
       </c>
       <c r="AL195" s="14"/>
       <c r="AM195" s="15" t="str">
-        <f>IF(P195="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O195&lt;3,"0_2",IF(O195&lt;5,"3_4",IF(O195&lt;7,"5_6",IF(O195&lt;9,"7_8","9Plus"))))),IF(P195="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U195),IF(P195="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V195,CHAR(10),Parts!AP195,CHAR(10),"    enginePartUpgradeName = ",W195),IF(P195="Parachute","    parachuteUpgradeType = standard",IF(P195="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O195),IF(OR(P195="System",P195="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W195,IF(P195="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P195="Fuel Tank",IF(X195="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X195="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X195,CHAR(10),"    fuelTankSizeUpgrade = ",Y195),_xlfn.CONCAT("    fuelTankUpgradeType = ",X195))),"")))))))</f>
+        <f>IF(P195="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O195&lt;3,"0_2",IF(O195&lt;5,"3_4",IF(O195&lt;7,"5_6",IF(O195&lt;9,"7_8","9Plus"))))),IF(P195="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U195),IF(P195="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V195,CHAR(10),Parts!AP195,CHAR(10),"    enginePartUpgradeName = ",W195),IF(P195="Parachute","    parachuteUpgradeType = standard",IF(P195="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O195),IF(OR(P195="System",P195="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W195,IF(P195="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P195="Fuel Tank",IF(X195="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X195="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X195,CHAR(10),"    fuelTankSizeUpgrade = ",Y195),_xlfn.CONCAT("    fuelTankUpgradeType = ",X195))),IF(P195="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size192</v>
       </c>
@@ -36843,7 +36812,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>371</v>
       </c>
@@ -36942,7 +36911,7 @@
       </c>
       <c r="AL196" s="14"/>
       <c r="AM196" s="15" t="str">
-        <f>IF(P196="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O196&lt;3,"0_2",IF(O196&lt;5,"3_4",IF(O196&lt;7,"5_6",IF(O196&lt;9,"7_8","9Plus"))))),IF(P196="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U196),IF(P196="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V196,CHAR(10),Parts!AP196,CHAR(10),"    enginePartUpgradeName = ",W196),IF(P196="Parachute","    parachuteUpgradeType = standard",IF(P196="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O196),IF(OR(P196="System",P196="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W196,IF(P196="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P196="Fuel Tank",IF(X196="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X196="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X196,CHAR(10),"    fuelTankSizeUpgrade = ",Y196),_xlfn.CONCAT("    fuelTankUpgradeType = ",X196))),"")))))))</f>
+        <f>IF(P196="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O196&lt;3,"0_2",IF(O196&lt;5,"3_4",IF(O196&lt;7,"5_6",IF(O196&lt;9,"7_8","9Plus"))))),IF(P196="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U196),IF(P196="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V196,CHAR(10),Parts!AP196,CHAR(10),"    enginePartUpgradeName = ",W196),IF(P196="Parachute","    parachuteUpgradeType = standard",IF(P196="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O196),IF(OR(P196="System",P196="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W196,IF(P196="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P196="Fuel Tank",IF(X196="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X196="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X196,CHAR(10),"    fuelTankSizeUpgrade = ",Y196),_xlfn.CONCAT("    fuelTankUpgradeType = ",X196))),IF(P196="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size193</v>
       </c>
@@ -36966,7 +36935,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>371</v>
       </c>
@@ -37065,7 +37034,7 @@
       </c>
       <c r="AL197" s="14"/>
       <c r="AM197" s="15" t="str">
-        <f>IF(P197="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O197&lt;3,"0_2",IF(O197&lt;5,"3_4",IF(O197&lt;7,"5_6",IF(O197&lt;9,"7_8","9Plus"))))),IF(P197="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U197),IF(P197="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V197,CHAR(10),Parts!AP197,CHAR(10),"    enginePartUpgradeName = ",W197),IF(P197="Parachute","    parachuteUpgradeType = standard",IF(P197="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O197),IF(OR(P197="System",P197="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W197,IF(P197="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P197="Fuel Tank",IF(X197="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X197="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X197,CHAR(10),"    fuelTankSizeUpgrade = ",Y197),_xlfn.CONCAT("    fuelTankUpgradeType = ",X197))),"")))))))</f>
+        <f>IF(P197="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O197&lt;3,"0_2",IF(O197&lt;5,"3_4",IF(O197&lt;7,"5_6",IF(O197&lt;9,"7_8","9Plus"))))),IF(P197="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U197),IF(P197="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V197,CHAR(10),Parts!AP197,CHAR(10),"    enginePartUpgradeName = ",W197),IF(P197="Parachute","    parachuteUpgradeType = standard",IF(P197="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O197),IF(OR(P197="System",P197="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W197,IF(P197="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P197="Fuel Tank",IF(X197="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X197="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X197,CHAR(10),"    fuelTankSizeUpgrade = ",Y197),_xlfn.CONCAT("    fuelTankUpgradeType = ",X197))),IF(P197="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size194</v>
       </c>
@@ -37089,7 +37058,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>371</v>
       </c>
@@ -37188,7 +37157,7 @@
       </c>
       <c r="AL198" s="14"/>
       <c r="AM198" s="15" t="str">
-        <f>IF(P198="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O198&lt;3,"0_2",IF(O198&lt;5,"3_4",IF(O198&lt;7,"5_6",IF(O198&lt;9,"7_8","9Plus"))))),IF(P198="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U198),IF(P198="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V198,CHAR(10),Parts!AP198,CHAR(10),"    enginePartUpgradeName = ",W198),IF(P198="Parachute","    parachuteUpgradeType = standard",IF(P198="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O198),IF(OR(P198="System",P198="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W198,IF(P198="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P198="Fuel Tank",IF(X198="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X198="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X198,CHAR(10),"    fuelTankSizeUpgrade = ",Y198),_xlfn.CONCAT("    fuelTankUpgradeType = ",X198))),"")))))))</f>
+        <f>IF(P198="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O198&lt;3,"0_2",IF(O198&lt;5,"3_4",IF(O198&lt;7,"5_6",IF(O198&lt;9,"7_8","9Plus"))))),IF(P198="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U198),IF(P198="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V198,CHAR(10),Parts!AP198,CHAR(10),"    enginePartUpgradeName = ",W198),IF(P198="Parachute","    parachuteUpgradeType = standard",IF(P198="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O198),IF(OR(P198="System",P198="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W198,IF(P198="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P198="Fuel Tank",IF(X198="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X198="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X198,CHAR(10),"    fuelTankSizeUpgrade = ",Y198),_xlfn.CONCAT("    fuelTankUpgradeType = ",X198))),IF(P198="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size195</v>
       </c>
@@ -37212,7 +37181,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>371</v>
       </c>
@@ -37311,7 +37280,7 @@
       </c>
       <c r="AL199" s="14"/>
       <c r="AM199" s="15" t="str">
-        <f>IF(P199="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O199&lt;3,"0_2",IF(O199&lt;5,"3_4",IF(O199&lt;7,"5_6",IF(O199&lt;9,"7_8","9Plus"))))),IF(P199="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U199),IF(P199="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V199,CHAR(10),Parts!AP199,CHAR(10),"    enginePartUpgradeName = ",W199),IF(P199="Parachute","    parachuteUpgradeType = standard",IF(P199="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O199),IF(OR(P199="System",P199="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W199,IF(P199="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P199="Fuel Tank",IF(X199="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X199="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X199,CHAR(10),"    fuelTankSizeUpgrade = ",Y199),_xlfn.CONCAT("    fuelTankUpgradeType = ",X199))),"")))))))</f>
+        <f>IF(P199="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O199&lt;3,"0_2",IF(O199&lt;5,"3_4",IF(O199&lt;7,"5_6",IF(O199&lt;9,"7_8","9Plus"))))),IF(P199="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U199),IF(P199="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V199,CHAR(10),Parts!AP199,CHAR(10),"    enginePartUpgradeName = ",W199),IF(P199="Parachute","    parachuteUpgradeType = standard",IF(P199="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O199),IF(OR(P199="System",P199="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W199,IF(P199="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P199="Fuel Tank",IF(X199="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X199="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X199,CHAR(10),"    fuelTankSizeUpgrade = ",Y199),_xlfn.CONCAT("    fuelTankUpgradeType = ",X199))),IF(P199="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size196</v>
       </c>
@@ -37335,7 +37304,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>371</v>
       </c>
@@ -37434,7 +37403,7 @@
       </c>
       <c r="AL200" s="14"/>
       <c r="AM200" s="15" t="str">
-        <f>IF(P200="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O200&lt;3,"0_2",IF(O200&lt;5,"3_4",IF(O200&lt;7,"5_6",IF(O200&lt;9,"7_8","9Plus"))))),IF(P200="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U200),IF(P200="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V200,CHAR(10),Parts!AP200,CHAR(10),"    enginePartUpgradeName = ",W200),IF(P200="Parachute","    parachuteUpgradeType = standard",IF(P200="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O200),IF(OR(P200="System",P200="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W200,IF(P200="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P200="Fuel Tank",IF(X200="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X200="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X200,CHAR(10),"    fuelTankSizeUpgrade = ",Y200),_xlfn.CONCAT("    fuelTankUpgradeType = ",X200))),"")))))))</f>
+        <f>IF(P200="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O200&lt;3,"0_2",IF(O200&lt;5,"3_4",IF(O200&lt;7,"5_6",IF(O200&lt;9,"7_8","9Plus"))))),IF(P200="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U200),IF(P200="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V200,CHAR(10),Parts!AP200,CHAR(10),"    enginePartUpgradeName = ",W200),IF(P200="Parachute","    parachuteUpgradeType = standard",IF(P200="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O200),IF(OR(P200="System",P200="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W200,IF(P200="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P200="Fuel Tank",IF(X200="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X200="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X200,CHAR(10),"    fuelTankSizeUpgrade = ",Y200),_xlfn.CONCAT("    fuelTankUpgradeType = ",X200))),IF(P200="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size197</v>
       </c>
@@ -37458,7 +37427,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:44" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>371</v>
       </c>
@@ -37557,7 +37526,7 @@
       </c>
       <c r="AL201" s="14"/>
       <c r="AM201" s="15" t="str">
-        <f>IF(P201="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O201&lt;3,"0_2",IF(O201&lt;5,"3_4",IF(O201&lt;7,"5_6",IF(O201&lt;9,"7_8","9Plus"))))),IF(P201="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U201),IF(P201="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V201,CHAR(10),Parts!AP201,CHAR(10),"    enginePartUpgradeName = ",W201),IF(P201="Parachute","    parachuteUpgradeType = standard",IF(P201="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O201),IF(OR(P201="System",P201="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W201,IF(P201="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P201="Fuel Tank",IF(X201="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X201="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X201,CHAR(10),"    fuelTankSizeUpgrade = ",Y201),_xlfn.CONCAT("    fuelTankUpgradeType = ",X201))),"")))))))</f>
+        <f>IF(P201="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O201&lt;3,"0_2",IF(O201&lt;5,"3_4",IF(O201&lt;7,"5_6",IF(O201&lt;9,"7_8","9Plus"))))),IF(P201="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U201),IF(P201="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V201,CHAR(10),Parts!AP201,CHAR(10),"    enginePartUpgradeName = ",W201),IF(P201="Parachute","    parachuteUpgradeType = standard",IF(P201="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O201),IF(OR(P201="System",P201="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W201,IF(P201="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P201="Fuel Tank",IF(X201="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X201="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X201,CHAR(10),"    fuelTankSizeUpgrade = ",Y201),_xlfn.CONCAT("    fuelTankUpgradeType = ",X201))),IF(P201="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size198</v>
       </c>
@@ -37581,7 +37550,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:44" ht="132.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:44" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>371</v>
       </c>
@@ -37680,7 +37649,7 @@
       </c>
       <c r="AL202" s="14"/>
       <c r="AM202" s="15" t="str">
-        <f>IF(P202="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O202&lt;3,"0_2",IF(O202&lt;5,"3_4",IF(O202&lt;7,"5_6",IF(O202&lt;9,"7_8","9Plus"))))),IF(P202="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U202),IF(P202="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V202,CHAR(10),Parts!AP202,CHAR(10),"    enginePartUpgradeName = ",W202),IF(P202="Parachute","    parachuteUpgradeType = standard",IF(P202="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O202),IF(OR(P202="System",P202="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W202,IF(P202="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P202="Fuel Tank",IF(X202="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X202="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X202,CHAR(10),"    fuelTankSizeUpgrade = ",Y202),_xlfn.CONCAT("    fuelTankUpgradeType = ",X202))),"")))))))</f>
+        <f>IF(P202="Structural",_xlfn.CONCAT("    ","structuralUpgradeType = ",IF(O202&lt;3,"0_2",IF(O202&lt;5,"3_4",IF(O202&lt;7,"5_6",IF(O202&lt;9,"7_8","9Plus"))))),IF(P202="Command Module",_xlfn.CONCAT("    commandUpgradeType = standard",CHAR(10),"    commandUpgradeName = ",U202),IF(P202="Engine",_xlfn.CONCAT("    engineUpgradeType = ",V202,CHAR(10),Parts!AP202,CHAR(10),"    enginePartUpgradeName = ",W202),IF(P202="Parachute","    parachuteUpgradeType = standard",IF(P202="Solar",_xlfn.CONCAT("    solarPanelUpgradeTier = ",O202),IF(OR(P202="System",P202="System and Space Capability")=TRUE,_xlfn.CONCAT("    spacePlaneSystemUpgradeType = ",W202,IF(P202="System and Space Capability",_xlfn.CONCAT(CHAR(10),"    spaceplaneUpgradeType = spaceCapable",CHAR(10),"    baseSkinTemp = ",CHAR(10),"    upgradeSkinTemp = "),"")),IF(P202="Fuel Tank",IF(X202="NA/Balloon","    KiwiFuelSwitchIgnore = true",IF(X202="standardLiquidFuel",_xlfn.CONCAT("    fuelTankUpgradeType = ",X202,CHAR(10),"    fuelTankSizeUpgrade = ",Y202),_xlfn.CONCAT("    fuelTankUpgradeType = ",X202))),IF(P202="RCS","    rcsUpgradeType = coldGas",""))))))))</f>
         <v xml:space="preserve">    fuelTankUpgradeType = standardLiquidFuel
     fuelTankSizeUpgrade = size199</v>
       </c>
@@ -63661,7 +63630,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CB5DF89-B208-45FE-90F2-67930D6D01BA}">
           <x14:formula1>
-            <xm:f>UpgradeTypes!$A$2:$A$11</xm:f>
+            <xm:f>UpgradeTypes!$A$2:$A$12</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P202</xm:sqref>
         </x14:dataValidation>
@@ -63673,7 +63642,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD2AF8F5-D239-4203-A63C-1F4B7BBD5CAF}">
           <x14:formula1>
-            <xm:f>UpgradeTypes!$A$2:$A$34</xm:f>
+            <xm:f>UpgradeTypes!$A$2:$A$35</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P202</xm:sqref>
         </x14:dataValidation>
@@ -69497,10 +69466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB47E3FA-6353-4961-B766-82CAE67112F9}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69532,32 +69501,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+    <sortCondition ref="A2:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
